--- a/scenarios/scen_eu.xlsx
+++ b/scenarios/scen_eu.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\CREAF\dev\medeas_models_vensim\scenarios\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70D087EB-EDB5-4552-879D-7AEDAC66A1B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4507"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="16785" yWindow="7725" windowWidth="9600" windowHeight="6255" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="9600" windowHeight="3390" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Readme" sheetId="1" r:id="rId1"/>
@@ -18,8 +12,18 @@
     <sheet name="BAU" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
+    <definedName name="activate_afforestation_program" localSheetId="2">BAU!$B$65</definedName>
+    <definedName name="activate_ELF" localSheetId="2">BAU!$C$119</definedName>
+    <definedName name="activate_policy_hh_transp" localSheetId="2">BAU!$C$170</definedName>
+    <definedName name="activate_policy_inlandT" localSheetId="2">BAU!$C$171</definedName>
+    <definedName name="additional_land_compet_for_biofuels" localSheetId="2">BAU!$C$42</definedName>
+    <definedName name="asymptote_GDPpc" localSheetId="2">BAU!$G$8</definedName>
+    <definedName name="average_solar_I" localSheetId="2">BAU!$K$24</definedName>
+    <definedName name="cell_efficiency_target_year" localSheetId="2">BAU!$G$24</definedName>
     <definedName name="choose_energy_intensity_target_method" localSheetId="2">BAU!$C$260</definedName>
     <definedName name="choose_targets_mineral_recycling_rates" localSheetId="2">BAU!$D$286</definedName>
+    <definedName name="crash_programme_CTL" localSheetId="2">BAU!$D$110</definedName>
+    <definedName name="crash_programme_GTL" localSheetId="2">BAU!$D$112</definedName>
     <definedName name="efficiency_rate_of_substitution_electricity" localSheetId="2">BAU!$C$202:$Q$206</definedName>
     <definedName name="efficiency_rate_of_substitution_gases" localSheetId="2">BAU!$C$217:$Q$221</definedName>
     <definedName name="efficiency_rate_of_substitution_heat" localSheetId="2">BAU!$C$207:$Q$211</definedName>
@@ -31,39 +35,151 @@
     <definedName name="EROI_feedback_flag" localSheetId="2">BAU!$C$315</definedName>
     <definedName name="final_year_energy_intensity_target" localSheetId="2">BAU!$B$262</definedName>
     <definedName name="forest_overexplotation" localSheetId="2">BAU!$C$334</definedName>
+    <definedName name="geot_PE_potential_heat" localSheetId="2">BAU!$C$56</definedName>
+    <definedName name="GWP_time_frame" localSheetId="2">BAU!$J$116</definedName>
     <definedName name="limit_coal_imports_from_RoW" localSheetId="2">BAU!$D$328</definedName>
     <definedName name="limit_nat_gas_imports_from_RoW" localSheetId="2">BAU!$D$324</definedName>
     <definedName name="limit_oil_imports_from_RoW" localSheetId="2">BAU!$D$320</definedName>
+    <definedName name="max_NPP_pot_bioe_residues" localSheetId="2">BAU!$C$41</definedName>
+    <definedName name="max_PE_biogas" localSheetId="2">BAU!$C$52</definedName>
+    <definedName name="max_PE_waste" localSheetId="2">BAU!$F$52</definedName>
     <definedName name="max_share_imports_coal" localSheetId="2">BAU!$F$330</definedName>
     <definedName name="max_share_imports_nat_gas" localSheetId="2">BAU!$F$326</definedName>
     <definedName name="max_share_imports_oil" localSheetId="2">BAU!$F$322</definedName>
+    <definedName name="min_FEI_vs_initial" localSheetId="2">BAU!$C$199</definedName>
     <definedName name="minimum_forest" localSheetId="2">BAU!$C$335</definedName>
+    <definedName name="p_bioe_residues_growth" localSheetId="2">BAU!$C$50</definedName>
+    <definedName name="p_biofuels_2gen_land_compet" localSheetId="2">BAU!$C$45</definedName>
+    <definedName name="p_biofuels_3gen_land_compet" localSheetId="2">BAU!$C$47</definedName>
+    <definedName name="p_biofuels_marg_land_growth" localSheetId="2">BAU!$F$46</definedName>
+    <definedName name="p_biogas_growth" localSheetId="2">BAU!$C$53</definedName>
+    <definedName name="p_capital_share" localSheetId="2">BAU!$F$3</definedName>
+    <definedName name="p_change_over_hist_max_variation_FEI" localSheetId="2">BAU!$C$200</definedName>
     <definedName name="P_common_rr_minerals_variation_alt_techn" localSheetId="2">BAU!$C$310</definedName>
     <definedName name="P_common_rr_minerals_variation_Rest" localSheetId="2">BAU!$C$311</definedName>
+    <definedName name="p_constant_gdp_variation" localSheetId="2">BAU!$G$7</definedName>
+    <definedName name="p_constant_pop_variation" localSheetId="2">BAU!$G$14</definedName>
+    <definedName name="p_constraint_growth_unconv_gas" localSheetId="2">BAU!$C$96</definedName>
+    <definedName name="p_constraint_growth_unconv_oil" localSheetId="2">BAU!$C$80</definedName>
+    <definedName name="p_CSP_growth" localSheetId="2">BAU!$F$38</definedName>
+    <definedName name="p_CTL_growth" localSheetId="2">BAU!$C$110</definedName>
+    <definedName name="p_geot_elect_growth" localSheetId="2">BAU!$C$33</definedName>
+    <definedName name="p_geot_heat_growth" localSheetId="2">BAU!$C$61</definedName>
+    <definedName name="p_GTL_growth" localSheetId="2">BAU!$C$112</definedName>
+    <definedName name="p_hydro_growth" localSheetId="2">BAU!$C$32</definedName>
+    <definedName name="p_labour_share" localSheetId="2">BAU!$C$3</definedName>
+    <definedName name="p_nuclear_scen3_4_variation" localSheetId="2">BAU!$F$22</definedName>
+    <definedName name="p_oceanic_growth" localSheetId="2">BAU!$C$35</definedName>
+    <definedName name="p_PHS_growth" localSheetId="2">BAU!$F$37</definedName>
+    <definedName name="p_pop_asymptote" localSheetId="2">BAU!$G$15</definedName>
     <definedName name="P_rr_minerals_alt_techn" localSheetId="2">BAU!$D$290:$D$308</definedName>
     <definedName name="P_rr_minerals_Rest" localSheetId="2">BAU!$E$290:$E$308</definedName>
+    <definedName name="p_solar_heat" localSheetId="2">BAU!$C$60</definedName>
+    <definedName name="p_solar_PV" localSheetId="2">BAU!$C$38</definedName>
+    <definedName name="p_solid_bioe_elect_growth" localSheetId="2">BAU!$C$34</definedName>
+    <definedName name="p_solid_bioe_heat" localSheetId="2">BAU!$C$62</definedName>
+    <definedName name="p_timeseries_gdp_growth" localSheetId="2">BAU!$E$6:$AO$6</definedName>
+    <definedName name="p_timeseries_pop_growth" localSheetId="2">BAU!$E$13:$AO$13</definedName>
+    <definedName name="p_waste_growth" localSheetId="2">BAU!$F$53</definedName>
+    <definedName name="p_wind_offshore_growth" localSheetId="2">BAU!$C$37</definedName>
+    <definedName name="p_wind_onshore_growth" localSheetId="2">BAU!$C$36</definedName>
     <definedName name="pct_change_energy_intensity_target" localSheetId="2">BAU!$C$273</definedName>
+    <definedName name="percent_2w_tfin_over_hh_veh" localSheetId="2">BAU!$C$181</definedName>
+    <definedName name="percent_electr_bus_tfin" localSheetId="2">BAU!$C$188</definedName>
+    <definedName name="percent_electr_hh_4w_tfin" localSheetId="2">BAU!$C$177</definedName>
+    <definedName name="percent_electric_2w_tfin" localSheetId="2">BAU!$C$180</definedName>
+    <definedName name="percent_electric_light_cargo_veh_tfin" localSheetId="2">BAU!$C$185</definedName>
+    <definedName name="percent_electric_train_tfin" localSheetId="2">BAU!$C$191</definedName>
+    <definedName name="percent_gas_heavy_veh_tfin" localSheetId="2">BAU!$C$184</definedName>
+    <definedName name="percent_gas_hh_veh_4w_tfin" localSheetId="2">BAU!$C$179</definedName>
+    <definedName name="percent_hybrid_bus_tfin" localSheetId="2">BAU!$C$189</definedName>
+    <definedName name="percent_hybrid_heavy_veh_tfin" localSheetId="2">BAU!$C$183</definedName>
+    <definedName name="percent_hybrid_hh_4w_veh_tfin" localSheetId="2">BAU!$C$178</definedName>
+    <definedName name="percent_hybrid_light_cargo_veh_tfin" localSheetId="2">BAU!$C$186</definedName>
+    <definedName name="percent_natgas_bus_tfin" localSheetId="2">BAU!$C$190</definedName>
+    <definedName name="percent_natgas_light_cargo_veh_tfin" localSheetId="2">BAU!$C$187</definedName>
+    <definedName name="phase_out_oil_electr" localSheetId="2">BAU!$C$167</definedName>
+    <definedName name="phase_out_oil_heat" localSheetId="2">BAU!$C$168</definedName>
     <definedName name="policy_change_energy_speed" localSheetId="2">BAU!$C$246:$Q$250</definedName>
     <definedName name="policy_to_improve_efficiency_speed" localSheetId="2">BAU!$C$234:$Q$238</definedName>
+    <definedName name="pot_marg_land_biofuels" localSheetId="2">BAU!$C$43</definedName>
+    <definedName name="RCP_GHG_emissions_select" localSheetId="2">BAU!$G$116</definedName>
     <definedName name="scarcity_feedback_final_fuel_replacement_flag" localSheetId="2">BAU!$B$277</definedName>
+    <definedName name="sectoral_FEI_evolution_method" localSheetId="2">BAU!$C$195</definedName>
+    <definedName name="select_gdp_evolution" localSheetId="2">BAU!$B$4</definedName>
+    <definedName name="select_nuclear_scen" localSheetId="2">BAU!$D$19</definedName>
+    <definedName name="select_pop_evolution" localSheetId="2">BAU!$B$11</definedName>
     <definedName name="sensitivity_to_scarcity_option" localSheetId="2">BAU!$C$278</definedName>
     <definedName name="sensitivity_to_scarcity_option_H" localSheetId="2">BAU!$F$278</definedName>
+    <definedName name="separate_conv_and_unconv_gas" localSheetId="2">BAU!$C$83</definedName>
+    <definedName name="separate_conv_and_unconv_oil" localSheetId="2">BAU!$C$67</definedName>
+    <definedName name="share_available_roof" localSheetId="2">BAU!$G$28</definedName>
+    <definedName name="share_available_roof_for_rooftop_PV" localSheetId="2">BAU!$G$29</definedName>
+    <definedName name="share_cellulosic_biof_vs_bioe_res" localSheetId="2">BAU!$C$49</definedName>
+    <definedName name="share_PV_urban_tot_PV" localSheetId="2">BAU!$F$35</definedName>
+    <definedName name="share_roof_solar_thermal" localSheetId="2">BAU!$G$30</definedName>
+    <definedName name="share_RURR_agg_gas_underground" localSheetId="2">BAU!$F$128</definedName>
+    <definedName name="share_RURR_agg_oil_underground" localSheetId="2">BAU!$F$124</definedName>
+    <definedName name="share_RURR_coal_underground" localSheetId="2">BAU!$C$131</definedName>
+    <definedName name="share_RURR_conv_gas_underground" localSheetId="2">BAU!$C$127</definedName>
+    <definedName name="share_RURR_conv_oil_underground" localSheetId="2">BAU!$C$123</definedName>
+    <definedName name="share_RURR_unconv_gas_underground" localSheetId="2">BAU!$C$129</definedName>
+    <definedName name="share_RURR_unconv_oil_underground" localSheetId="2">BAU!$C$125</definedName>
+    <definedName name="share_target_year_oil_for_elec" localSheetId="2">BAU!$I$167</definedName>
+    <definedName name="share_target_year_oil_for_heat" localSheetId="2">BAU!$I$168</definedName>
+    <definedName name="start_policy_year_agg_gas_underground" localSheetId="2">BAU!$F$126</definedName>
+    <definedName name="start_policy_year_agg_oil_underground" localSheetId="2">BAU!$F$122</definedName>
+    <definedName name="start_policy_year_coal_underground" localSheetId="2">BAU!$C$130</definedName>
+    <definedName name="start_policy_year_conv_gas_underground" localSheetId="2">BAU!$C$126</definedName>
+    <definedName name="start_policy_year_conv_oil_underground" localSheetId="2">BAU!$C$122</definedName>
+    <definedName name="start_policy_year_unconv_gas_underground" localSheetId="2">BAU!$C$128</definedName>
+    <definedName name="start_policy_year_unconv_oil_underground">BAU!$C$124</definedName>
+    <definedName name="start_policy_year_unconv_opil_underground" localSheetId="2">BAU!$C$124</definedName>
+    <definedName name="start_year_3gen_cell_biofuels" localSheetId="2">BAU!$C$46</definedName>
+    <definedName name="start_year_bioe_residues_non_biofuels" localSheetId="2">BAU!$C$48</definedName>
+    <definedName name="start_year_biofuels_land_marg" localSheetId="2">BAU!$F$45</definedName>
+    <definedName name="start_year_cell_efficency_PV" localSheetId="2">BAU!$G$25</definedName>
     <definedName name="start_year_modification_EI" localSheetId="2">BAU!$E$262</definedName>
+    <definedName name="start_year_nuclear_variation_scen3_4" localSheetId="2">BAU!$H$22</definedName>
     <definedName name="start_year_P_common_rr_minerals_alt_techn" localSheetId="2">BAU!$F$310</definedName>
     <definedName name="start_year_P_common_rr_minerals_Rest" localSheetId="2">BAU!$F$311</definedName>
+    <definedName name="start_year_p_growth_RES_elec" localSheetId="2">BAU!$F$32</definedName>
+    <definedName name="start_year_p_growth_RES_heat" localSheetId="2">BAU!$C$58</definedName>
     <definedName name="start_year_P_rr_minerals" localSheetId="2">BAU!$B$289</definedName>
     <definedName name="start_year_P_urban_land_density" localSheetId="2">BAU!$C$338</definedName>
+    <definedName name="start_year_policy_phase_out_oil_for_electricity" localSheetId="2">BAU!$E$167</definedName>
+    <definedName name="start_year_policy_phase_out_oil_for_heat" localSheetId="2">BAU!$E$168</definedName>
     <definedName name="start_year_variation_primary_forest" localSheetId="2">BAU!$E$336</definedName>
+    <definedName name="targ_year_cell_efficiency_PV" localSheetId="2">BAU!$G$26</definedName>
+    <definedName name="target_year_asymptote_gdp" localSheetId="2">BAU!$I$8</definedName>
+    <definedName name="target_year_asymptote_pop" localSheetId="2">BAU!$I$15</definedName>
+    <definedName name="target_year_p_growth_RES_elec" localSheetId="2">BAU!$F$33</definedName>
+    <definedName name="target_year_p_growth_RES_heat" localSheetId="2">BAU!$C$59</definedName>
     <definedName name="target_year_P_rr_minerals" localSheetId="2">BAU!$B$288</definedName>
     <definedName name="target_year_P_urban_land_density" localSheetId="2">BAU!$C$339</definedName>
+    <definedName name="target_year_policy_phase_out_oil_electricity" localSheetId="2">BAU!$G$167</definedName>
+    <definedName name="target_year_policy_phase_out_oil_heat" localSheetId="2">BAU!$G$168</definedName>
+    <definedName name="tfin_policy_hh_veh" localSheetId="2">BAU!$C$173</definedName>
+    <definedName name="tfin_policy_inland_transp_veh" localSheetId="2">BAU!$C$175</definedName>
+    <definedName name="tini_policy_hh_veh" localSheetId="2">BAU!$C$172</definedName>
+    <definedName name="tini_policy_inland_transp_veh" localSheetId="2">BAU!$C$174</definedName>
+    <definedName name="unlimited_coal" localSheetId="2">BAU!$E$99</definedName>
+    <definedName name="unlimited_gas" localSheetId="2">BAU!$E$83</definedName>
+    <definedName name="unlimited_NRE" localSheetId="2">BAU!$E$66</definedName>
+    <definedName name="unlimited_oil" localSheetId="2">BAU!$E$67</definedName>
+    <definedName name="unlimited_uranium" localSheetId="2">BAU!$E$104</definedName>
     <definedName name="urban_land_density" localSheetId="2">BAU!$C$337</definedName>
     <definedName name="variation_primary_forest" localSheetId="2">BAU!$C$336</definedName>
     <definedName name="year_change_pct_energy_intensity_target" localSheetId="2">BAU!$C$272</definedName>
+    <definedName name="year_customized_gdp_evol" localSheetId="2">BAU!$E$7</definedName>
+    <definedName name="year_customized_pop_evol" localSheetId="2">BAU!$E$14</definedName>
+    <definedName name="year_gdp_timeseries" localSheetId="2">BAU!$E$5:$AO$5</definedName>
     <definedName name="year_policy_change_energy" localSheetId="2">BAU!$C$240:$Q$244</definedName>
     <definedName name="year_policy_to_improve_efficiency" localSheetId="2">BAU!$C$228:$Q$232</definedName>
+    <definedName name="year_pop_timeseries" localSheetId="2">BAU!$E$12:$AO$12</definedName>
     <definedName name="year_to_finish_energy_intensity_policies" localSheetId="2">BAU!$C$252:$Q$256</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="125725" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -80,12 +196,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>EM</author>
   </authors>
   <commentList>
-    <comment ref="A135" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
+    <comment ref="A135" authorId="0">
       <text>
         <r>
           <rPr>
@@ -110,7 +226,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A136" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000002000000}">
+    <comment ref="A136" authorId="0">
       <text>
         <r>
           <rPr>
@@ -135,7 +251,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="FP207" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000005000000}">
+    <comment ref="FP207" authorId="0">
       <text>
         <r>
           <rPr>
@@ -160,7 +276,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A247" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000003000000}">
+    <comment ref="A247" authorId="0">
       <text>
         <r>
           <rPr>
@@ -175,7 +291,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A256" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000004000000}">
+    <comment ref="A256" authorId="0">
       <text>
         <r>
           <rPr>
@@ -205,12 +321,12 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>EM</author>
   </authors>
   <commentList>
-    <comment ref="A270" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000001000000}">
+    <comment ref="A270" authorId="0">
       <text>
         <r>
           <rPr>
@@ -225,7 +341,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A277" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000002000000}">
+    <comment ref="A277" authorId="0">
       <text>
         <r>
           <rPr>
@@ -255,7 +371,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1647" uniqueCount="557">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1634" uniqueCount="557">
   <si>
     <t>This excel file contains the input data to run the MEDEAS model as documented in:</t>
   </si>
@@ -1793,9 +1909,6 @@
     <t>LV</t>
   </si>
   <si>
-    <t>Percent hybrid light cargbo vehicles in year Tfin</t>
-  </si>
-  <si>
     <t>bus</t>
   </si>
   <si>
@@ -1929,19 +2042,22 @@
   </si>
   <si>
     <t>Energy intensity target (EJ/M$ US1995)</t>
+  </si>
+  <si>
+    <t>Percent hybrid light cargo vehicles in year Tfin</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* \-??\ _€_-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="0.0%"/>
     <numFmt numFmtId="166" formatCode="#,##0.000"/>
     <numFmt numFmtId="167" formatCode="#,##0.0000"/>
   </numFmts>
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="15">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -2934,12 +3050,105 @@
     <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="1" xfId="8" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="1" xfId="8" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="1" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="11" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="8" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="21" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2964,124 +3173,6 @@
     <xf numFmtId="0" fontId="3" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="21" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="8" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="1" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="11" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3100,23 +3191,48 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="1" xfId="8" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="1" xfId="8" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="9">
-    <cellStyle name="Comma" xfId="1" builtinId="3"/>
-    <cellStyle name="Input 2" xfId="8" xr:uid="{5B2550CF-8F56-436C-B2A1-5615E5D64283}"/>
-    <cellStyle name="Millares 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="Input 2" xfId="8"/>
+    <cellStyle name="Millares" xfId="1" builtinId="3"/>
+    <cellStyle name="Millares 2" xfId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="4" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
-    <cellStyle name="Normal 2 2" xfId="5" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
-    <cellStyle name="Normal 2 2 2" xfId="6" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
-    <cellStyle name="Normal 4" xfId="7" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
-    <cellStyle name="Percent" xfId="2" builtinId="5"/>
+    <cellStyle name="Normal 2" xfId="4"/>
+    <cellStyle name="Normal 2 2" xfId="5"/>
+    <cellStyle name="Normal 2 2 2" xfId="6"/>
+    <cellStyle name="Normal 4" xfId="7"/>
+    <cellStyle name="Porcentual" xfId="2" builtinId="5"/>
   </cellStyles>
   <dxfs count="5">
     <dxf>
@@ -3296,7 +3412,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -3348,7 +3464,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -3542,14 +3658,14 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <tabColor rgb="FFFFFFFF"/>
   </sheetPr>
@@ -3559,28 +3675,28 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="18.28515625" customWidth="1"/>
     <col min="2" max="2" width="113.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:2" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="229" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="229"/>
-    </row>
-    <row r="3" spans="1:2" ht="45.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="230" t="s">
+    <row r="2" spans="1:2" ht="14.45" customHeight="1">
+      <c r="A2" s="231" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="231"/>
+    </row>
+    <row r="3" spans="1:2" ht="45.6" customHeight="1">
+      <c r="A3" s="232" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="230"/>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B3" s="232"/>
+    </row>
+    <row r="4" spans="1:2">
       <c r="A4" s="1"/>
     </row>
-    <row r="5" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2">
       <c r="A5" s="2" t="s">
         <v>2</v>
       </c>
@@ -3588,7 +3704,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2">
       <c r="A6" s="4" t="s">
         <v>4</v>
       </c>
@@ -3596,7 +3712,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2">
       <c r="A7" s="5" t="s">
         <v>6</v>
       </c>
@@ -3604,10 +3720,10 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2">
       <c r="A8" s="1"/>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2">
       <c r="A9" s="6"/>
     </row>
   </sheetData>
@@ -3621,7 +3737,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <tabColor rgb="FFFFE699"/>
   </sheetPr>
@@ -3631,7 +3747,7 @@
       <selection activeCell="C287" sqref="C287"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="44.85546875" customWidth="1"/>
     <col min="2" max="2" width="35.28515625" customWidth="1"/>
@@ -3645,7 +3761,7 @@
     <col min="17" max="17" width="35.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:91" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:91" ht="31.5">
       <c r="A1" s="7" t="s">
         <v>8</v>
       </c>
@@ -3653,7 +3769,7 @@
       <c r="C1" s="9"/>
       <c r="D1" s="9"/>
     </row>
-    <row r="2" spans="1:91" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:91">
       <c r="A2" s="10" t="s">
         <v>9</v>
       </c>
@@ -3747,7 +3863,7 @@
       <c r="CK2" s="11"/>
       <c r="CL2" s="12"/>
     </row>
-    <row r="3" spans="1:91" s="20" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:91" s="20" customFormat="1">
       <c r="A3" s="13" t="s">
         <v>10</v>
       </c>
@@ -3847,11 +3963,11 @@
       <c r="CK3" s="18"/>
       <c r="CL3" s="19"/>
     </row>
-    <row r="4" spans="1:91" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="231" t="s">
+    <row r="4" spans="1:91" s="20" customFormat="1">
+      <c r="A4" s="266" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="232" t="s">
+      <c r="B4" s="267" t="s">
         <v>15</v>
       </c>
       <c r="C4" s="21" t="s">
@@ -3861,10 +3977,10 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:91" x14ac:dyDescent="0.25">
-      <c r="A5" s="231"/>
-      <c r="B5" s="232"/>
-      <c r="C5" s="233" t="s">
+    <row r="5" spans="1:91">
+      <c r="A5" s="266"/>
+      <c r="B5" s="267"/>
+      <c r="C5" s="268" t="s">
         <v>18</v>
       </c>
       <c r="D5" s="24" t="s">
@@ -4129,10 +4245,10 @@
         <v>2100</v>
       </c>
     </row>
-    <row r="6" spans="1:91" x14ac:dyDescent="0.25">
-      <c r="A6" s="231"/>
-      <c r="B6" s="232"/>
-      <c r="C6" s="233"/>
+    <row r="6" spans="1:91">
+      <c r="A6" s="266"/>
+      <c r="B6" s="267"/>
+      <c r="C6" s="268"/>
       <c r="D6" s="24" t="s">
         <v>20</v>
       </c>
@@ -4225,16 +4341,16 @@
       <c r="CK6" s="26"/>
       <c r="CL6" s="26"/>
     </row>
-    <row r="7" spans="1:91" x14ac:dyDescent="0.25">
-      <c r="A7" s="231"/>
-      <c r="B7" s="232"/>
+    <row r="7" spans="1:91">
+      <c r="A7" s="266"/>
+      <c r="B7" s="267"/>
       <c r="C7" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="D7" s="234" t="s">
+      <c r="D7" s="269" t="s">
         <v>23</v>
       </c>
-      <c r="E7" s="235" t="s">
+      <c r="E7" s="270" t="s">
         <v>24</v>
       </c>
       <c r="F7" s="13" t="s">
@@ -4327,14 +4443,14 @@
       <c r="CK7" s="18"/>
       <c r="CL7" s="18"/>
     </row>
-    <row r="8" spans="1:91" x14ac:dyDescent="0.25">
-      <c r="A8" s="231"/>
-      <c r="B8" s="232"/>
+    <row r="8" spans="1:91">
+      <c r="A8" s="266"/>
+      <c r="B8" s="267"/>
       <c r="C8" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="D8" s="234"/>
-      <c r="E8" s="235"/>
+      <c r="D8" s="269"/>
+      <c r="E8" s="270"/>
       <c r="F8" s="13" t="s">
         <v>28</v>
       </c>
@@ -4429,7 +4545,7 @@
       <c r="CK8" s="28"/>
       <c r="CL8" s="28"/>
     </row>
-    <row r="9" spans="1:91" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:91">
       <c r="A9" s="28"/>
       <c r="B9" s="28"/>
       <c r="C9" s="28"/>
@@ -4521,7 +4637,7 @@
       <c r="CK9" s="28"/>
       <c r="CL9" s="28"/>
     </row>
-    <row r="10" spans="1:91" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:91">
       <c r="A10" s="29" t="s">
         <v>31</v>
       </c>
@@ -4615,11 +4731,11 @@
       <c r="CK10" s="11"/>
       <c r="CL10" s="12"/>
     </row>
-    <row r="11" spans="1:91" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="236" t="s">
+    <row r="11" spans="1:91" s="20" customFormat="1">
+      <c r="A11" s="271" t="s">
         <v>32</v>
       </c>
-      <c r="B11" s="237" t="s">
+      <c r="B11" s="272" t="s">
         <v>33</v>
       </c>
       <c r="C11" s="30" t="s">
@@ -4715,10 +4831,10 @@
       <c r="CK11" s="9"/>
       <c r="CL11" s="31"/>
     </row>
-    <row r="12" spans="1:91" x14ac:dyDescent="0.25">
-      <c r="A12" s="236"/>
-      <c r="B12" s="237"/>
-      <c r="C12" s="233" t="s">
+    <row r="12" spans="1:91">
+      <c r="A12" s="271"/>
+      <c r="B12" s="272"/>
+      <c r="C12" s="268" t="s">
         <v>18</v>
       </c>
       <c r="D12" s="24" t="s">
@@ -4986,10 +5102,10 @@
         <v>2101</v>
       </c>
     </row>
-    <row r="13" spans="1:91" x14ac:dyDescent="0.25">
-      <c r="A13" s="236"/>
-      <c r="B13" s="237"/>
-      <c r="C13" s="233"/>
+    <row r="13" spans="1:91">
+      <c r="A13" s="271"/>
+      <c r="B13" s="272"/>
+      <c r="C13" s="268"/>
       <c r="D13" s="24" t="s">
         <v>20</v>
       </c>
@@ -5083,16 +5199,16 @@
       <c r="CL13" s="34"/>
       <c r="CM13" s="35"/>
     </row>
-    <row r="14" spans="1:91" x14ac:dyDescent="0.25">
-      <c r="A14" s="236"/>
-      <c r="B14" s="237"/>
+    <row r="14" spans="1:91">
+      <c r="A14" s="271"/>
+      <c r="B14" s="272"/>
       <c r="C14" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="D14" s="238" t="s">
+      <c r="D14" s="273" t="s">
         <v>23</v>
       </c>
-      <c r="E14" s="235" t="s">
+      <c r="E14" s="270" t="s">
         <v>37</v>
       </c>
       <c r="F14" s="13" t="s">
@@ -5102,14 +5218,14 @@
         <v>38</v>
       </c>
     </row>
-    <row r="15" spans="1:91" x14ac:dyDescent="0.25">
-      <c r="A15" s="236"/>
-      <c r="B15" s="237"/>
+    <row r="15" spans="1:91">
+      <c r="A15" s="271"/>
+      <c r="B15" s="272"/>
       <c r="C15" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="D15" s="238"/>
-      <c r="E15" s="235"/>
+      <c r="D15" s="273"/>
+      <c r="E15" s="270"/>
       <c r="F15" s="13" t="s">
         <v>39</v>
       </c>
@@ -5123,17 +5239,17 @@
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="1:91" s="28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:91" s="28" customFormat="1">
       <c r="A16" s="36"/>
       <c r="C16" s="37"/>
       <c r="D16" s="36"/>
     </row>
-    <row r="17" spans="1:90" s="28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:90" s="28" customFormat="1">
       <c r="A17" s="36"/>
       <c r="C17" s="37"/>
       <c r="D17" s="36"/>
     </row>
-    <row r="18" spans="1:90" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:90">
       <c r="A18" s="38" t="s">
         <v>41</v>
       </c>
@@ -5227,15 +5343,15 @@
       <c r="CK18" s="39"/>
       <c r="CL18" s="41"/>
     </row>
-    <row r="19" spans="1:90" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="239" t="s">
+    <row r="19" spans="1:90" ht="14.45" customHeight="1">
+      <c r="A19" s="264" t="s">
         <v>42</v>
       </c>
-      <c r="B19" s="240" t="s">
+      <c r="B19" s="265" t="s">
         <v>43</v>
       </c>
-      <c r="C19" s="240"/>
-      <c r="D19" s="241" t="s">
+      <c r="C19" s="265"/>
+      <c r="D19" s="240" t="s">
         <v>44</v>
       </c>
       <c r="E19" s="43"/>
@@ -5324,13 +5440,13 @@
       <c r="CK19" s="14"/>
       <c r="CL19" s="46"/>
     </row>
-    <row r="20" spans="1:90" x14ac:dyDescent="0.25">
-      <c r="A20" s="239"/>
-      <c r="B20" s="240" t="s">
+    <row r="20" spans="1:90">
+      <c r="A20" s="264"/>
+      <c r="B20" s="265" t="s">
         <v>45</v>
       </c>
-      <c r="C20" s="240"/>
-      <c r="D20" s="241"/>
+      <c r="C20" s="265"/>
+      <c r="D20" s="240"/>
       <c r="E20" s="43"/>
       <c r="F20" s="43"/>
       <c r="G20" s="44"/>
@@ -5417,13 +5533,13 @@
       <c r="CK20" s="14"/>
       <c r="CL20" s="46"/>
     </row>
-    <row r="21" spans="1:90" x14ac:dyDescent="0.25">
-      <c r="A21" s="239"/>
-      <c r="B21" s="240" t="s">
+    <row r="21" spans="1:90">
+      <c r="A21" s="264"/>
+      <c r="B21" s="265" t="s">
         <v>46</v>
       </c>
-      <c r="C21" s="240"/>
-      <c r="D21" s="241"/>
+      <c r="C21" s="265"/>
+      <c r="D21" s="240"/>
       <c r="E21" s="43"/>
       <c r="F21" s="43"/>
       <c r="G21" s="44"/>
@@ -5510,13 +5626,13 @@
       <c r="CK21" s="14"/>
       <c r="CL21" s="46"/>
     </row>
-    <row r="22" spans="1:90" x14ac:dyDescent="0.25">
-      <c r="A22" s="239"/>
-      <c r="B22" s="240" t="s">
+    <row r="22" spans="1:90">
+      <c r="A22" s="264"/>
+      <c r="B22" s="265" t="s">
         <v>47</v>
       </c>
-      <c r="C22" s="240"/>
-      <c r="D22" s="241"/>
+      <c r="C22" s="265"/>
+      <c r="D22" s="240"/>
       <c r="E22" s="48" t="s">
         <v>48</v>
       </c>
@@ -5610,7 +5726,7 @@
       <c r="CK22" s="14"/>
       <c r="CL22" s="46"/>
     </row>
-    <row r="23" spans="1:90" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:90">
       <c r="A23" s="38" t="s">
         <v>52</v>
       </c>
@@ -5706,7 +5822,7 @@
       <c r="CK23" s="39"/>
       <c r="CL23" s="41"/>
     </row>
-    <row r="24" spans="1:90" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:90" ht="15" customHeight="1">
       <c r="A24" s="13" t="s">
         <v>54</v>
       </c>
@@ -5811,7 +5927,7 @@
       <c r="CK24" s="14"/>
       <c r="CL24" s="46"/>
     </row>
-    <row r="25" spans="1:90" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:90">
       <c r="A25" s="13" t="s">
         <v>60</v>
       </c>
@@ -5910,7 +6026,7 @@
       <c r="CK25" s="14"/>
       <c r="CL25" s="46"/>
     </row>
-    <row r="26" spans="1:90" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:90" ht="14.45" customHeight="1">
       <c r="A26" s="13" t="s">
         <v>64</v>
       </c>
@@ -6009,7 +6125,7 @@
       <c r="CK26" s="14"/>
       <c r="CL26" s="46"/>
     </row>
-    <row r="27" spans="1:90" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:90">
       <c r="A27" s="13" t="s">
         <v>67</v>
       </c>
@@ -6106,7 +6222,7 @@
       <c r="CK27" s="14"/>
       <c r="CL27" s="46"/>
     </row>
-    <row r="28" spans="1:90" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:90">
       <c r="A28" s="13" t="s">
         <v>70</v>
       </c>
@@ -6205,7 +6321,7 @@
       <c r="CK28" s="14"/>
       <c r="CL28" s="46"/>
     </row>
-    <row r="29" spans="1:90" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:90">
       <c r="A29" s="13" t="s">
         <v>73</v>
       </c>
@@ -6304,7 +6420,7 @@
       <c r="CK29" s="14"/>
       <c r="CL29" s="46"/>
     </row>
-    <row r="30" spans="1:90" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:90">
       <c r="A30" s="57"/>
       <c r="B30" s="54"/>
       <c r="C30" s="63"/>
@@ -6397,7 +6513,7 @@
       <c r="CK30" s="14"/>
       <c r="CL30" s="46"/>
     </row>
-    <row r="31" spans="1:90" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:90">
       <c r="A31" s="38" t="s">
         <v>77</v>
       </c>
@@ -6493,7 +6609,7 @@
       <c r="CK31" s="39"/>
       <c r="CL31" s="41"/>
     </row>
-    <row r="32" spans="1:90" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:90">
       <c r="A32" s="13" t="s">
         <v>79</v>
       </c>
@@ -6519,14 +6635,14 @@
       <c r="I32" s="57" t="s">
         <v>11</v>
       </c>
-      <c r="J32" s="242" t="s">
+      <c r="J32" s="262" t="s">
         <v>84</v>
       </c>
-      <c r="K32" s="242"/>
-      <c r="L32" s="242"/>
-      <c r="M32" s="242"/>
-      <c r="N32" s="242"/>
-      <c r="O32" s="242"/>
+      <c r="K32" s="262"/>
+      <c r="L32" s="262"/>
+      <c r="M32" s="262"/>
+      <c r="N32" s="262"/>
+      <c r="O32" s="262"/>
       <c r="P32" s="36"/>
       <c r="Q32" s="68"/>
       <c r="R32" s="68"/>
@@ -6602,7 +6718,7 @@
       <c r="CJ32" s="14"/>
       <c r="CK32" s="46"/>
     </row>
-    <row r="33" spans="1:90" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:90">
       <c r="A33" s="13" t="s">
         <v>85</v>
       </c>
@@ -6628,14 +6744,14 @@
       <c r="I33" s="57" t="s">
         <v>11</v>
       </c>
-      <c r="J33" s="242" t="s">
+      <c r="J33" s="262" t="s">
         <v>88</v>
       </c>
-      <c r="K33" s="242"/>
-      <c r="L33" s="242"/>
-      <c r="M33" s="242"/>
-      <c r="N33" s="242"/>
-      <c r="O33" s="242"/>
+      <c r="K33" s="262"/>
+      <c r="L33" s="262"/>
+      <c r="M33" s="262"/>
+      <c r="N33" s="262"/>
+      <c r="O33" s="262"/>
       <c r="P33" s="36"/>
       <c r="Q33" s="68"/>
       <c r="R33" s="68"/>
@@ -6711,7 +6827,7 @@
       <c r="CJ33" s="14"/>
       <c r="CK33" s="46"/>
     </row>
-    <row r="34" spans="1:90" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:90">
       <c r="A34" s="13" t="s">
         <v>89</v>
       </c>
@@ -6731,14 +6847,14 @@
       <c r="I34" s="57" t="s">
         <v>11</v>
       </c>
-      <c r="J34" s="242" t="s">
+      <c r="J34" s="262" t="s">
         <v>90</v>
       </c>
-      <c r="K34" s="242"/>
-      <c r="L34" s="242"/>
-      <c r="M34" s="242"/>
-      <c r="N34" s="242"/>
-      <c r="O34" s="242"/>
+      <c r="K34" s="262"/>
+      <c r="L34" s="262"/>
+      <c r="M34" s="262"/>
+      <c r="N34" s="262"/>
+      <c r="O34" s="262"/>
       <c r="P34" s="36"/>
       <c r="Q34" s="68"/>
       <c r="R34" s="68"/>
@@ -6814,7 +6930,7 @@
       <c r="CJ34" s="14"/>
       <c r="CK34" s="46"/>
     </row>
-    <row r="35" spans="1:90" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:90">
       <c r="A35" s="13" t="s">
         <v>91</v>
       </c>
@@ -6836,12 +6952,12 @@
       <c r="G35" s="14"/>
       <c r="H35" s="14"/>
       <c r="I35" s="14"/>
-      <c r="J35" s="242"/>
-      <c r="K35" s="242"/>
-      <c r="L35" s="242"/>
-      <c r="M35" s="242"/>
-      <c r="N35" s="242"/>
-      <c r="O35" s="242"/>
+      <c r="J35" s="262"/>
+      <c r="K35" s="262"/>
+      <c r="L35" s="262"/>
+      <c r="M35" s="262"/>
+      <c r="N35" s="262"/>
+      <c r="O35" s="262"/>
       <c r="P35" s="28"/>
       <c r="Q35" s="14"/>
       <c r="R35" s="14"/>
@@ -6917,7 +7033,7 @@
       <c r="CJ35" s="14"/>
       <c r="CK35" s="46"/>
     </row>
-    <row r="36" spans="1:90" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:90">
       <c r="A36" s="13" t="s">
         <v>93</v>
       </c>
@@ -6937,14 +7053,14 @@
       <c r="I36" s="57" t="s">
         <v>11</v>
       </c>
-      <c r="J36" s="242" t="s">
+      <c r="J36" s="262" t="s">
         <v>94</v>
       </c>
-      <c r="K36" s="242"/>
-      <c r="L36" s="242"/>
-      <c r="M36" s="242"/>
-      <c r="N36" s="242"/>
-      <c r="O36" s="242"/>
+      <c r="K36" s="262"/>
+      <c r="L36" s="262"/>
+      <c r="M36" s="262"/>
+      <c r="N36" s="262"/>
+      <c r="O36" s="262"/>
       <c r="P36" s="71"/>
       <c r="Q36" s="14"/>
       <c r="R36" s="14"/>
@@ -7020,7 +7136,7 @@
       <c r="CJ36" s="14"/>
       <c r="CK36" s="46"/>
     </row>
-    <row r="37" spans="1:90" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:90">
       <c r="A37" s="13" t="s">
         <v>95</v>
       </c>
@@ -7046,14 +7162,14 @@
       <c r="I37" s="57" t="s">
         <v>11</v>
       </c>
-      <c r="J37" s="242" t="s">
+      <c r="J37" s="262" t="s">
         <v>98</v>
       </c>
-      <c r="K37" s="242"/>
-      <c r="L37" s="242"/>
-      <c r="M37" s="242"/>
-      <c r="N37" s="242"/>
-      <c r="O37" s="242"/>
+      <c r="K37" s="262"/>
+      <c r="L37" s="262"/>
+      <c r="M37" s="262"/>
+      <c r="N37" s="262"/>
+      <c r="O37" s="262"/>
       <c r="P37" s="37"/>
       <c r="Q37" s="13" t="s">
         <v>76</v>
@@ -7135,7 +7251,7 @@
       <c r="CJ37" s="14"/>
       <c r="CK37" s="46"/>
     </row>
-    <row r="38" spans="1:90" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:90">
       <c r="A38" s="13" t="s">
         <v>99</v>
       </c>
@@ -7161,14 +7277,14 @@
       <c r="I38" s="57" t="s">
         <v>11</v>
       </c>
-      <c r="J38" s="242" t="s">
+      <c r="J38" s="262" t="s">
         <v>102</v>
       </c>
-      <c r="K38" s="242"/>
-      <c r="L38" s="242"/>
-      <c r="M38" s="242"/>
-      <c r="N38" s="242"/>
-      <c r="O38" s="242"/>
+      <c r="K38" s="262"/>
+      <c r="L38" s="262"/>
+      <c r="M38" s="262"/>
+      <c r="N38" s="262"/>
+      <c r="O38" s="262"/>
       <c r="P38" s="14"/>
       <c r="Q38" s="14"/>
       <c r="R38" s="14"/>
@@ -7244,7 +7360,7 @@
       <c r="CJ38" s="14"/>
       <c r="CK38" s="46"/>
     </row>
-    <row r="39" spans="1:90" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:90">
       <c r="A39" s="72" t="s">
         <v>103</v>
       </c>
@@ -7338,7 +7454,7 @@
       <c r="CK39" s="39"/>
       <c r="CL39" s="41"/>
     </row>
-    <row r="40" spans="1:90" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:90">
       <c r="A40" s="63"/>
       <c r="B40" s="63"/>
       <c r="C40" s="57"/>
@@ -7429,7 +7545,7 @@
       <c r="CK40" s="14"/>
       <c r="CL40" s="46"/>
     </row>
-    <row r="41" spans="1:90" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:90">
       <c r="A41" s="13" t="s">
         <v>104</v>
       </c>
@@ -7527,7 +7643,7 @@
       <c r="CK41" s="14"/>
       <c r="CL41" s="46"/>
     </row>
-    <row r="42" spans="1:90" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:90">
       <c r="A42" s="13" t="s">
         <v>107</v>
       </c>
@@ -7625,7 +7741,7 @@
       <c r="CK42" s="14"/>
       <c r="CL42" s="46"/>
     </row>
-    <row r="43" spans="1:90" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:90">
       <c r="A43" s="13" t="s">
         <v>110</v>
       </c>
@@ -7720,7 +7836,7 @@
       <c r="CK43" s="14"/>
       <c r="CL43" s="46"/>
     </row>
-    <row r="44" spans="1:90" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:90">
       <c r="A44" s="72" t="s">
         <v>112</v>
       </c>
@@ -7814,7 +7930,7 @@
       <c r="CK44" s="14"/>
       <c r="CL44" s="46"/>
     </row>
-    <row r="45" spans="1:90" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:90">
       <c r="A45" s="76" t="s">
         <v>113</v>
       </c>
@@ -7918,7 +8034,7 @@
       <c r="CK45" s="14"/>
       <c r="CL45" s="46"/>
     </row>
-    <row r="46" spans="1:90" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:90">
       <c r="A46" s="13" t="s">
         <v>117</v>
       </c>
@@ -8022,7 +8138,7 @@
       <c r="CK46" s="14"/>
       <c r="CL46" s="46"/>
     </row>
-    <row r="47" spans="1:90" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:90">
       <c r="A47" s="13" t="s">
         <v>120</v>
       </c>
@@ -8117,7 +8233,7 @@
       <c r="CK47" s="14"/>
       <c r="CL47" s="46"/>
     </row>
-    <row r="48" spans="1:90" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:90">
       <c r="A48" s="13" t="s">
         <v>121</v>
       </c>
@@ -8212,7 +8328,7 @@
       <c r="CK48" s="14"/>
       <c r="CL48" s="46"/>
     </row>
-    <row r="49" spans="1:90" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:90">
       <c r="A49" s="13" t="s">
         <v>123</v>
       </c>
@@ -8307,7 +8423,7 @@
       <c r="CK49" s="14"/>
       <c r="CL49" s="46"/>
     </row>
-    <row r="50" spans="1:90" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:90">
       <c r="A50" s="13" t="s">
         <v>125</v>
       </c>
@@ -8405,7 +8521,7 @@
       <c r="CK50" s="14"/>
       <c r="CL50" s="46"/>
     </row>
-    <row r="51" spans="1:90" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:90">
       <c r="A51" s="38" t="s">
         <v>126</v>
       </c>
@@ -8501,7 +8617,7 @@
       <c r="CK51" s="39"/>
       <c r="CL51" s="41"/>
     </row>
-    <row r="52" spans="1:90" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:90">
       <c r="A52" s="13" t="s">
         <v>128</v>
       </c>
@@ -8605,7 +8721,7 @@
       <c r="CK52" s="39"/>
       <c r="CL52" s="41"/>
     </row>
-    <row r="53" spans="1:90" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:90">
       <c r="A53" s="13" t="s">
         <v>133</v>
       </c>
@@ -8709,7 +8825,7 @@
       <c r="CK53" s="14"/>
       <c r="CL53" s="46"/>
     </row>
-    <row r="54" spans="1:90" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:90">
       <c r="A54" s="82" t="s">
         <v>135</v>
       </c>
@@ -8803,7 +8919,7 @@
       <c r="CK54" s="66"/>
       <c r="CL54" s="83"/>
     </row>
-    <row r="55" spans="1:90" s="28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:90" s="28" customFormat="1">
       <c r="A55" s="13" t="s">
         <v>136</v>
       </c>
@@ -8864,7 +8980,7 @@
       <c r="AZ55" s="36"/>
       <c r="BA55" s="36"/>
     </row>
-    <row r="56" spans="1:90" s="28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:90" s="28" customFormat="1">
       <c r="A56" s="13" t="s">
         <v>138</v>
       </c>
@@ -8878,14 +8994,14 @@
       <c r="E56" s="36"/>
       <c r="F56" s="36"/>
     </row>
-    <row r="57" spans="1:90" s="28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:90" s="28" customFormat="1">
       <c r="A57" s="82" t="s">
         <v>140</v>
       </c>
       <c r="B57" s="39"/>
       <c r="C57" s="39"/>
     </row>
-    <row r="58" spans="1:90" s="28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:90" s="28" customFormat="1">
       <c r="A58" s="13" t="s">
         <v>141</v>
       </c>
@@ -8897,7 +9013,7 @@
       </c>
       <c r="G58" s="73"/>
     </row>
-    <row r="59" spans="1:90" s="28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:90" s="28" customFormat="1">
       <c r="A59" s="13" t="s">
         <v>143</v>
       </c>
@@ -8909,7 +9025,7 @@
       </c>
       <c r="G59" s="73"/>
     </row>
-    <row r="60" spans="1:90" s="28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:90" s="28" customFormat="1">
       <c r="A60" s="13" t="s">
         <v>144</v>
       </c>
@@ -8921,7 +9037,7 @@
       </c>
       <c r="D60" s="36"/>
     </row>
-    <row r="61" spans="1:90" s="28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:90" s="28" customFormat="1">
       <c r="A61" s="13" t="s">
         <v>145</v>
       </c>
@@ -8933,7 +9049,7 @@
       </c>
       <c r="D61" s="73"/>
     </row>
-    <row r="62" spans="1:90" s="28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:90" s="28" customFormat="1">
       <c r="A62" s="13" t="s">
         <v>146</v>
       </c>
@@ -8945,13 +9061,13 @@
       </c>
       <c r="D62" s="73"/>
     </row>
-    <row r="63" spans="1:90" s="28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:90" s="28" customFormat="1">
       <c r="A63" s="13"/>
       <c r="B63" s="25"/>
       <c r="C63" s="87"/>
       <c r="D63" s="73"/>
     </row>
-    <row r="64" spans="1:90" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:90">
       <c r="A64" s="82" t="s">
         <v>147</v>
       </c>
@@ -9045,7 +9161,7 @@
       <c r="CK64" s="40"/>
       <c r="CL64" s="88"/>
     </row>
-    <row r="65" spans="1:90" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:90">
       <c r="A65" s="13" t="s">
         <v>148</v>
       </c>
@@ -9141,7 +9257,7 @@
       <c r="CK65" s="14"/>
       <c r="CL65" s="46"/>
     </row>
-    <row r="66" spans="1:90" s="20" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:90" s="20" customFormat="1">
       <c r="A66" s="90" t="s">
         <v>150</v>
       </c>
@@ -9235,7 +9351,7 @@
       <c r="CK66" s="39"/>
       <c r="CL66" s="41"/>
     </row>
-    <row r="67" spans="1:90" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:90">
       <c r="A67" s="91" t="s">
         <v>151</v>
       </c>
@@ -9337,15 +9453,15 @@
       <c r="CK67" s="65"/>
       <c r="CL67" s="95"/>
     </row>
-    <row r="68" spans="1:90" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="243" t="s">
+    <row r="68" spans="1:90" ht="14.45" customHeight="1">
+      <c r="A68" s="256" t="s">
         <v>156</v>
       </c>
       <c r="B68" s="96" t="s">
         <v>157</v>
       </c>
       <c r="C68" s="96"/>
-      <c r="D68" s="244" t="s">
+      <c r="D68" s="263" t="s">
         <v>158</v>
       </c>
       <c r="H68" s="14"/>
@@ -9432,13 +9548,13 @@
       <c r="CK68" s="14"/>
       <c r="CL68" s="46"/>
     </row>
-    <row r="69" spans="1:90" x14ac:dyDescent="0.25">
-      <c r="A69" s="243"/>
+    <row r="69" spans="1:90">
+      <c r="A69" s="256"/>
       <c r="B69" s="96" t="s">
         <v>159</v>
       </c>
       <c r="C69" s="96"/>
-      <c r="D69" s="244"/>
+      <c r="D69" s="263"/>
       <c r="H69" s="14"/>
       <c r="I69" s="14"/>
       <c r="J69" s="14"/>
@@ -9523,13 +9639,13 @@
       <c r="CK69" s="14"/>
       <c r="CL69" s="46"/>
     </row>
-    <row r="70" spans="1:90" x14ac:dyDescent="0.25">
-      <c r="A70" s="243"/>
+    <row r="70" spans="1:90">
+      <c r="A70" s="256"/>
       <c r="B70" s="96" t="s">
         <v>160</v>
       </c>
       <c r="C70" s="96"/>
-      <c r="D70" s="244"/>
+      <c r="D70" s="263"/>
       <c r="H70" s="14"/>
       <c r="I70" s="14"/>
       <c r="J70" s="14"/>
@@ -9614,13 +9730,13 @@
       <c r="CK70" s="14"/>
       <c r="CL70" s="46"/>
     </row>
-    <row r="71" spans="1:90" x14ac:dyDescent="0.25">
-      <c r="A71" s="243"/>
+    <row r="71" spans="1:90">
+      <c r="A71" s="256"/>
       <c r="B71" s="96" t="s">
         <v>161</v>
       </c>
       <c r="C71" s="96"/>
-      <c r="D71" s="244"/>
+      <c r="D71" s="263"/>
       <c r="H71" s="14"/>
       <c r="I71" s="14"/>
       <c r="J71" s="14"/>
@@ -9705,15 +9821,15 @@
       <c r="CK71" s="14"/>
       <c r="CL71" s="46"/>
     </row>
-    <row r="72" spans="1:90" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="243" t="s">
+    <row r="72" spans="1:90" ht="14.45" customHeight="1">
+      <c r="A72" s="256" t="s">
         <v>162</v>
       </c>
       <c r="B72" s="96" t="s">
         <v>163</v>
       </c>
       <c r="C72" s="96"/>
-      <c r="D72" s="245" t="s">
+      <c r="D72" s="247" t="s">
         <v>158</v>
       </c>
       <c r="H72" s="14"/>
@@ -9800,13 +9916,13 @@
       <c r="CK72" s="14"/>
       <c r="CL72" s="46"/>
     </row>
-    <row r="73" spans="1:90" x14ac:dyDescent="0.25">
-      <c r="A73" s="243"/>
+    <row r="73" spans="1:90">
+      <c r="A73" s="256"/>
       <c r="B73" s="96" t="s">
         <v>164</v>
       </c>
       <c r="C73" s="96"/>
-      <c r="D73" s="245"/>
+      <c r="D73" s="247"/>
       <c r="H73" s="14"/>
       <c r="I73" s="14"/>
       <c r="J73" s="14"/>
@@ -9891,13 +10007,13 @@
       <c r="CK73" s="14"/>
       <c r="CL73" s="46"/>
     </row>
-    <row r="74" spans="1:90" x14ac:dyDescent="0.25">
-      <c r="A74" s="243"/>
+    <row r="74" spans="1:90">
+      <c r="A74" s="256"/>
       <c r="B74" s="96" t="s">
         <v>165</v>
       </c>
       <c r="C74" s="96"/>
-      <c r="D74" s="245"/>
+      <c r="D74" s="247"/>
       <c r="E74" s="14"/>
       <c r="F74" s="14"/>
       <c r="G74" s="14"/>
@@ -9985,13 +10101,13 @@
       <c r="CK74" s="14"/>
       <c r="CL74" s="46"/>
     </row>
-    <row r="75" spans="1:90" x14ac:dyDescent="0.25">
-      <c r="A75" s="243"/>
+    <row r="75" spans="1:90">
+      <c r="A75" s="256"/>
       <c r="B75" s="96" t="s">
         <v>166</v>
       </c>
       <c r="C75" s="96"/>
-      <c r="D75" s="245"/>
+      <c r="D75" s="247"/>
       <c r="E75" s="14"/>
       <c r="F75" s="14"/>
       <c r="G75" s="14"/>
@@ -10079,15 +10195,15 @@
       <c r="CK75" s="14"/>
       <c r="CL75" s="46"/>
     </row>
-    <row r="76" spans="1:90" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="243" t="s">
+    <row r="76" spans="1:90" ht="14.45" customHeight="1">
+      <c r="A76" s="256" t="s">
         <v>167</v>
       </c>
       <c r="B76" s="96" t="s">
         <v>168</v>
       </c>
       <c r="C76" s="96"/>
-      <c r="D76" s="245" t="s">
+      <c r="D76" s="247" t="s">
         <v>158</v>
       </c>
       <c r="E76" s="14"/>
@@ -10177,13 +10293,13 @@
       <c r="CK76" s="14"/>
       <c r="CL76" s="46"/>
     </row>
-    <row r="77" spans="1:90" x14ac:dyDescent="0.25">
-      <c r="A77" s="243"/>
+    <row r="77" spans="1:90">
+      <c r="A77" s="256"/>
       <c r="B77" s="96" t="s">
         <v>169</v>
       </c>
       <c r="C77" s="96"/>
-      <c r="D77" s="245"/>
+      <c r="D77" s="247"/>
       <c r="E77" s="14"/>
       <c r="F77" s="14"/>
       <c r="G77" s="14"/>
@@ -10271,11 +10387,11 @@
       <c r="CK77" s="14"/>
       <c r="CL77" s="46"/>
     </row>
-    <row r="78" spans="1:90" x14ac:dyDescent="0.25">
-      <c r="A78" s="243"/>
+    <row r="78" spans="1:90">
+      <c r="A78" s="256"/>
       <c r="B78" s="96"/>
       <c r="C78" s="96"/>
-      <c r="D78" s="245"/>
+      <c r="D78" s="247"/>
       <c r="E78" s="14"/>
       <c r="F78" s="14"/>
       <c r="G78" s="14"/>
@@ -10363,11 +10479,11 @@
       <c r="CK78" s="14"/>
       <c r="CL78" s="46"/>
     </row>
-    <row r="79" spans="1:90" x14ac:dyDescent="0.25">
-      <c r="A79" s="243"/>
+    <row r="79" spans="1:90">
+      <c r="A79" s="256"/>
       <c r="B79" s="96"/>
       <c r="C79" s="96"/>
-      <c r="D79" s="245"/>
+      <c r="D79" s="247"/>
       <c r="E79" s="14"/>
       <c r="F79" s="14"/>
       <c r="G79" s="14"/>
@@ -10455,8 +10571,8 @@
       <c r="CK79" s="14"/>
       <c r="CL79" s="46"/>
     </row>
-    <row r="80" spans="1:90" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="243" t="s">
+    <row r="80" spans="1:90" ht="14.45" customHeight="1">
+      <c r="A80" s="256" t="s">
         <v>170</v>
       </c>
       <c r="B80" s="98" t="s">
@@ -10465,7 +10581,7 @@
       <c r="C80" s="99" t="s">
         <v>172</v>
       </c>
-      <c r="D80" s="245" t="s">
+      <c r="D80" s="247" t="s">
         <v>173</v>
       </c>
       <c r="E80" s="14"/>
@@ -10555,13 +10671,13 @@
       <c r="CK80" s="14"/>
       <c r="CL80" s="46"/>
     </row>
-    <row r="81" spans="1:90" x14ac:dyDescent="0.25">
-      <c r="A81" s="243"/>
+    <row r="81" spans="1:90">
+      <c r="A81" s="256"/>
       <c r="B81" s="100" t="s">
         <v>174</v>
       </c>
       <c r="C81" s="101"/>
-      <c r="D81" s="245"/>
+      <c r="D81" s="247"/>
       <c r="E81" s="14"/>
       <c r="F81" s="14"/>
       <c r="G81" s="14"/>
@@ -10649,11 +10765,11 @@
       <c r="CK81" s="14"/>
       <c r="CL81" s="46"/>
     </row>
-    <row r="82" spans="1:90" x14ac:dyDescent="0.25">
-      <c r="A82" s="243"/>
+    <row r="82" spans="1:90">
+      <c r="A82" s="256"/>
       <c r="B82" s="102"/>
       <c r="C82" s="103"/>
-      <c r="D82" s="245"/>
+      <c r="D82" s="247"/>
       <c r="E82" s="14"/>
       <c r="F82" s="14"/>
       <c r="G82" s="14"/>
@@ -10741,7 +10857,7 @@
       <c r="CK82" s="14"/>
       <c r="CL82" s="46"/>
     </row>
-    <row r="83" spans="1:90" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:90">
       <c r="A83" s="104" t="s">
         <v>175</v>
       </c>
@@ -10843,15 +10959,15 @@
       <c r="CK83" s="39"/>
       <c r="CL83" s="41"/>
     </row>
-    <row r="84" spans="1:90" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="243" t="s">
+    <row r="84" spans="1:90" ht="14.45" customHeight="1">
+      <c r="A84" s="256" t="s">
         <v>180</v>
       </c>
       <c r="B84" s="96" t="s">
         <v>181</v>
       </c>
       <c r="C84" s="96"/>
-      <c r="D84" s="245" t="s">
+      <c r="D84" s="247" t="s">
         <v>158</v>
       </c>
       <c r="H84" s="14"/>
@@ -10938,13 +11054,13 @@
       <c r="CK84" s="14"/>
       <c r="CL84" s="46"/>
     </row>
-    <row r="85" spans="1:90" x14ac:dyDescent="0.25">
-      <c r="A85" s="243"/>
+    <row r="85" spans="1:90">
+      <c r="A85" s="256"/>
       <c r="B85" s="96" t="s">
         <v>182</v>
       </c>
       <c r="C85" s="96"/>
-      <c r="D85" s="245"/>
+      <c r="D85" s="247"/>
       <c r="H85" s="14"/>
       <c r="I85" s="14"/>
       <c r="J85" s="14"/>
@@ -11029,13 +11145,13 @@
       <c r="CK85" s="14"/>
       <c r="CL85" s="46"/>
     </row>
-    <row r="86" spans="1:90" x14ac:dyDescent="0.25">
-      <c r="A86" s="243"/>
+    <row r="86" spans="1:90">
+      <c r="A86" s="256"/>
       <c r="B86" s="96" t="s">
         <v>183</v>
       </c>
       <c r="C86" s="96"/>
-      <c r="D86" s="245"/>
+      <c r="D86" s="247"/>
       <c r="H86" s="14"/>
       <c r="I86" s="14"/>
       <c r="J86" s="14"/>
@@ -11120,13 +11236,13 @@
       <c r="CK86" s="14"/>
       <c r="CL86" s="46"/>
     </row>
-    <row r="87" spans="1:90" x14ac:dyDescent="0.25">
-      <c r="A87" s="243"/>
+    <row r="87" spans="1:90">
+      <c r="A87" s="256"/>
       <c r="B87" s="96" t="s">
         <v>184</v>
       </c>
       <c r="C87" s="96"/>
-      <c r="D87" s="245"/>
+      <c r="D87" s="247"/>
       <c r="H87" s="14"/>
       <c r="I87" s="14"/>
       <c r="J87" s="14"/>
@@ -11211,15 +11327,15 @@
       <c r="CK87" s="14"/>
       <c r="CL87" s="46"/>
     </row>
-    <row r="88" spans="1:90" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="243" t="s">
+    <row r="88" spans="1:90" ht="14.45" customHeight="1">
+      <c r="A88" s="256" t="s">
         <v>185</v>
       </c>
       <c r="B88" s="96" t="s">
         <v>163</v>
       </c>
       <c r="C88" s="96"/>
-      <c r="D88" s="245" t="s">
+      <c r="D88" s="247" t="s">
         <v>158</v>
       </c>
       <c r="H88" s="14"/>
@@ -11306,13 +11422,13 @@
       <c r="CK88" s="14"/>
       <c r="CL88" s="46"/>
     </row>
-    <row r="89" spans="1:90" x14ac:dyDescent="0.25">
-      <c r="A89" s="243"/>
+    <row r="89" spans="1:90">
+      <c r="A89" s="256"/>
       <c r="B89" s="96" t="s">
         <v>164</v>
       </c>
       <c r="C89" s="96"/>
-      <c r="D89" s="245"/>
+      <c r="D89" s="247"/>
       <c r="H89" s="14"/>
       <c r="I89" s="14"/>
       <c r="J89" s="14"/>
@@ -11397,13 +11513,13 @@
       <c r="CK89" s="14"/>
       <c r="CL89" s="46"/>
     </row>
-    <row r="90" spans="1:90" x14ac:dyDescent="0.25">
-      <c r="A90" s="243"/>
+    <row r="90" spans="1:90">
+      <c r="A90" s="256"/>
       <c r="B90" s="96" t="s">
         <v>165</v>
       </c>
       <c r="C90" s="96"/>
-      <c r="D90" s="245"/>
+      <c r="D90" s="247"/>
       <c r="F90" s="14"/>
       <c r="G90" s="14"/>
       <c r="H90" s="14"/>
@@ -11490,13 +11606,13 @@
       <c r="CK90" s="14"/>
       <c r="CL90" s="46"/>
     </row>
-    <row r="91" spans="1:90" x14ac:dyDescent="0.25">
-      <c r="A91" s="243"/>
+    <row r="91" spans="1:90">
+      <c r="A91" s="256"/>
       <c r="B91" s="96" t="s">
         <v>186</v>
       </c>
       <c r="C91" s="96"/>
-      <c r="D91" s="245"/>
+      <c r="D91" s="247"/>
       <c r="E91" s="14"/>
       <c r="F91" s="14"/>
       <c r="G91" s="14"/>
@@ -11584,15 +11700,15 @@
       <c r="CK91" s="14"/>
       <c r="CL91" s="46"/>
     </row>
-    <row r="92" spans="1:90" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="243" t="s">
+    <row r="92" spans="1:90" ht="14.45" customHeight="1">
+      <c r="A92" s="256" t="s">
         <v>187</v>
       </c>
       <c r="B92" s="96" t="s">
         <v>188</v>
       </c>
       <c r="C92" s="96"/>
-      <c r="D92" s="245" t="s">
+      <c r="D92" s="247" t="s">
         <v>158</v>
       </c>
       <c r="E92" s="14"/>
@@ -11682,13 +11798,13 @@
       <c r="CK92" s="14"/>
       <c r="CL92" s="46"/>
     </row>
-    <row r="93" spans="1:90" x14ac:dyDescent="0.25">
-      <c r="A93" s="243"/>
+    <row r="93" spans="1:90">
+      <c r="A93" s="256"/>
       <c r="B93" s="96" t="s">
         <v>189</v>
       </c>
       <c r="C93" s="96"/>
-      <c r="D93" s="245"/>
+      <c r="D93" s="247"/>
       <c r="E93" s="14"/>
       <c r="F93" s="14"/>
       <c r="G93" s="14"/>
@@ -11776,13 +11892,13 @@
       <c r="CK93" s="14"/>
       <c r="CL93" s="46"/>
     </row>
-    <row r="94" spans="1:90" x14ac:dyDescent="0.25">
-      <c r="A94" s="243"/>
+    <row r="94" spans="1:90">
+      <c r="A94" s="256"/>
       <c r="B94" s="96" t="s">
         <v>190</v>
       </c>
       <c r="C94" s="96"/>
-      <c r="D94" s="245"/>
+      <c r="D94" s="247"/>
       <c r="E94" s="14"/>
       <c r="F94" s="14"/>
       <c r="G94" s="14"/>
@@ -11870,11 +11986,11 @@
       <c r="CK94" s="14"/>
       <c r="CL94" s="46"/>
     </row>
-    <row r="95" spans="1:90" x14ac:dyDescent="0.25">
-      <c r="A95" s="243"/>
+    <row r="95" spans="1:90">
+      <c r="A95" s="256"/>
       <c r="B95" s="96"/>
       <c r="C95" s="96"/>
-      <c r="D95" s="245"/>
+      <c r="D95" s="247"/>
       <c r="E95" s="14"/>
       <c r="F95" s="14"/>
       <c r="G95" s="14"/>
@@ -11962,8 +12078,8 @@
       <c r="CK95" s="14"/>
       <c r="CL95" s="46"/>
     </row>
-    <row r="96" spans="1:90" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="243" t="s">
+    <row r="96" spans="1:90" ht="14.45" customHeight="1">
+      <c r="A96" s="256" t="s">
         <v>191</v>
       </c>
       <c r="B96" s="98" t="s">
@@ -11972,7 +12088,7 @@
       <c r="C96" s="99" t="s">
         <v>192</v>
       </c>
-      <c r="D96" s="245" t="s">
+      <c r="D96" s="247" t="s">
         <v>173</v>
       </c>
       <c r="E96" s="14"/>
@@ -12062,13 +12178,13 @@
       <c r="CK96" s="14"/>
       <c r="CL96" s="46"/>
     </row>
-    <row r="97" spans="1:90" x14ac:dyDescent="0.25">
-      <c r="A97" s="243"/>
+    <row r="97" spans="1:90">
+      <c r="A97" s="256"/>
       <c r="B97" s="100" t="s">
         <v>193</v>
       </c>
       <c r="C97" s="101"/>
-      <c r="D97" s="245"/>
+      <c r="D97" s="247"/>
       <c r="E97" s="14"/>
       <c r="F97" s="14"/>
       <c r="G97" s="14"/>
@@ -12156,11 +12272,11 @@
       <c r="CK97" s="14"/>
       <c r="CL97" s="46"/>
     </row>
-    <row r="98" spans="1:90" x14ac:dyDescent="0.25">
-      <c r="A98" s="243"/>
+    <row r="98" spans="1:90">
+      <c r="A98" s="256"/>
       <c r="B98" s="105"/>
       <c r="C98" s="101"/>
-      <c r="D98" s="245"/>
+      <c r="D98" s="247"/>
       <c r="E98" s="14"/>
       <c r="F98" s="14"/>
       <c r="G98" s="14"/>
@@ -12248,7 +12364,7 @@
       <c r="CK98" s="14"/>
       <c r="CL98" s="46"/>
     </row>
-    <row r="99" spans="1:90" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:90">
       <c r="A99" s="104" t="s">
         <v>194</v>
       </c>
@@ -12346,8 +12462,8 @@
       <c r="CK99" s="39"/>
       <c r="CL99" s="41"/>
     </row>
-    <row r="100" spans="1:90" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="243" t="s">
+    <row r="100" spans="1:90" ht="14.45" customHeight="1">
+      <c r="A100" s="256" t="s">
         <v>197</v>
       </c>
       <c r="B100" s="96" t="s">
@@ -12356,7 +12472,7 @@
       <c r="C100" s="96" t="s">
         <v>199</v>
       </c>
-      <c r="D100" s="245" t="s">
+      <c r="D100" s="247" t="s">
         <v>200</v>
       </c>
       <c r="H100" s="14"/>
@@ -12443,13 +12559,13 @@
       <c r="CK100" s="14"/>
       <c r="CL100" s="46"/>
     </row>
-    <row r="101" spans="1:90" x14ac:dyDescent="0.25">
-      <c r="A101" s="243"/>
+    <row r="101" spans="1:90">
+      <c r="A101" s="256"/>
       <c r="B101" s="96" t="s">
         <v>201</v>
       </c>
       <c r="C101" s="96"/>
-      <c r="D101" s="245"/>
+      <c r="D101" s="247"/>
       <c r="H101" s="14"/>
       <c r="I101" s="14"/>
       <c r="J101" s="14"/>
@@ -12534,13 +12650,13 @@
       <c r="CK101" s="14"/>
       <c r="CL101" s="46"/>
     </row>
-    <row r="102" spans="1:90" x14ac:dyDescent="0.25">
-      <c r="A102" s="243"/>
+    <row r="102" spans="1:90">
+      <c r="A102" s="256"/>
       <c r="B102" s="96" t="s">
         <v>202</v>
       </c>
       <c r="C102" s="96"/>
-      <c r="D102" s="245"/>
+      <c r="D102" s="247"/>
       <c r="H102" s="14"/>
       <c r="I102" s="14"/>
       <c r="J102" s="14"/>
@@ -12625,13 +12741,13 @@
       <c r="CK102" s="14"/>
       <c r="CL102" s="46"/>
     </row>
-    <row r="103" spans="1:90" x14ac:dyDescent="0.25">
-      <c r="A103" s="243"/>
+    <row r="103" spans="1:90">
+      <c r="A103" s="256"/>
       <c r="B103" s="96" t="s">
         <v>203</v>
       </c>
       <c r="C103" s="96"/>
-      <c r="D103" s="245"/>
+      <c r="D103" s="247"/>
       <c r="H103" s="14"/>
       <c r="I103" s="14"/>
       <c r="J103" s="14"/>
@@ -12716,7 +12832,7 @@
       <c r="CK103" s="14"/>
       <c r="CL103" s="46"/>
     </row>
-    <row r="104" spans="1:90" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:90">
       <c r="A104" s="104" t="s">
         <v>204</v>
       </c>
@@ -12814,15 +12930,15 @@
       <c r="CK104" s="39"/>
       <c r="CL104" s="41"/>
     </row>
-    <row r="105" spans="1:90" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="243" t="s">
+    <row r="105" spans="1:90" ht="14.45" customHeight="1">
+      <c r="A105" s="256" t="s">
         <v>207</v>
       </c>
       <c r="B105" s="96" t="s">
         <v>208</v>
       </c>
       <c r="C105" s="96"/>
-      <c r="D105" s="245" t="s">
+      <c r="D105" s="247" t="s">
         <v>200</v>
       </c>
       <c r="H105" s="14"/>
@@ -12909,13 +13025,13 @@
       <c r="CK105" s="14"/>
       <c r="CL105" s="46"/>
     </row>
-    <row r="106" spans="1:90" x14ac:dyDescent="0.25">
-      <c r="A106" s="243"/>
+    <row r="106" spans="1:90">
+      <c r="A106" s="256"/>
       <c r="B106" s="107" t="s">
         <v>209</v>
       </c>
       <c r="C106" s="96"/>
-      <c r="D106" s="245"/>
+      <c r="D106" s="247"/>
       <c r="H106" s="14"/>
       <c r="I106" s="14"/>
       <c r="J106" s="14"/>
@@ -13000,13 +13116,13 @@
       <c r="CK106" s="14"/>
       <c r="CL106" s="46"/>
     </row>
-    <row r="107" spans="1:90" x14ac:dyDescent="0.25">
-      <c r="A107" s="243"/>
+    <row r="107" spans="1:90">
+      <c r="A107" s="256"/>
       <c r="B107" s="96" t="s">
         <v>210</v>
       </c>
       <c r="C107" s="96"/>
-      <c r="D107" s="245"/>
+      <c r="D107" s="247"/>
       <c r="H107" s="14"/>
       <c r="I107" s="14"/>
       <c r="J107" s="14"/>
@@ -13091,11 +13207,11 @@
       <c r="CK107" s="14"/>
       <c r="CL107" s="46"/>
     </row>
-    <row r="108" spans="1:90" x14ac:dyDescent="0.25">
-      <c r="A108" s="243"/>
+    <row r="108" spans="1:90">
+      <c r="A108" s="256"/>
       <c r="B108" s="25"/>
       <c r="C108" s="96"/>
-      <c r="D108" s="245"/>
+      <c r="D108" s="247"/>
       <c r="H108" s="108"/>
       <c r="I108" s="108"/>
       <c r="J108" s="108"/>
@@ -13180,7 +13296,7 @@
       <c r="CK108" s="108"/>
       <c r="CL108" s="109"/>
     </row>
-    <row r="109" spans="1:90" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:90">
       <c r="A109" s="104" t="s">
         <v>211</v>
       </c>
@@ -13274,7 +13390,7 @@
       <c r="CK109" s="39"/>
       <c r="CL109" s="41"/>
     </row>
-    <row r="110" spans="1:90" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:90">
       <c r="A110" s="13" t="s">
         <v>212</v>
       </c>
@@ -13296,7 +13412,7 @@
       <c r="S110" s="110"/>
       <c r="T110" s="110"/>
     </row>
-    <row r="111" spans="1:90" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:90">
       <c r="A111" s="104" t="s">
         <v>213</v>
       </c>
@@ -13390,7 +13506,7 @@
       <c r="CK111" s="39"/>
       <c r="CL111" s="41"/>
     </row>
-    <row r="112" spans="1:90" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:90">
       <c r="A112" s="13" t="s">
         <v>214</v>
       </c>
@@ -13412,7 +13528,7 @@
       <c r="S112" s="110"/>
       <c r="T112" s="110"/>
     </row>
-    <row r="113" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:20">
       <c r="K113" s="110"/>
       <c r="L113" s="110"/>
       <c r="M113" s="110"/>
@@ -13424,7 +13540,7 @@
       <c r="S113" s="110"/>
       <c r="T113" s="110"/>
     </row>
-    <row r="114" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:20">
       <c r="A114" s="92" t="s">
         <v>215</v>
       </c>
@@ -13443,19 +13559,19 @@
       <c r="S114" s="110"/>
       <c r="T114" s="110"/>
     </row>
-    <row r="115" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A115" s="246"/>
-      <c r="B115" s="246"/>
-      <c r="C115" s="246"/>
-      <c r="D115" s="246"/>
-      <c r="E115" s="246"/>
-    </row>
-    <row r="116" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:20">
+      <c r="A115" s="257"/>
+      <c r="B115" s="257"/>
+      <c r="C115" s="257"/>
+      <c r="D115" s="257"/>
+      <c r="E115" s="257"/>
+    </row>
+    <row r="116" spans="1:20">
       <c r="A116" s="76"/>
       <c r="B116" s="113"/>
-      <c r="C116" s="247"/>
-      <c r="D116" s="247"/>
-      <c r="E116" s="247"/>
+      <c r="C116" s="258"/>
+      <c r="D116" s="258"/>
+      <c r="E116" s="258"/>
       <c r="F116" s="43"/>
       <c r="G116" s="43"/>
       <c r="H116" s="43"/>
@@ -13472,7 +13588,7 @@
       <c r="S116" s="43"/>
       <c r="T116" s="43"/>
     </row>
-    <row r="117" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:20">
       <c r="C117" s="110"/>
       <c r="D117" s="110"/>
       <c r="E117" s="110"/>
@@ -13492,7 +13608,7 @@
       <c r="S117" s="43"/>
       <c r="T117" s="43"/>
     </row>
-    <row r="118" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:20">
       <c r="A118" s="92" t="s">
         <v>216</v>
       </c>
@@ -13516,17 +13632,17 @@
       <c r="S118" s="110"/>
       <c r="T118" s="110"/>
     </row>
-    <row r="119" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:20">
       <c r="A119" s="76" t="s">
         <v>217</v>
       </c>
       <c r="B119" s="115" t="s">
         <v>11</v>
       </c>
-      <c r="C119" s="248" t="s">
+      <c r="C119" s="259" t="s">
         <v>218</v>
       </c>
-      <c r="D119" s="248"/>
+      <c r="D119" s="259"/>
       <c r="E119" s="116"/>
       <c r="F119" s="110"/>
       <c r="G119" s="110"/>
@@ -13544,7 +13660,7 @@
       <c r="S119" s="117"/>
       <c r="T119" s="117"/>
     </row>
-    <row r="120" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:20">
       <c r="A120" s="28"/>
       <c r="B120" s="110"/>
       <c r="C120" s="110"/>
@@ -13566,7 +13682,7 @@
       <c r="S120" s="119"/>
       <c r="T120" s="119"/>
     </row>
-    <row r="121" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:20">
       <c r="A121" s="92" t="s">
         <v>219</v>
       </c>
@@ -13590,8 +13706,8 @@
       <c r="S121" s="119"/>
       <c r="T121" s="119"/>
     </row>
-    <row r="122" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A122" s="249" t="s">
+    <row r="122" spans="1:20">
+      <c r="A122" s="248" t="s">
         <v>220</v>
       </c>
       <c r="B122" s="120" t="s">
@@ -13600,32 +13716,32 @@
       <c r="C122" s="121" t="s">
         <v>222</v>
       </c>
-      <c r="D122" s="250" t="s">
+      <c r="D122" s="260" t="s">
         <v>223</v>
       </c>
-      <c r="E122" s="251" t="s">
+      <c r="E122" s="261" t="s">
         <v>221</v>
       </c>
-      <c r="F122" s="245" t="s">
+      <c r="F122" s="247" t="s">
         <v>222</v>
       </c>
-      <c r="G122" s="245"/>
-    </row>
-    <row r="123" spans="1:20" ht="30" x14ac:dyDescent="0.25">
-      <c r="A123" s="249"/>
+      <c r="G122" s="247"/>
+    </row>
+    <row r="123" spans="1:20" ht="30">
+      <c r="A123" s="248"/>
       <c r="B123" s="122" t="s">
         <v>224</v>
       </c>
       <c r="C123" s="123" t="s">
         <v>225</v>
       </c>
-      <c r="D123" s="250"/>
-      <c r="E123" s="251"/>
-      <c r="F123" s="245"/>
-      <c r="G123" s="245"/>
-    </row>
-    <row r="124" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A124" s="249" t="s">
+      <c r="D123" s="260"/>
+      <c r="E123" s="261"/>
+      <c r="F123" s="247"/>
+      <c r="G123" s="247"/>
+    </row>
+    <row r="124" spans="1:20">
+      <c r="A124" s="248" t="s">
         <v>226</v>
       </c>
       <c r="B124" s="120" t="s">
@@ -13634,30 +13750,30 @@
       <c r="C124" s="121" t="s">
         <v>222</v>
       </c>
-      <c r="D124" s="250"/>
-      <c r="E124" s="252" t="s">
+      <c r="D124" s="260"/>
+      <c r="E124" s="253" t="s">
         <v>224</v>
       </c>
-      <c r="F124" s="253" t="s">
+      <c r="F124" s="254" t="s">
         <v>225</v>
       </c>
-      <c r="G124" s="253"/>
-    </row>
-    <row r="125" spans="1:20" ht="30" x14ac:dyDescent="0.25">
-      <c r="A125" s="249"/>
+      <c r="G124" s="254"/>
+    </row>
+    <row r="125" spans="1:20" ht="30">
+      <c r="A125" s="248"/>
       <c r="B125" s="122" t="s">
         <v>224</v>
       </c>
       <c r="C125" s="123" t="s">
         <v>225</v>
       </c>
-      <c r="D125" s="250"/>
-      <c r="E125" s="252"/>
-      <c r="F125" s="253"/>
-      <c r="G125" s="253"/>
-    </row>
-    <row r="126" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A126" s="249" t="s">
+      <c r="D125" s="260"/>
+      <c r="E125" s="253"/>
+      <c r="F125" s="254"/>
+      <c r="G125" s="254"/>
+    </row>
+    <row r="126" spans="1:20">
+      <c r="A126" s="248" t="s">
         <v>227</v>
       </c>
       <c r="B126" s="120" t="s">
@@ -13666,16 +13782,16 @@
       <c r="C126" s="121" t="s">
         <v>222</v>
       </c>
-      <c r="D126" s="249" t="s">
+      <c r="D126" s="248" t="s">
         <v>228</v>
       </c>
-      <c r="E126" s="252" t="s">
+      <c r="E126" s="253" t="s">
         <v>221</v>
       </c>
-      <c r="F126" s="245" t="s">
+      <c r="F126" s="247" t="s">
         <v>222</v>
       </c>
-      <c r="G126" s="245"/>
+      <c r="G126" s="247"/>
       <c r="H126" s="43"/>
       <c r="I126" s="117"/>
       <c r="J126" s="117"/>
@@ -13690,18 +13806,18 @@
       <c r="S126" s="117"/>
       <c r="T126" s="117"/>
     </row>
-    <row r="127" spans="1:20" ht="30" x14ac:dyDescent="0.25">
-      <c r="A127" s="249"/>
+    <row r="127" spans="1:20" ht="30">
+      <c r="A127" s="248"/>
       <c r="B127" s="122" t="s">
         <v>224</v>
       </c>
       <c r="C127" s="123" t="s">
         <v>225</v>
       </c>
-      <c r="D127" s="249"/>
-      <c r="E127" s="252"/>
-      <c r="F127" s="245"/>
-      <c r="G127" s="245"/>
+      <c r="D127" s="248"/>
+      <c r="E127" s="253"/>
+      <c r="F127" s="247"/>
+      <c r="G127" s="247"/>
       <c r="H127" s="43"/>
       <c r="I127" s="117"/>
       <c r="J127" s="117"/>
@@ -13716,8 +13832,8 @@
       <c r="S127" s="117"/>
       <c r="T127" s="117"/>
     </row>
-    <row r="128" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A128" s="249" t="s">
+    <row r="128" spans="1:20">
+      <c r="A128" s="248" t="s">
         <v>229</v>
       </c>
       <c r="B128" s="120" t="s">
@@ -13726,14 +13842,14 @@
       <c r="C128" s="121" t="s">
         <v>222</v>
       </c>
-      <c r="D128" s="249"/>
-      <c r="E128" s="252" t="s">
+      <c r="D128" s="248"/>
+      <c r="E128" s="253" t="s">
         <v>224</v>
       </c>
-      <c r="F128" s="254" t="s">
+      <c r="F128" s="255" t="s">
         <v>225</v>
       </c>
-      <c r="G128" s="254"/>
+      <c r="G128" s="255"/>
       <c r="H128" s="43"/>
       <c r="I128" s="117"/>
       <c r="J128" s="117"/>
@@ -13748,18 +13864,18 @@
       <c r="S128" s="117"/>
       <c r="T128" s="117"/>
     </row>
-    <row r="129" spans="1:20" ht="30" x14ac:dyDescent="0.25">
-      <c r="A129" s="249"/>
+    <row r="129" spans="1:20" ht="30">
+      <c r="A129" s="248"/>
       <c r="B129" s="122" t="s">
         <v>224</v>
       </c>
       <c r="C129" s="123" t="s">
         <v>225</v>
       </c>
-      <c r="D129" s="249"/>
-      <c r="E129" s="252"/>
-      <c r="F129" s="254"/>
-      <c r="G129" s="254"/>
+      <c r="D129" s="248"/>
+      <c r="E129" s="253"/>
+      <c r="F129" s="255"/>
+      <c r="G129" s="255"/>
       <c r="H129" s="43"/>
       <c r="I129" s="117"/>
       <c r="J129" s="117"/>
@@ -13774,8 +13890,8 @@
       <c r="S129" s="117"/>
       <c r="T129" s="117"/>
     </row>
-    <row r="130" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A130" s="249" t="s">
+    <row r="130" spans="1:20">
+      <c r="A130" s="248" t="s">
         <v>194</v>
       </c>
       <c r="B130" s="120" t="s">
@@ -13800,8 +13916,8 @@
       <c r="S130" s="117"/>
       <c r="T130" s="117"/>
     </row>
-    <row r="131" spans="1:20" ht="30" x14ac:dyDescent="0.25">
-      <c r="A131" s="249"/>
+    <row r="131" spans="1:20" ht="30">
+      <c r="A131" s="248"/>
       <c r="B131" s="122" t="s">
         <v>224</v>
       </c>
@@ -13824,74 +13940,74 @@
       <c r="S131" s="28"/>
       <c r="T131" s="28"/>
     </row>
-    <row r="132" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:20">
       <c r="A132" s="125" t="s">
         <v>230</v>
       </c>
       <c r="B132" s="28"/>
       <c r="C132" s="28"/>
     </row>
-    <row r="134" spans="1:20" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="135" spans="1:20" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="136" spans="1:20" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="137" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:20" hidden="1"/>
+    <row r="135" spans="1:20" hidden="1"/>
+    <row r="136" spans="1:20" hidden="1"/>
+    <row r="137" spans="1:20" hidden="1">
       <c r="A137" s="28"/>
       <c r="B137" s="28"/>
       <c r="C137" s="28"/>
     </row>
-    <row r="138" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:20" hidden="1">
       <c r="A138" s="28"/>
       <c r="B138" s="28"/>
       <c r="C138" s="28"/>
     </row>
-    <row r="139" spans="1:20" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="140" spans="1:20" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="141" spans="1:20" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="142" spans="1:20" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="143" spans="1:20" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="144" spans="1:20" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="145" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="146" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="147" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="148" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="149" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="150" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="151" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="152" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="153" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="154" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="155" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="156" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="157" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="158" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="159" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="160" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="161" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:20" hidden="1"/>
+    <row r="140" spans="1:20" hidden="1"/>
+    <row r="141" spans="1:20" hidden="1"/>
+    <row r="142" spans="1:20" hidden="1"/>
+    <row r="143" spans="1:20" hidden="1"/>
+    <row r="144" spans="1:20" hidden="1"/>
+    <row r="145" hidden="1"/>
+    <row r="146" hidden="1"/>
+    <row r="147" hidden="1"/>
+    <row r="148" hidden="1"/>
+    <row r="149" hidden="1"/>
+    <row r="150" hidden="1"/>
+    <row r="151" hidden="1"/>
+    <row r="152" hidden="1"/>
+    <row r="153" hidden="1"/>
+    <row r="154" hidden="1"/>
+    <row r="155" hidden="1"/>
+    <row r="156" hidden="1"/>
+    <row r="157" hidden="1"/>
+    <row r="158" hidden="1"/>
+    <row r="159" hidden="1"/>
+    <row r="160" hidden="1"/>
+    <row r="161" spans="1:20" hidden="1">
       <c r="A161" s="28"/>
       <c r="B161" s="28"/>
       <c r="C161" s="28"/>
     </row>
-    <row r="162" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:20" hidden="1">
       <c r="A162" s="28"/>
       <c r="B162" s="28"/>
       <c r="C162" s="28"/>
     </row>
-    <row r="163" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:20" hidden="1">
       <c r="A163" s="28"/>
       <c r="B163" s="28"/>
       <c r="C163" s="28"/>
     </row>
-    <row r="164" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:20" hidden="1">
       <c r="A164" s="28"/>
       <c r="B164" s="28"/>
       <c r="C164" s="28"/>
     </row>
-    <row r="165" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:20">
       <c r="A165" s="28"/>
       <c r="B165" s="28"/>
       <c r="C165" s="28"/>
     </row>
-    <row r="166" spans="1:20" s="39" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:20" s="39" customFormat="1">
       <c r="A166" s="92" t="s">
         <v>231</v>
       </c>
@@ -13912,7 +14028,7 @@
       <c r="S166" s="126"/>
       <c r="T166" s="126"/>
     </row>
-    <row r="167" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:20">
       <c r="A167" s="76" t="s">
         <v>232</v>
       </c>
@@ -13952,7 +14068,7 @@
       <c r="S167" s="43"/>
       <c r="T167" s="43"/>
     </row>
-    <row r="168" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:20">
       <c r="A168" s="76" t="s">
         <v>239</v>
       </c>
@@ -13982,7 +14098,7 @@
       </c>
       <c r="J168" s="51"/>
     </row>
-    <row r="169" spans="1:20" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:20" ht="16.5" customHeight="1">
       <c r="A169" s="132" t="s">
         <v>245</v>
       </c>
@@ -13990,7 +14106,7 @@
       <c r="C169" s="132"/>
       <c r="D169" s="133"/>
     </row>
-    <row r="170" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:20">
       <c r="A170" s="134" t="s">
         <v>246</v>
       </c>
@@ -14002,7 +14118,7 @@
       </c>
       <c r="D170" s="22"/>
     </row>
-    <row r="171" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:20">
       <c r="A171" s="134" t="s">
         <v>248</v>
       </c>
@@ -14014,7 +14130,7 @@
       </c>
       <c r="D171" s="22"/>
     </row>
-    <row r="172" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:20">
       <c r="A172" s="134" t="s">
         <v>250</v>
       </c>
@@ -14026,7 +14142,7 @@
       </c>
       <c r="D172" s="22"/>
     </row>
-    <row r="173" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:20">
       <c r="A173" s="134" t="s">
         <v>252</v>
       </c>
@@ -14038,7 +14154,7 @@
       </c>
       <c r="D173" s="22"/>
     </row>
-    <row r="174" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:20">
       <c r="A174" s="134" t="s">
         <v>254</v>
       </c>
@@ -14050,7 +14166,7 @@
       </c>
       <c r="D174" s="22"/>
     </row>
-    <row r="175" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:20">
       <c r="A175" s="134" t="s">
         <v>256</v>
       </c>
@@ -14062,7 +14178,7 @@
       </c>
       <c r="D175" s="22"/>
     </row>
-    <row r="176" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:20">
       <c r="A176" s="132" t="s">
         <v>258</v>
       </c>
@@ -14070,7 +14186,7 @@
       <c r="C176" s="133"/>
       <c r="D176" s="133"/>
     </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:5">
       <c r="A177" s="134" t="s">
         <v>259</v>
       </c>
@@ -14085,7 +14201,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:5">
       <c r="A178" s="134" t="s">
         <v>262</v>
       </c>
@@ -14100,7 +14216,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:5">
       <c r="A179" s="134" t="s">
         <v>265</v>
       </c>
@@ -14115,7 +14231,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:5">
       <c r="A180" s="134" t="s">
         <v>268</v>
       </c>
@@ -14130,7 +14246,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:5">
       <c r="A181" s="134" t="s">
         <v>271</v>
       </c>
@@ -14145,7 +14261,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:5">
       <c r="A182" s="132" t="s">
         <v>274</v>
       </c>
@@ -14155,7 +14271,7 @@
       </c>
       <c r="D182" s="133"/>
     </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:5">
       <c r="A183" s="134" t="s">
         <v>276</v>
       </c>
@@ -14170,7 +14286,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:5">
       <c r="A184" s="134" t="s">
         <v>279</v>
       </c>
@@ -14185,7 +14301,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:5">
       <c r="A185" s="134" t="s">
         <v>282</v>
       </c>
@@ -14200,7 +14316,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:5">
       <c r="A186" s="134" t="s">
         <v>285</v>
       </c>
@@ -14215,7 +14331,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:5">
       <c r="A187" s="134" t="s">
         <v>288</v>
       </c>
@@ -14230,7 +14346,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:5">
       <c r="A188" s="134" t="s">
         <v>291</v>
       </c>
@@ -14242,7 +14358,7 @@
       </c>
       <c r="D188" s="22"/>
     </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:5">
       <c r="A189" s="134" t="s">
         <v>293</v>
       </c>
@@ -14257,7 +14373,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:5">
       <c r="A190" s="134" t="s">
         <v>296</v>
       </c>
@@ -14269,7 +14385,7 @@
       </c>
       <c r="D190" s="22"/>
     </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:5">
       <c r="A191" s="134" t="s">
         <v>298</v>
       </c>
@@ -14281,12 +14397,12 @@
       </c>
       <c r="D191" s="22"/>
     </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:5">
       <c r="A192" s="28"/>
       <c r="B192" s="28"/>
       <c r="C192" s="28"/>
     </row>
-    <row r="193" spans="1:181" s="28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:181" s="28" customFormat="1">
       <c r="A193" s="136" t="s">
         <v>300</v>
       </c>
@@ -14295,14 +14411,14 @@
       <c r="D193" s="65"/>
       <c r="E193" s="65"/>
     </row>
-    <row r="194" spans="1:181" ht="71.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A194" s="255" t="s">
+    <row r="194" spans="1:181" ht="71.45" customHeight="1">
+      <c r="A194" s="249" t="s">
         <v>301</v>
       </c>
-      <c r="B194" s="255"/>
-      <c r="C194" s="255"/>
-      <c r="D194" s="255"/>
-      <c r="E194" s="255"/>
+      <c r="B194" s="249"/>
+      <c r="C194" s="249"/>
+      <c r="D194" s="249"/>
+      <c r="E194" s="249"/>
       <c r="F194" s="20"/>
       <c r="G194" s="20"/>
       <c r="H194" s="20"/>
@@ -14313,14 +14429,14 @@
       <c r="M194" s="20"/>
       <c r="N194" s="20"/>
     </row>
-    <row r="195" spans="1:181" s="20" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A195" s="256" t="s">
+    <row r="195" spans="1:181" s="20" customFormat="1" ht="13.9" customHeight="1">
+      <c r="A195" s="250" t="s">
         <v>302</v>
       </c>
       <c r="B195" s="42" t="s">
         <v>303</v>
       </c>
-      <c r="C195" s="257" t="s">
+      <c r="C195" s="251" t="s">
         <v>158</v>
       </c>
       <c r="D195" s="137"/>
@@ -14334,12 +14450,12 @@
       <c r="M195" s="137"/>
       <c r="N195" s="137"/>
     </row>
-    <row r="196" spans="1:181" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A196" s="256"/>
+    <row r="196" spans="1:181" s="20" customFormat="1">
+      <c r="A196" s="250"/>
       <c r="B196" s="139" t="s">
         <v>304</v>
       </c>
-      <c r="C196" s="257"/>
+      <c r="C196" s="251"/>
       <c r="D196" s="140"/>
       <c r="E196" s="140"/>
       <c r="F196" s="140"/>
@@ -14352,12 +14468,12 @@
       <c r="M196" s="140"/>
       <c r="N196" s="140"/>
     </row>
-    <row r="197" spans="1:181" s="20" customFormat="1" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A197" s="256"/>
+    <row r="197" spans="1:181" s="20" customFormat="1" ht="28.9" customHeight="1">
+      <c r="A197" s="250"/>
       <c r="B197" s="141" t="s">
         <v>305</v>
       </c>
-      <c r="C197" s="257"/>
+      <c r="C197" s="251"/>
       <c r="D197" s="137"/>
       <c r="E197" s="137"/>
       <c r="F197" s="137"/>
@@ -14370,12 +14486,12 @@
       <c r="M197" s="137"/>
       <c r="N197" s="137"/>
     </row>
-    <row r="198" spans="1:181" s="28" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A198" s="258" t="s">
+    <row r="198" spans="1:181" s="28" customFormat="1" ht="13.9" customHeight="1">
+      <c r="A198" s="252" t="s">
         <v>306</v>
       </c>
-      <c r="B198" s="258"/>
-      <c r="C198" s="258"/>
+      <c r="B198" s="252"/>
+      <c r="C198" s="252"/>
       <c r="D198" s="142"/>
       <c r="E198" s="142"/>
       <c r="F198" s="142"/>
@@ -14555,7 +14671,7 @@
       <c r="FX198" s="142"/>
       <c r="FY198" s="142"/>
     </row>
-    <row r="199" spans="1:181" s="28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:181" s="28" customFormat="1">
       <c r="A199" s="143" t="s">
         <v>307</v>
       </c>
@@ -14566,7 +14682,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="200" spans="1:181" s="20" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:181" s="20" customFormat="1" ht="30">
       <c r="A200" s="144" t="s">
         <v>309</v>
       </c>
@@ -14588,18 +14704,18 @@
       <c r="M200" s="147"/>
       <c r="N200" s="147"/>
     </row>
-    <row r="201" spans="1:181" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:181">
       <c r="A201" s="70"/>
       <c r="B201" s="54"/>
       <c r="C201" s="148"/>
       <c r="D201" s="20"/>
     </row>
-    <row r="202" spans="1:181" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:181">
       <c r="A202" s="149" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="203" spans="1:181" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:181">
       <c r="A203" s="143" t="s">
         <v>312</v>
       </c>
@@ -14608,7 +14724,7 @@
       </c>
       <c r="C203" s="22"/>
     </row>
-    <row r="204" spans="1:181" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:181">
       <c r="A204" s="150" t="s">
         <v>314</v>
       </c>
@@ -14620,7 +14736,7 @@
       </c>
       <c r="D204" s="22"/>
     </row>
-    <row r="205" spans="1:181" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:181">
       <c r="A205" s="76" t="s">
         <v>316</v>
       </c>
@@ -14632,269 +14748,269 @@
       </c>
       <c r="D205" s="22"/>
     </row>
-    <row r="206" spans="1:181" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:181">
       <c r="A206" s="151" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="207" spans="1:181" ht="52.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:181" ht="52.9" customHeight="1">
       <c r="A207" s="152" t="s">
         <v>319</v>
       </c>
-      <c r="B207" s="259" t="s">
+      <c r="B207" s="244" t="s">
         <v>320</v>
       </c>
-      <c r="C207" s="259"/>
-      <c r="D207" s="259"/>
-      <c r="E207" s="259"/>
-      <c r="F207" s="259"/>
-      <c r="G207" s="259" t="s">
+      <c r="C207" s="244"/>
+      <c r="D207" s="244"/>
+      <c r="E207" s="244"/>
+      <c r="F207" s="244"/>
+      <c r="G207" s="244" t="s">
         <v>321</v>
       </c>
-      <c r="H207" s="259"/>
-      <c r="I207" s="259"/>
-      <c r="J207" s="259"/>
-      <c r="K207" s="259"/>
-      <c r="L207" s="259" t="s">
+      <c r="H207" s="244"/>
+      <c r="I207" s="244"/>
+      <c r="J207" s="244"/>
+      <c r="K207" s="244"/>
+      <c r="L207" s="244" t="s">
         <v>322</v>
       </c>
-      <c r="M207" s="259"/>
-      <c r="N207" s="259"/>
-      <c r="O207" s="259"/>
-      <c r="P207" s="259"/>
-      <c r="Q207" s="259" t="s">
+      <c r="M207" s="244"/>
+      <c r="N207" s="244"/>
+      <c r="O207" s="244"/>
+      <c r="P207" s="244"/>
+      <c r="Q207" s="244" t="s">
         <v>323</v>
       </c>
-      <c r="R207" s="259"/>
-      <c r="S207" s="259"/>
-      <c r="T207" s="259"/>
-      <c r="U207" s="259"/>
-      <c r="V207" s="259" t="s">
+      <c r="R207" s="244"/>
+      <c r="S207" s="244"/>
+      <c r="T207" s="244"/>
+      <c r="U207" s="244"/>
+      <c r="V207" s="244" t="s">
         <v>324</v>
       </c>
-      <c r="W207" s="259"/>
-      <c r="X207" s="259"/>
-      <c r="Y207" s="259"/>
-      <c r="Z207" s="259"/>
-      <c r="AA207" s="259" t="s">
+      <c r="W207" s="244"/>
+      <c r="X207" s="244"/>
+      <c r="Y207" s="244"/>
+      <c r="Z207" s="244"/>
+      <c r="AA207" s="244" t="s">
         <v>325</v>
       </c>
-      <c r="AB207" s="259"/>
-      <c r="AC207" s="259"/>
-      <c r="AD207" s="259"/>
-      <c r="AE207" s="259"/>
-      <c r="AF207" s="259" t="s">
+      <c r="AB207" s="244"/>
+      <c r="AC207" s="244"/>
+      <c r="AD207" s="244"/>
+      <c r="AE207" s="244"/>
+      <c r="AF207" s="244" t="s">
         <v>326</v>
       </c>
-      <c r="AG207" s="259"/>
-      <c r="AH207" s="259"/>
-      <c r="AI207" s="259"/>
-      <c r="AJ207" s="259"/>
-      <c r="AK207" s="259" t="s">
+      <c r="AG207" s="244"/>
+      <c r="AH207" s="244"/>
+      <c r="AI207" s="244"/>
+      <c r="AJ207" s="244"/>
+      <c r="AK207" s="244" t="s">
         <v>327</v>
       </c>
-      <c r="AL207" s="259"/>
-      <c r="AM207" s="259"/>
-      <c r="AN207" s="259"/>
-      <c r="AO207" s="259"/>
-      <c r="AP207" s="259" t="s">
+      <c r="AL207" s="244"/>
+      <c r="AM207" s="244"/>
+      <c r="AN207" s="244"/>
+      <c r="AO207" s="244"/>
+      <c r="AP207" s="244" t="s">
         <v>328</v>
       </c>
-      <c r="AQ207" s="259"/>
-      <c r="AR207" s="259"/>
-      <c r="AS207" s="259"/>
-      <c r="AT207" s="259"/>
-      <c r="AU207" s="259" t="s">
+      <c r="AQ207" s="244"/>
+      <c r="AR207" s="244"/>
+      <c r="AS207" s="244"/>
+      <c r="AT207" s="244"/>
+      <c r="AU207" s="244" t="s">
         <v>329</v>
       </c>
-      <c r="AV207" s="259"/>
-      <c r="AW207" s="259"/>
-      <c r="AX207" s="259"/>
-      <c r="AY207" s="259"/>
-      <c r="AZ207" s="259" t="s">
+      <c r="AV207" s="244"/>
+      <c r="AW207" s="244"/>
+      <c r="AX207" s="244"/>
+      <c r="AY207" s="244"/>
+      <c r="AZ207" s="244" t="s">
         <v>330</v>
       </c>
-      <c r="BA207" s="259"/>
-      <c r="BB207" s="259"/>
-      <c r="BC207" s="259"/>
-      <c r="BD207" s="259"/>
-      <c r="BE207" s="259" t="s">
+      <c r="BA207" s="244"/>
+      <c r="BB207" s="244"/>
+      <c r="BC207" s="244"/>
+      <c r="BD207" s="244"/>
+      <c r="BE207" s="244" t="s">
         <v>331</v>
       </c>
-      <c r="BF207" s="259"/>
-      <c r="BG207" s="259"/>
-      <c r="BH207" s="259"/>
-      <c r="BI207" s="259"/>
-      <c r="BJ207" s="259" t="s">
+      <c r="BF207" s="244"/>
+      <c r="BG207" s="244"/>
+      <c r="BH207" s="244"/>
+      <c r="BI207" s="244"/>
+      <c r="BJ207" s="244" t="s">
         <v>332</v>
       </c>
-      <c r="BK207" s="259"/>
-      <c r="BL207" s="259"/>
-      <c r="BM207" s="259"/>
-      <c r="BN207" s="259"/>
-      <c r="BO207" s="259" t="s">
+      <c r="BK207" s="244"/>
+      <c r="BL207" s="244"/>
+      <c r="BM207" s="244"/>
+      <c r="BN207" s="244"/>
+      <c r="BO207" s="244" t="s">
         <v>333</v>
       </c>
-      <c r="BP207" s="259"/>
-      <c r="BQ207" s="259"/>
-      <c r="BR207" s="259"/>
-      <c r="BS207" s="259"/>
-      <c r="BT207" s="259" t="s">
+      <c r="BP207" s="244"/>
+      <c r="BQ207" s="244"/>
+      <c r="BR207" s="244"/>
+      <c r="BS207" s="244"/>
+      <c r="BT207" s="244" t="s">
         <v>334</v>
       </c>
-      <c r="BU207" s="259"/>
-      <c r="BV207" s="259"/>
-      <c r="BW207" s="259"/>
-      <c r="BX207" s="259"/>
-      <c r="BY207" s="259" t="s">
+      <c r="BU207" s="244"/>
+      <c r="BV207" s="244"/>
+      <c r="BW207" s="244"/>
+      <c r="BX207" s="244"/>
+      <c r="BY207" s="244" t="s">
         <v>335</v>
       </c>
-      <c r="BZ207" s="259"/>
-      <c r="CA207" s="259"/>
-      <c r="CB207" s="259"/>
-      <c r="CC207" s="259"/>
-      <c r="CD207" s="259" t="s">
+      <c r="BZ207" s="244"/>
+      <c r="CA207" s="244"/>
+      <c r="CB207" s="244"/>
+      <c r="CC207" s="244"/>
+      <c r="CD207" s="244" t="s">
         <v>336</v>
       </c>
-      <c r="CE207" s="259"/>
-      <c r="CF207" s="259"/>
-      <c r="CG207" s="259"/>
-      <c r="CH207" s="259"/>
-      <c r="CI207" s="259" t="s">
+      <c r="CE207" s="244"/>
+      <c r="CF207" s="244"/>
+      <c r="CG207" s="244"/>
+      <c r="CH207" s="244"/>
+      <c r="CI207" s="244" t="s">
         <v>337</v>
       </c>
-      <c r="CJ207" s="259"/>
-      <c r="CK207" s="259"/>
-      <c r="CL207" s="259"/>
-      <c r="CM207" s="259"/>
-      <c r="CN207" s="259" t="s">
+      <c r="CJ207" s="244"/>
+      <c r="CK207" s="244"/>
+      <c r="CL207" s="244"/>
+      <c r="CM207" s="244"/>
+      <c r="CN207" s="244" t="s">
         <v>338</v>
       </c>
-      <c r="CO207" s="259"/>
-      <c r="CP207" s="259"/>
-      <c r="CQ207" s="259"/>
-      <c r="CR207" s="259"/>
-      <c r="CS207" s="259" t="s">
+      <c r="CO207" s="244"/>
+      <c r="CP207" s="244"/>
+      <c r="CQ207" s="244"/>
+      <c r="CR207" s="244"/>
+      <c r="CS207" s="244" t="s">
         <v>339</v>
       </c>
-      <c r="CT207" s="259"/>
-      <c r="CU207" s="259"/>
-      <c r="CV207" s="259"/>
-      <c r="CW207" s="259"/>
-      <c r="CX207" s="259" t="s">
+      <c r="CT207" s="244"/>
+      <c r="CU207" s="244"/>
+      <c r="CV207" s="244"/>
+      <c r="CW207" s="244"/>
+      <c r="CX207" s="244" t="s">
         <v>340</v>
       </c>
-      <c r="CY207" s="259"/>
-      <c r="CZ207" s="259"/>
-      <c r="DA207" s="259"/>
-      <c r="DB207" s="259"/>
-      <c r="DC207" s="259" t="s">
+      <c r="CY207" s="244"/>
+      <c r="CZ207" s="244"/>
+      <c r="DA207" s="244"/>
+      <c r="DB207" s="244"/>
+      <c r="DC207" s="244" t="s">
         <v>341</v>
       </c>
-      <c r="DD207" s="259"/>
-      <c r="DE207" s="259"/>
-      <c r="DF207" s="259"/>
-      <c r="DG207" s="259"/>
-      <c r="DH207" s="260" t="s">
+      <c r="DD207" s="244"/>
+      <c r="DE207" s="244"/>
+      <c r="DF207" s="244"/>
+      <c r="DG207" s="244"/>
+      <c r="DH207" s="245" t="s">
         <v>342</v>
       </c>
-      <c r="DI207" s="260"/>
-      <c r="DJ207" s="260"/>
+      <c r="DI207" s="245"/>
+      <c r="DJ207" s="245"/>
       <c r="DK207" s="153" t="s">
         <v>343</v>
       </c>
       <c r="DL207" s="153">
         <v>1</v>
       </c>
-      <c r="DM207" s="259" t="s">
+      <c r="DM207" s="244" t="s">
         <v>344</v>
       </c>
-      <c r="DN207" s="259"/>
-      <c r="DO207" s="259"/>
-      <c r="DP207" s="259"/>
-      <c r="DQ207" s="259"/>
-      <c r="DR207" s="259" t="s">
+      <c r="DN207" s="244"/>
+      <c r="DO207" s="244"/>
+      <c r="DP207" s="244"/>
+      <c r="DQ207" s="244"/>
+      <c r="DR207" s="244" t="s">
         <v>345</v>
       </c>
-      <c r="DS207" s="259"/>
-      <c r="DT207" s="259"/>
-      <c r="DU207" s="259"/>
-      <c r="DV207" s="259"/>
-      <c r="DW207" s="259" t="s">
+      <c r="DS207" s="244"/>
+      <c r="DT207" s="244"/>
+      <c r="DU207" s="244"/>
+      <c r="DV207" s="244"/>
+      <c r="DW207" s="244" t="s">
         <v>346</v>
       </c>
-      <c r="DX207" s="259"/>
-      <c r="DY207" s="259"/>
-      <c r="DZ207" s="259"/>
-      <c r="EA207" s="259"/>
-      <c r="EB207" s="259" t="s">
+      <c r="DX207" s="244"/>
+      <c r="DY207" s="244"/>
+      <c r="DZ207" s="244"/>
+      <c r="EA207" s="244"/>
+      <c r="EB207" s="244" t="s">
         <v>347</v>
       </c>
-      <c r="EC207" s="259"/>
-      <c r="ED207" s="259"/>
-      <c r="EE207" s="259"/>
-      <c r="EF207" s="259"/>
-      <c r="EG207" s="259" t="s">
+      <c r="EC207" s="244"/>
+      <c r="ED207" s="244"/>
+      <c r="EE207" s="244"/>
+      <c r="EF207" s="244"/>
+      <c r="EG207" s="244" t="s">
         <v>348</v>
       </c>
-      <c r="EH207" s="259"/>
-      <c r="EI207" s="259"/>
-      <c r="EJ207" s="259"/>
-      <c r="EK207" s="259"/>
-      <c r="EL207" s="259" t="s">
+      <c r="EH207" s="244"/>
+      <c r="EI207" s="244"/>
+      <c r="EJ207" s="244"/>
+      <c r="EK207" s="244"/>
+      <c r="EL207" s="244" t="s">
         <v>349</v>
       </c>
-      <c r="EM207" s="259"/>
-      <c r="EN207" s="259"/>
-      <c r="EO207" s="259"/>
-      <c r="EP207" s="259"/>
-      <c r="EQ207" s="259" t="s">
+      <c r="EM207" s="244"/>
+      <c r="EN207" s="244"/>
+      <c r="EO207" s="244"/>
+      <c r="EP207" s="244"/>
+      <c r="EQ207" s="244" t="s">
         <v>350</v>
       </c>
-      <c r="ER207" s="259"/>
-      <c r="ES207" s="259"/>
-      <c r="ET207" s="259"/>
-      <c r="EU207" s="259"/>
-      <c r="EV207" s="259" t="s">
+      <c r="ER207" s="244"/>
+      <c r="ES207" s="244"/>
+      <c r="ET207" s="244"/>
+      <c r="EU207" s="244"/>
+      <c r="EV207" s="244" t="s">
         <v>351</v>
       </c>
-      <c r="EW207" s="259"/>
-      <c r="EX207" s="259"/>
-      <c r="EY207" s="259"/>
-      <c r="EZ207" s="259"/>
-      <c r="FA207" s="259" t="s">
+      <c r="EW207" s="244"/>
+      <c r="EX207" s="244"/>
+      <c r="EY207" s="244"/>
+      <c r="EZ207" s="244"/>
+      <c r="FA207" s="244" t="s">
         <v>352</v>
       </c>
-      <c r="FB207" s="259"/>
-      <c r="FC207" s="259"/>
-      <c r="FD207" s="259"/>
-      <c r="FE207" s="259"/>
-      <c r="FF207" s="259" t="s">
+      <c r="FB207" s="244"/>
+      <c r="FC207" s="244"/>
+      <c r="FD207" s="244"/>
+      <c r="FE207" s="244"/>
+      <c r="FF207" s="244" t="s">
         <v>353</v>
       </c>
-      <c r="FG207" s="259"/>
-      <c r="FH207" s="259"/>
-      <c r="FI207" s="259"/>
-      <c r="FJ207" s="259"/>
-      <c r="FK207" s="259" t="s">
+      <c r="FG207" s="244"/>
+      <c r="FH207" s="244"/>
+      <c r="FI207" s="244"/>
+      <c r="FJ207" s="244"/>
+      <c r="FK207" s="244" t="s">
         <v>354</v>
       </c>
-      <c r="FL207" s="259"/>
-      <c r="FM207" s="259"/>
-      <c r="FN207" s="259"/>
-      <c r="FO207" s="259"/>
-      <c r="FP207" s="259" t="s">
+      <c r="FL207" s="244"/>
+      <c r="FM207" s="244"/>
+      <c r="FN207" s="244"/>
+      <c r="FO207" s="244"/>
+      <c r="FP207" s="244" t="s">
         <v>355</v>
       </c>
-      <c r="FQ207" s="259"/>
-      <c r="FR207" s="259"/>
-      <c r="FS207" s="259"/>
-      <c r="FT207" s="259"/>
-      <c r="FU207" s="260" t="s">
+      <c r="FQ207" s="244"/>
+      <c r="FR207" s="244"/>
+      <c r="FS207" s="244"/>
+      <c r="FT207" s="244"/>
+      <c r="FU207" s="245" t="s">
         <v>356</v>
       </c>
-      <c r="FV207" s="260"/>
-      <c r="FW207" s="260"/>
+      <c r="FV207" s="245"/>
+      <c r="FW207" s="245"/>
       <c r="FX207" s="153" t="s">
         <v>343</v>
       </c>
@@ -14902,7 +15018,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="208" spans="1:181" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:181">
       <c r="A208" s="1"/>
       <c r="B208" s="26" t="s">
         <v>357</v>
@@ -15445,7 +15561,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="209" spans="1:181" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:181">
       <c r="A209" s="152" t="s">
         <v>362</v>
       </c>
@@ -15630,7 +15746,7 @@
       <c r="FX209" s="132"/>
       <c r="FY209" s="132"/>
     </row>
-    <row r="210" spans="1:181" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:181">
       <c r="A210" s="155" t="s">
         <v>363</v>
       </c>
@@ -16175,7 +16291,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="1:181" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:181">
       <c r="A211" s="155" t="s">
         <v>364</v>
       </c>
@@ -16720,7 +16836,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="1:181" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:181">
       <c r="A212" s="152" t="s">
         <v>365</v>
       </c>
@@ -16905,7 +17021,7 @@
       <c r="FX212" s="132"/>
       <c r="FY212" s="132"/>
     </row>
-    <row r="213" spans="1:181" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:181">
       <c r="A213" s="155" t="s">
         <v>363</v>
       </c>
@@ -17450,7 +17566,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="1:181" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:181">
       <c r="A214" s="155" t="s">
         <v>364</v>
       </c>
@@ -17995,7 +18111,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="1:181" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:181">
       <c r="A215" s="152" t="s">
         <v>366</v>
       </c>
@@ -18180,7 +18296,7 @@
       <c r="FX215" s="132"/>
       <c r="FY215" s="132"/>
     </row>
-    <row r="216" spans="1:181" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:181">
       <c r="A216" s="156" t="s">
         <v>357</v>
       </c>
@@ -18725,7 +18841,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="1:181" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:181">
       <c r="A217" s="156" t="s">
         <v>358</v>
       </c>
@@ -19270,7 +19386,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="1:181" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:181">
       <c r="A218" s="156" t="s">
         <v>359</v>
       </c>
@@ -19815,7 +19931,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="1:181" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:181">
       <c r="A219" s="156" t="s">
         <v>360</v>
       </c>
@@ -20360,7 +20476,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="1:181" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:181">
       <c r="A220" s="156" t="s">
         <v>361</v>
       </c>
@@ -20905,40 +21021,40 @@
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="1:181" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:181">
       <c r="A221" s="70"/>
       <c r="B221" s="28"/>
     </row>
-    <row r="222" spans="1:181" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:181">
       <c r="A222" s="70"/>
       <c r="B222" s="28"/>
     </row>
-    <row r="223" spans="1:181" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:181">
       <c r="A223" s="151" t="s">
         <v>367</v>
       </c>
       <c r="B223" s="28"/>
     </row>
-    <row r="224" spans="1:181" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:181" ht="14.45" customHeight="1">
       <c r="A224" s="152" t="s">
         <v>319</v>
       </c>
-      <c r="B224" s="259" t="s">
+      <c r="B224" s="244" t="s">
         <v>368</v>
       </c>
-      <c r="C224" s="259"/>
-      <c r="D224" s="259"/>
-      <c r="E224" s="259"/>
-      <c r="F224" s="259"/>
-      <c r="G224" s="259" t="s">
+      <c r="C224" s="244"/>
+      <c r="D224" s="244"/>
+      <c r="E224" s="244"/>
+      <c r="F224" s="244"/>
+      <c r="G224" s="244" t="s">
         <v>356</v>
       </c>
-      <c r="H224" s="259"/>
-      <c r="I224" s="259"/>
-      <c r="J224" s="259"/>
-      <c r="K224" s="259"/>
-    </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H224" s="244"/>
+      <c r="I224" s="244"/>
+      <c r="J224" s="244"/>
+      <c r="K224" s="244"/>
+    </row>
+    <row r="225" spans="1:11">
       <c r="A225" s="1"/>
       <c r="B225" s="26" t="s">
         <v>357</v>
@@ -20971,7 +21087,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:11">
       <c r="A226" s="152" t="s">
         <v>362</v>
       </c>
@@ -20986,7 +21102,7 @@
       <c r="J226" s="132"/>
       <c r="K226" s="132"/>
     </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:11">
       <c r="A227" s="155" t="s">
         <v>363</v>
       </c>
@@ -21021,7 +21137,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:11">
       <c r="A228" s="155" t="s">
         <v>364</v>
       </c>
@@ -21056,7 +21172,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:11">
       <c r="A229" s="152" t="s">
         <v>365</v>
       </c>
@@ -21071,7 +21187,7 @@
       <c r="J229" s="159"/>
       <c r="K229" s="159"/>
     </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:11">
       <c r="A230" s="155" t="s">
         <v>363</v>
       </c>
@@ -21106,7 +21222,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:11">
       <c r="A231" s="155" t="s">
         <v>364</v>
       </c>
@@ -21141,7 +21257,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:11">
       <c r="A232" s="152" t="s">
         <v>366</v>
       </c>
@@ -21156,7 +21272,7 @@
       <c r="J232" s="159"/>
       <c r="K232" s="159"/>
     </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:11">
       <c r="A233" s="156" t="s">
         <v>357</v>
       </c>
@@ -21191,7 +21307,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:11">
       <c r="A234" s="156" t="s">
         <v>358</v>
       </c>
@@ -21226,7 +21342,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:11">
       <c r="A235" s="156" t="s">
         <v>359</v>
       </c>
@@ -21261,7 +21377,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:11">
       <c r="A236" s="156" t="s">
         <v>360</v>
       </c>
@@ -21296,7 +21412,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="237" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:11">
       <c r="A237" s="156" t="s">
         <v>361</v>
       </c>
@@ -21331,36 +21447,36 @@
         <v>0</v>
       </c>
     </row>
-    <row r="238" spans="1:11" s="28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:11" s="28" customFormat="1">
       <c r="A238" s="70"/>
     </row>
-    <row r="239" spans="1:11" s="28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:11" s="28" customFormat="1">
       <c r="A239" s="70"/>
     </row>
-    <row r="240" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:11" ht="30">
       <c r="A240" s="152" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="241" spans="1:181" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A241" s="261" t="s">
+    <row r="241" spans="1:181" ht="14.45" customHeight="1">
+      <c r="A241" s="246" t="s">
         <v>370</v>
       </c>
       <c r="B241" s="42" t="s">
         <v>371</v>
       </c>
-      <c r="C241" s="245" t="s">
+      <c r="C241" s="247" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="242" spans="1:181" x14ac:dyDescent="0.25">
-      <c r="A242" s="261"/>
+    <row r="242" spans="1:181">
+      <c r="A242" s="246"/>
       <c r="B242" s="42" t="s">
         <v>372</v>
       </c>
-      <c r="C242" s="245"/>
-    </row>
-    <row r="243" spans="1:181" x14ac:dyDescent="0.25">
+      <c r="C242" s="247"/>
+    </row>
+    <row r="243" spans="1:181">
       <c r="A243" s="160" t="s">
         <v>373</v>
       </c>
@@ -21374,273 +21490,273 @@
         <v>376</v>
       </c>
     </row>
-    <row r="244" spans="1:181" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:181">
       <c r="A244" s="161" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="245" spans="1:181" ht="52.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:181" ht="52.9" customHeight="1">
       <c r="A245" s="162" t="s">
         <v>378</v>
       </c>
-      <c r="B245" s="259" t="s">
+      <c r="B245" s="244" t="s">
         <v>320</v>
       </c>
-      <c r="C245" s="259"/>
-      <c r="D245" s="259"/>
-      <c r="E245" s="259"/>
-      <c r="F245" s="259"/>
-      <c r="G245" s="259" t="s">
+      <c r="C245" s="244"/>
+      <c r="D245" s="244"/>
+      <c r="E245" s="244"/>
+      <c r="F245" s="244"/>
+      <c r="G245" s="244" t="s">
         <v>321</v>
       </c>
-      <c r="H245" s="259"/>
-      <c r="I245" s="259"/>
-      <c r="J245" s="259"/>
-      <c r="K245" s="259"/>
-      <c r="L245" s="259" t="s">
+      <c r="H245" s="244"/>
+      <c r="I245" s="244"/>
+      <c r="J245" s="244"/>
+      <c r="K245" s="244"/>
+      <c r="L245" s="244" t="s">
         <v>322</v>
       </c>
-      <c r="M245" s="259"/>
-      <c r="N245" s="259"/>
-      <c r="O245" s="259"/>
-      <c r="P245" s="259"/>
-      <c r="Q245" s="259" t="s">
+      <c r="M245" s="244"/>
+      <c r="N245" s="244"/>
+      <c r="O245" s="244"/>
+      <c r="P245" s="244"/>
+      <c r="Q245" s="244" t="s">
         <v>323</v>
       </c>
-      <c r="R245" s="259"/>
-      <c r="S245" s="259"/>
-      <c r="T245" s="259"/>
-      <c r="U245" s="259"/>
-      <c r="V245" s="259" t="s">
+      <c r="R245" s="244"/>
+      <c r="S245" s="244"/>
+      <c r="T245" s="244"/>
+      <c r="U245" s="244"/>
+      <c r="V245" s="244" t="s">
         <v>324</v>
       </c>
-      <c r="W245" s="259"/>
-      <c r="X245" s="259"/>
-      <c r="Y245" s="259"/>
-      <c r="Z245" s="259"/>
-      <c r="AA245" s="259" t="s">
+      <c r="W245" s="244"/>
+      <c r="X245" s="244"/>
+      <c r="Y245" s="244"/>
+      <c r="Z245" s="244"/>
+      <c r="AA245" s="244" t="s">
         <v>325</v>
       </c>
-      <c r="AB245" s="259"/>
-      <c r="AC245" s="259"/>
-      <c r="AD245" s="259"/>
-      <c r="AE245" s="259"/>
-      <c r="AF245" s="259" t="s">
+      <c r="AB245" s="244"/>
+      <c r="AC245" s="244"/>
+      <c r="AD245" s="244"/>
+      <c r="AE245" s="244"/>
+      <c r="AF245" s="244" t="s">
         <v>326</v>
       </c>
-      <c r="AG245" s="259"/>
-      <c r="AH245" s="259"/>
-      <c r="AI245" s="259"/>
-      <c r="AJ245" s="259"/>
-      <c r="AK245" s="259" t="s">
+      <c r="AG245" s="244"/>
+      <c r="AH245" s="244"/>
+      <c r="AI245" s="244"/>
+      <c r="AJ245" s="244"/>
+      <c r="AK245" s="244" t="s">
         <v>327</v>
       </c>
-      <c r="AL245" s="259"/>
-      <c r="AM245" s="259"/>
-      <c r="AN245" s="259"/>
-      <c r="AO245" s="259"/>
-      <c r="AP245" s="259" t="s">
+      <c r="AL245" s="244"/>
+      <c r="AM245" s="244"/>
+      <c r="AN245" s="244"/>
+      <c r="AO245" s="244"/>
+      <c r="AP245" s="244" t="s">
         <v>328</v>
       </c>
-      <c r="AQ245" s="259"/>
-      <c r="AR245" s="259"/>
-      <c r="AS245" s="259"/>
-      <c r="AT245" s="259"/>
-      <c r="AU245" s="259" t="s">
+      <c r="AQ245" s="244"/>
+      <c r="AR245" s="244"/>
+      <c r="AS245" s="244"/>
+      <c r="AT245" s="244"/>
+      <c r="AU245" s="244" t="s">
         <v>329</v>
       </c>
-      <c r="AV245" s="259"/>
-      <c r="AW245" s="259"/>
-      <c r="AX245" s="259"/>
-      <c r="AY245" s="259"/>
-      <c r="AZ245" s="259" t="s">
+      <c r="AV245" s="244"/>
+      <c r="AW245" s="244"/>
+      <c r="AX245" s="244"/>
+      <c r="AY245" s="244"/>
+      <c r="AZ245" s="244" t="s">
         <v>330</v>
       </c>
-      <c r="BA245" s="259"/>
-      <c r="BB245" s="259"/>
-      <c r="BC245" s="259"/>
-      <c r="BD245" s="259"/>
-      <c r="BE245" s="259" t="s">
+      <c r="BA245" s="244"/>
+      <c r="BB245" s="244"/>
+      <c r="BC245" s="244"/>
+      <c r="BD245" s="244"/>
+      <c r="BE245" s="244" t="s">
         <v>331</v>
       </c>
-      <c r="BF245" s="259"/>
-      <c r="BG245" s="259"/>
-      <c r="BH245" s="259"/>
-      <c r="BI245" s="259"/>
-      <c r="BJ245" s="259" t="s">
+      <c r="BF245" s="244"/>
+      <c r="BG245" s="244"/>
+      <c r="BH245" s="244"/>
+      <c r="BI245" s="244"/>
+      <c r="BJ245" s="244" t="s">
         <v>332</v>
       </c>
-      <c r="BK245" s="259"/>
-      <c r="BL245" s="259"/>
-      <c r="BM245" s="259"/>
-      <c r="BN245" s="259"/>
-      <c r="BO245" s="259" t="s">
+      <c r="BK245" s="244"/>
+      <c r="BL245" s="244"/>
+      <c r="BM245" s="244"/>
+      <c r="BN245" s="244"/>
+      <c r="BO245" s="244" t="s">
         <v>333</v>
       </c>
-      <c r="BP245" s="259"/>
-      <c r="BQ245" s="259"/>
-      <c r="BR245" s="259"/>
-      <c r="BS245" s="259"/>
-      <c r="BT245" s="259" t="s">
+      <c r="BP245" s="244"/>
+      <c r="BQ245" s="244"/>
+      <c r="BR245" s="244"/>
+      <c r="BS245" s="244"/>
+      <c r="BT245" s="244" t="s">
         <v>334</v>
       </c>
-      <c r="BU245" s="259"/>
-      <c r="BV245" s="259"/>
-      <c r="BW245" s="259"/>
-      <c r="BX245" s="259"/>
-      <c r="BY245" s="259" t="s">
+      <c r="BU245" s="244"/>
+      <c r="BV245" s="244"/>
+      <c r="BW245" s="244"/>
+      <c r="BX245" s="244"/>
+      <c r="BY245" s="244" t="s">
         <v>335</v>
       </c>
-      <c r="BZ245" s="259"/>
-      <c r="CA245" s="259"/>
-      <c r="CB245" s="259"/>
-      <c r="CC245" s="259"/>
-      <c r="CD245" s="259" t="s">
+      <c r="BZ245" s="244"/>
+      <c r="CA245" s="244"/>
+      <c r="CB245" s="244"/>
+      <c r="CC245" s="244"/>
+      <c r="CD245" s="244" t="s">
         <v>336</v>
       </c>
-      <c r="CE245" s="259"/>
-      <c r="CF245" s="259"/>
-      <c r="CG245" s="259"/>
-      <c r="CH245" s="259"/>
-      <c r="CI245" s="259" t="s">
+      <c r="CE245" s="244"/>
+      <c r="CF245" s="244"/>
+      <c r="CG245" s="244"/>
+      <c r="CH245" s="244"/>
+      <c r="CI245" s="244" t="s">
         <v>337</v>
       </c>
-      <c r="CJ245" s="259"/>
-      <c r="CK245" s="259"/>
-      <c r="CL245" s="259"/>
-      <c r="CM245" s="259"/>
-      <c r="CN245" s="259" t="s">
+      <c r="CJ245" s="244"/>
+      <c r="CK245" s="244"/>
+      <c r="CL245" s="244"/>
+      <c r="CM245" s="244"/>
+      <c r="CN245" s="244" t="s">
         <v>338</v>
       </c>
-      <c r="CO245" s="259"/>
-      <c r="CP245" s="259"/>
-      <c r="CQ245" s="259"/>
-      <c r="CR245" s="259"/>
-      <c r="CS245" s="259" t="s">
+      <c r="CO245" s="244"/>
+      <c r="CP245" s="244"/>
+      <c r="CQ245" s="244"/>
+      <c r="CR245" s="244"/>
+      <c r="CS245" s="244" t="s">
         <v>339</v>
       </c>
-      <c r="CT245" s="259"/>
-      <c r="CU245" s="259"/>
-      <c r="CV245" s="259"/>
-      <c r="CW245" s="259"/>
-      <c r="CX245" s="259" t="s">
+      <c r="CT245" s="244"/>
+      <c r="CU245" s="244"/>
+      <c r="CV245" s="244"/>
+      <c r="CW245" s="244"/>
+      <c r="CX245" s="244" t="s">
         <v>340</v>
       </c>
-      <c r="CY245" s="259"/>
-      <c r="CZ245" s="259"/>
-      <c r="DA245" s="259"/>
-      <c r="DB245" s="259"/>
-      <c r="DC245" s="259" t="s">
+      <c r="CY245" s="244"/>
+      <c r="CZ245" s="244"/>
+      <c r="DA245" s="244"/>
+      <c r="DB245" s="244"/>
+      <c r="DC245" s="244" t="s">
         <v>341</v>
       </c>
-      <c r="DD245" s="259"/>
-      <c r="DE245" s="259"/>
-      <c r="DF245" s="259"/>
-      <c r="DG245" s="259"/>
-      <c r="DH245" s="260" t="s">
+      <c r="DD245" s="244"/>
+      <c r="DE245" s="244"/>
+      <c r="DF245" s="244"/>
+      <c r="DG245" s="244"/>
+      <c r="DH245" s="245" t="s">
         <v>342</v>
       </c>
-      <c r="DI245" s="260"/>
-      <c r="DJ245" s="260"/>
+      <c r="DI245" s="245"/>
+      <c r="DJ245" s="245"/>
       <c r="DK245" s="153" t="s">
         <v>343</v>
       </c>
       <c r="DL245" s="153">
         <v>0</v>
       </c>
-      <c r="DM245" s="259" t="s">
+      <c r="DM245" s="244" t="s">
         <v>344</v>
       </c>
-      <c r="DN245" s="259"/>
-      <c r="DO245" s="259"/>
-      <c r="DP245" s="259"/>
-      <c r="DQ245" s="259"/>
-      <c r="DR245" s="259" t="s">
+      <c r="DN245" s="244"/>
+      <c r="DO245" s="244"/>
+      <c r="DP245" s="244"/>
+      <c r="DQ245" s="244"/>
+      <c r="DR245" s="244" t="s">
         <v>345</v>
       </c>
-      <c r="DS245" s="259"/>
-      <c r="DT245" s="259"/>
-      <c r="DU245" s="259"/>
-      <c r="DV245" s="259"/>
-      <c r="DW245" s="259" t="s">
+      <c r="DS245" s="244"/>
+      <c r="DT245" s="244"/>
+      <c r="DU245" s="244"/>
+      <c r="DV245" s="244"/>
+      <c r="DW245" s="244" t="s">
         <v>346</v>
       </c>
-      <c r="DX245" s="259"/>
-      <c r="DY245" s="259"/>
-      <c r="DZ245" s="259"/>
-      <c r="EA245" s="259"/>
-      <c r="EB245" s="259" t="s">
+      <c r="DX245" s="244"/>
+      <c r="DY245" s="244"/>
+      <c r="DZ245" s="244"/>
+      <c r="EA245" s="244"/>
+      <c r="EB245" s="244" t="s">
         <v>347</v>
       </c>
-      <c r="EC245" s="259"/>
-      <c r="ED245" s="259"/>
-      <c r="EE245" s="259"/>
-      <c r="EF245" s="259"/>
-      <c r="EG245" s="259" t="s">
+      <c r="EC245" s="244"/>
+      <c r="ED245" s="244"/>
+      <c r="EE245" s="244"/>
+      <c r="EF245" s="244"/>
+      <c r="EG245" s="244" t="s">
         <v>348</v>
       </c>
-      <c r="EH245" s="259"/>
-      <c r="EI245" s="259"/>
-      <c r="EJ245" s="259"/>
-      <c r="EK245" s="259"/>
-      <c r="EL245" s="259" t="s">
+      <c r="EH245" s="244"/>
+      <c r="EI245" s="244"/>
+      <c r="EJ245" s="244"/>
+      <c r="EK245" s="244"/>
+      <c r="EL245" s="244" t="s">
         <v>349</v>
       </c>
-      <c r="EM245" s="259"/>
-      <c r="EN245" s="259"/>
-      <c r="EO245" s="259"/>
-      <c r="EP245" s="259"/>
-      <c r="EQ245" s="259" t="s">
+      <c r="EM245" s="244"/>
+      <c r="EN245" s="244"/>
+      <c r="EO245" s="244"/>
+      <c r="EP245" s="244"/>
+      <c r="EQ245" s="244" t="s">
         <v>350</v>
       </c>
-      <c r="ER245" s="259"/>
-      <c r="ES245" s="259"/>
-      <c r="ET245" s="259"/>
-      <c r="EU245" s="259"/>
-      <c r="EV245" s="259" t="s">
+      <c r="ER245" s="244"/>
+      <c r="ES245" s="244"/>
+      <c r="ET245" s="244"/>
+      <c r="EU245" s="244"/>
+      <c r="EV245" s="244" t="s">
         <v>351</v>
       </c>
-      <c r="EW245" s="259"/>
-      <c r="EX245" s="259"/>
-      <c r="EY245" s="259"/>
-      <c r="EZ245" s="259"/>
-      <c r="FA245" s="259" t="s">
+      <c r="EW245" s="244"/>
+      <c r="EX245" s="244"/>
+      <c r="EY245" s="244"/>
+      <c r="EZ245" s="244"/>
+      <c r="FA245" s="244" t="s">
         <v>352</v>
       </c>
-      <c r="FB245" s="259"/>
-      <c r="FC245" s="259"/>
-      <c r="FD245" s="259"/>
-      <c r="FE245" s="259"/>
-      <c r="FF245" s="259" t="s">
+      <c r="FB245" s="244"/>
+      <c r="FC245" s="244"/>
+      <c r="FD245" s="244"/>
+      <c r="FE245" s="244"/>
+      <c r="FF245" s="244" t="s">
         <v>353</v>
       </c>
-      <c r="FG245" s="259"/>
-      <c r="FH245" s="259"/>
-      <c r="FI245" s="259"/>
-      <c r="FJ245" s="259"/>
-      <c r="FK245" s="259" t="s">
+      <c r="FG245" s="244"/>
+      <c r="FH245" s="244"/>
+      <c r="FI245" s="244"/>
+      <c r="FJ245" s="244"/>
+      <c r="FK245" s="244" t="s">
         <v>354</v>
       </c>
-      <c r="FL245" s="259"/>
-      <c r="FM245" s="259"/>
-      <c r="FN245" s="259"/>
-      <c r="FO245" s="259"/>
-      <c r="FP245" s="259" t="s">
+      <c r="FL245" s="244"/>
+      <c r="FM245" s="244"/>
+      <c r="FN245" s="244"/>
+      <c r="FO245" s="244"/>
+      <c r="FP245" s="244" t="s">
         <v>355</v>
       </c>
-      <c r="FQ245" s="259"/>
-      <c r="FR245" s="259"/>
-      <c r="FS245" s="259"/>
-      <c r="FT245" s="259"/>
-      <c r="FU245" s="259" t="s">
+      <c r="FQ245" s="244"/>
+      <c r="FR245" s="244"/>
+      <c r="FS245" s="244"/>
+      <c r="FT245" s="244"/>
+      <c r="FU245" s="244" t="s">
         <v>356</v>
       </c>
-      <c r="FV245" s="259"/>
-      <c r="FW245" s="259"/>
-      <c r="FX245" s="259"/>
-      <c r="FY245" s="259"/>
-    </row>
-    <row r="246" spans="1:181" x14ac:dyDescent="0.25">
+      <c r="FV245" s="244"/>
+      <c r="FW245" s="244"/>
+      <c r="FX245" s="244"/>
+      <c r="FY245" s="244"/>
+    </row>
+    <row r="246" spans="1:181">
       <c r="A246" s="1"/>
       <c r="B246" s="26" t="s">
         <v>357</v>
@@ -22183,7 +22299,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="247" spans="1:181" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:181">
       <c r="A247" s="160" t="s">
         <v>379</v>
       </c>
@@ -22728,13 +22844,13 @@
         <v>1.4525695196166699</v>
       </c>
     </row>
-    <row r="248" spans="1:181" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:181">
       <c r="A248" s="161" t="s">
         <v>380</v>
       </c>
       <c r="B248" s="163"/>
     </row>
-    <row r="249" spans="1:181" ht="30" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:181" ht="30">
       <c r="A249" s="160" t="s">
         <v>381</v>
       </c>
@@ -22746,7 +22862,7 @@
       </c>
       <c r="D249" s="22"/>
     </row>
-    <row r="250" spans="1:181" ht="30" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:181" ht="30">
       <c r="A250" s="160" t="s">
         <v>382</v>
       </c>
@@ -22758,33 +22874,33 @@
       </c>
       <c r="D250" s="22"/>
     </row>
-    <row r="251" spans="1:181" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:181">
       <c r="A251" s="70"/>
       <c r="B251" s="28"/>
     </row>
-    <row r="252" spans="1:181" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:181">
       <c r="A252" s="70"/>
       <c r="B252" s="28"/>
     </row>
-    <row r="253" spans="1:181" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:181">
       <c r="A253" s="70"/>
       <c r="B253" s="28"/>
     </row>
-    <row r="254" spans="1:181" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:181">
       <c r="A254" s="70"/>
       <c r="B254" s="28"/>
     </row>
-    <row r="255" spans="1:181" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A255" s="262" t="s">
+    <row r="255" spans="1:181" ht="14.45" customHeight="1">
+      <c r="A255" s="237" t="s">
         <v>383</v>
       </c>
-      <c r="B255" s="262"/>
-      <c r="C255" s="262"/>
-      <c r="D255" s="262"/>
-      <c r="E255" s="263"/>
-      <c r="F255" s="263"/>
-    </row>
-    <row r="256" spans="1:181" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B255" s="237"/>
+      <c r="C255" s="237"/>
+      <c r="D255" s="237"/>
+      <c r="E255" s="238"/>
+      <c r="F255" s="238"/>
+    </row>
+    <row r="256" spans="1:181" ht="28.9" customHeight="1">
       <c r="A256" s="165" t="s">
         <v>384</v>
       </c>
@@ -22796,51 +22912,51 @@
       <c r="E256" s="43"/>
       <c r="F256" s="166"/>
     </row>
-    <row r="257" spans="1:6" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A257" s="264" t="s">
+    <row r="257" spans="1:6" ht="14.45" customHeight="1">
+      <c r="A257" s="239" t="s">
         <v>386</v>
       </c>
       <c r="B257" s="168" t="s">
         <v>387</v>
       </c>
-      <c r="C257" s="241" t="s">
+      <c r="C257" s="240" t="s">
         <v>388</v>
       </c>
-      <c r="D257" s="265" t="s">
+      <c r="D257" s="241" t="s">
         <v>389</v>
       </c>
       <c r="E257" s="42" t="s">
         <v>387</v>
       </c>
-      <c r="F257" s="241" t="s">
+      <c r="F257" s="240" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="258" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A258" s="264"/>
+    <row r="258" spans="1:6">
+      <c r="A258" s="239"/>
       <c r="B258" s="42" t="s">
         <v>391</v>
       </c>
-      <c r="C258" s="241"/>
-      <c r="D258" s="241"/>
+      <c r="C258" s="240"/>
+      <c r="D258" s="240"/>
       <c r="E258" s="42" t="s">
         <v>391</v>
       </c>
-      <c r="F258" s="241"/>
-    </row>
-    <row r="259" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A259" s="264"/>
+      <c r="F258" s="240"/>
+    </row>
+    <row r="259" spans="1:6">
+      <c r="A259" s="239"/>
       <c r="B259" s="42" t="s">
         <v>392</v>
       </c>
-      <c r="C259" s="241"/>
-      <c r="D259" s="241"/>
+      <c r="C259" s="240"/>
+      <c r="D259" s="240"/>
       <c r="E259" s="42" t="s">
         <v>392</v>
       </c>
-      <c r="F259" s="241"/>
-    </row>
-    <row r="260" spans="1:6" ht="47.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F259" s="240"/>
+    </row>
+    <row r="260" spans="1:6" ht="47.45" customHeight="1">
       <c r="A260" s="160" t="s">
         <v>393</v>
       </c>
@@ -22860,14 +22976,14 @@
         <v>397</v>
       </c>
     </row>
-    <row r="267" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:6">
       <c r="A267" s="132" t="s">
         <v>398</v>
       </c>
       <c r="B267" s="132"/>
       <c r="C267" s="132"/>
     </row>
-    <row r="268" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:6">
       <c r="A268" s="134" t="s">
         <v>399</v>
       </c>
@@ -22878,12 +22994,12 @@
         <v>400</v>
       </c>
     </row>
-    <row r="269" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:6">
       <c r="A269" s="76"/>
       <c r="B269" s="25"/>
       <c r="C269" s="26"/>
     </row>
-    <row r="270" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:6">
       <c r="A270" s="76" t="s">
         <v>401</v>
       </c>
@@ -22894,7 +23010,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="271" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:6">
       <c r="A271" s="76" t="s">
         <v>403</v>
       </c>
@@ -22911,17 +23027,17 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="272" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:6">
       <c r="A272" s="134"/>
       <c r="B272" s="25"/>
       <c r="C272" s="26"/>
     </row>
-    <row r="273" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:6">
       <c r="A273" s="134"/>
       <c r="B273" s="25"/>
       <c r="C273" s="26"/>
     </row>
-    <row r="274" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:6">
       <c r="A274" s="76" t="s">
         <v>407</v>
       </c>
@@ -22932,7 +23048,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="275" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:6">
       <c r="A275" s="13" t="s">
         <v>410</v>
       </c>
@@ -22941,7 +23057,7 @@
       </c>
       <c r="C275" s="26"/>
     </row>
-    <row r="276" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:6">
       <c r="A276" s="13" t="s">
         <v>411</v>
       </c>
@@ -22950,7 +23066,7 @@
       </c>
       <c r="C276" s="26"/>
     </row>
-    <row r="281" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:6">
       <c r="A281" s="170" t="s">
         <v>412</v>
       </c>
@@ -22960,7 +23076,7 @@
       <c r="E281" s="133"/>
       <c r="F281" s="133"/>
     </row>
-    <row r="282" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:6">
       <c r="A282" s="171" t="s">
         <v>413</v>
       </c>
@@ -22968,17 +23084,17 @@
       <c r="C282" s="133"/>
       <c r="D282" s="133"/>
     </row>
-    <row r="283" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A283" s="266" t="s">
+    <row r="283" spans="1:6">
+      <c r="A283" s="242" t="s">
         <v>414</v>
       </c>
-      <c r="B283" s="266"/>
-      <c r="C283" s="266"/>
+      <c r="B283" s="242"/>
+      <c r="C283" s="242"/>
       <c r="D283" s="172">
         <v>2</v>
       </c>
     </row>
-    <row r="284" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:6">
       <c r="A284" s="173" t="s">
         <v>415</v>
       </c>
@@ -22986,7 +23102,7 @@
       <c r="C284" s="175"/>
       <c r="D284" s="133"/>
     </row>
-    <row r="285" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:6">
       <c r="A285" s="134" t="s">
         <v>416</v>
       </c>
@@ -22994,7 +23110,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="286" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:6">
       <c r="A286" s="176" t="s">
         <v>418</v>
       </c>
@@ -23008,8 +23124,8 @@
         <v>421</v>
       </c>
     </row>
-    <row r="287" spans="1:6" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A287" s="267" t="s">
+    <row r="287" spans="1:6" ht="14.45" customHeight="1">
+      <c r="A287" s="243" t="s">
         <v>422</v>
       </c>
       <c r="B287" s="25" t="s">
@@ -23025,8 +23141,8 @@
         <v>425</v>
       </c>
     </row>
-    <row r="288" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A288" s="267"/>
+    <row r="288" spans="1:6">
+      <c r="A288" s="243"/>
       <c r="B288" s="25" t="s">
         <v>426</v>
       </c>
@@ -23040,8 +23156,8 @@
         <v>425</v>
       </c>
     </row>
-    <row r="289" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A289" s="267"/>
+    <row r="289" spans="1:5">
+      <c r="A289" s="243"/>
       <c r="B289" s="25" t="s">
         <v>427</v>
       </c>
@@ -23055,8 +23171,8 @@
         <v>425</v>
       </c>
     </row>
-    <row r="290" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A290" s="267"/>
+    <row r="290" spans="1:5">
+      <c r="A290" s="243"/>
       <c r="B290" s="25" t="s">
         <v>428</v>
       </c>
@@ -23070,8 +23186,8 @@
         <v>425</v>
       </c>
     </row>
-    <row r="291" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A291" s="267"/>
+    <row r="291" spans="1:5">
+      <c r="A291" s="243"/>
       <c r="B291" s="25" t="s">
         <v>429</v>
       </c>
@@ -23085,8 +23201,8 @@
         <v>425</v>
       </c>
     </row>
-    <row r="292" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A292" s="267"/>
+    <row r="292" spans="1:5">
+      <c r="A292" s="243"/>
       <c r="B292" s="25" t="s">
         <v>430</v>
       </c>
@@ -23100,8 +23216,8 @@
         <v>425</v>
       </c>
     </row>
-    <row r="293" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A293" s="267"/>
+    <row r="293" spans="1:5">
+      <c r="A293" s="243"/>
       <c r="B293" s="25" t="s">
         <v>431</v>
       </c>
@@ -23115,8 +23231,8 @@
         <v>425</v>
       </c>
     </row>
-    <row r="294" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A294" s="267"/>
+    <row r="294" spans="1:5">
+      <c r="A294" s="243"/>
       <c r="B294" s="25" t="s">
         <v>432</v>
       </c>
@@ -23130,8 +23246,8 @@
         <v>425</v>
       </c>
     </row>
-    <row r="295" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A295" s="267"/>
+    <row r="295" spans="1:5">
+      <c r="A295" s="243"/>
       <c r="B295" s="25" t="s">
         <v>433</v>
       </c>
@@ -23145,8 +23261,8 @@
         <v>425</v>
       </c>
     </row>
-    <row r="296" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A296" s="267"/>
+    <row r="296" spans="1:5">
+      <c r="A296" s="243"/>
       <c r="B296" s="25" t="s">
         <v>434</v>
       </c>
@@ -23160,8 +23276,8 @@
         <v>425</v>
       </c>
     </row>
-    <row r="297" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A297" s="267"/>
+    <row r="297" spans="1:5">
+      <c r="A297" s="243"/>
       <c r="B297" s="25" t="s">
         <v>435</v>
       </c>
@@ -23175,8 +23291,8 @@
         <v>425</v>
       </c>
     </row>
-    <row r="298" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A298" s="267"/>
+    <row r="298" spans="1:5">
+      <c r="A298" s="243"/>
       <c r="B298" s="25" t="s">
         <v>436</v>
       </c>
@@ -23190,8 +23306,8 @@
         <v>425</v>
       </c>
     </row>
-    <row r="299" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A299" s="267"/>
+    <row r="299" spans="1:5">
+      <c r="A299" s="243"/>
       <c r="B299" s="25" t="s">
         <v>437</v>
       </c>
@@ -23205,8 +23321,8 @@
         <v>425</v>
       </c>
     </row>
-    <row r="300" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A300" s="267"/>
+    <row r="300" spans="1:5">
+      <c r="A300" s="243"/>
       <c r="B300" s="25" t="s">
         <v>438</v>
       </c>
@@ -23220,8 +23336,8 @@
         <v>425</v>
       </c>
     </row>
-    <row r="301" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A301" s="267"/>
+    <row r="301" spans="1:5">
+      <c r="A301" s="243"/>
       <c r="B301" s="25" t="s">
         <v>439</v>
       </c>
@@ -23235,8 +23351,8 @@
         <v>425</v>
       </c>
     </row>
-    <row r="302" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A302" s="267"/>
+    <row r="302" spans="1:5">
+      <c r="A302" s="243"/>
       <c r="B302" s="25" t="s">
         <v>440</v>
       </c>
@@ -23250,8 +23366,8 @@
         <v>425</v>
       </c>
     </row>
-    <row r="303" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A303" s="267"/>
+    <row r="303" spans="1:5">
+      <c r="A303" s="243"/>
       <c r="B303" s="25" t="s">
         <v>441</v>
       </c>
@@ -23265,8 +23381,8 @@
         <v>425</v>
       </c>
     </row>
-    <row r="304" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A304" s="267"/>
+    <row r="304" spans="1:5">
+      <c r="A304" s="243"/>
       <c r="B304" s="25" t="s">
         <v>442</v>
       </c>
@@ -23280,8 +23396,8 @@
         <v>425</v>
       </c>
     </row>
-    <row r="305" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A305" s="267"/>
+    <row r="305" spans="1:6">
+      <c r="A305" s="243"/>
       <c r="B305" s="25" t="s">
         <v>443</v>
       </c>
@@ -23295,7 +23411,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="306" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:6">
       <c r="A306" s="173" t="s">
         <v>444</v>
       </c>
@@ -23305,7 +23421,7 @@
       </c>
       <c r="D306" s="133"/>
     </row>
-    <row r="307" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:6">
       <c r="A307" s="13" t="s">
         <v>445</v>
       </c>
@@ -23325,7 +23441,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="308" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:6">
       <c r="A308" s="13" t="s">
         <v>450</v>
       </c>
@@ -23345,43 +23461,43 @@
         <v>453</v>
       </c>
     </row>
-    <row r="315" spans="1:6" s="133" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:6" s="133" customFormat="1">
       <c r="A315" s="170" t="s">
         <v>454</v>
       </c>
     </row>
-    <row r="316" spans="1:6" s="179" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:6" s="179" customFormat="1">
       <c r="A316" s="171" t="s">
         <v>455</v>
       </c>
     </row>
-    <row r="317" spans="1:6" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A317" s="268" t="s">
+    <row r="317" spans="1:6" ht="14.45" customHeight="1">
+      <c r="A317" s="233" t="s">
         <v>456</v>
       </c>
-      <c r="B317" s="269" t="s">
+      <c r="B317" s="234" t="s">
         <v>457</v>
       </c>
-      <c r="C317" s="269"/>
-      <c r="D317" s="270" t="s">
+      <c r="C317" s="234"/>
+      <c r="D317" s="235" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="318" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A318" s="268"/>
-      <c r="B318" s="271" t="s">
+    <row r="318" spans="1:6">
+      <c r="A318" s="233"/>
+      <c r="B318" s="236" t="s">
         <v>458</v>
       </c>
-      <c r="C318" s="271"/>
-      <c r="D318" s="270"/>
-    </row>
-    <row r="319" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A319" s="268"/>
-      <c r="B319" s="269" t="s">
+      <c r="C318" s="236"/>
+      <c r="D318" s="235"/>
+    </row>
+    <row r="319" spans="1:6">
+      <c r="A319" s="233"/>
+      <c r="B319" s="234" t="s">
         <v>459</v>
       </c>
-      <c r="C319" s="269"/>
-      <c r="D319" s="270"/>
+      <c r="C319" s="234"/>
+      <c r="D319" s="235"/>
       <c r="E319" s="13" t="s">
         <v>460</v>
       </c>
@@ -23389,38 +23505,38 @@
         <v>461</v>
       </c>
     </row>
-    <row r="320" spans="1:6" s="179" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:6" s="179" customFormat="1">
       <c r="A320" s="171" t="s">
         <v>462</v>
       </c>
     </row>
-    <row r="321" spans="1:6" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A321" s="268" t="s">
+    <row r="321" spans="1:6" ht="14.45" customHeight="1">
+      <c r="A321" s="233" t="s">
         <v>463</v>
       </c>
-      <c r="B321" s="269" t="s">
+      <c r="B321" s="234" t="s">
         <v>464</v>
       </c>
-      <c r="C321" s="269"/>
-      <c r="D321" s="270" t="s">
+      <c r="C321" s="234"/>
+      <c r="D321" s="235" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="322" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A322" s="268"/>
-      <c r="B322" s="271" t="s">
+    <row r="322" spans="1:6">
+      <c r="A322" s="233"/>
+      <c r="B322" s="236" t="s">
         <v>465</v>
       </c>
-      <c r="C322" s="271"/>
-      <c r="D322" s="270"/>
-    </row>
-    <row r="323" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A323" s="268"/>
-      <c r="B323" s="269" t="s">
+      <c r="C322" s="236"/>
+      <c r="D322" s="235"/>
+    </row>
+    <row r="323" spans="1:6">
+      <c r="A323" s="233"/>
+      <c r="B323" s="234" t="s">
         <v>466</v>
       </c>
-      <c r="C323" s="269"/>
-      <c r="D323" s="270"/>
+      <c r="C323" s="234"/>
+      <c r="D323" s="235"/>
       <c r="E323" s="13" t="s">
         <v>467</v>
       </c>
@@ -23428,38 +23544,38 @@
         <v>461</v>
       </c>
     </row>
-    <row r="324" spans="1:6" s="179" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:6" s="179" customFormat="1">
       <c r="A324" s="171" t="s">
         <v>468</v>
       </c>
     </row>
-    <row r="325" spans="1:6" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A325" s="268" t="s">
+    <row r="325" spans="1:6" ht="14.45" customHeight="1">
+      <c r="A325" s="233" t="s">
         <v>469</v>
       </c>
-      <c r="B325" s="269" t="s">
+      <c r="B325" s="234" t="s">
         <v>457</v>
       </c>
-      <c r="C325" s="269"/>
-      <c r="D325" s="270" t="s">
+      <c r="C325" s="234"/>
+      <c r="D325" s="235" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="326" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A326" s="268"/>
-      <c r="B326" s="271" t="s">
+    <row r="326" spans="1:6">
+      <c r="A326" s="233"/>
+      <c r="B326" s="236" t="s">
         <v>470</v>
       </c>
-      <c r="C326" s="271"/>
-      <c r="D326" s="270"/>
-    </row>
-    <row r="327" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A327" s="268"/>
-      <c r="B327" s="269" t="s">
+      <c r="C326" s="236"/>
+      <c r="D326" s="235"/>
+    </row>
+    <row r="327" spans="1:6">
+      <c r="A327" s="233"/>
+      <c r="B327" s="234" t="s">
         <v>471</v>
       </c>
-      <c r="C327" s="269"/>
-      <c r="D327" s="270"/>
+      <c r="C327" s="234"/>
+      <c r="D327" s="235"/>
       <c r="E327" s="13" t="s">
         <v>472</v>
       </c>
@@ -23469,65 +23585,87 @@
     </row>
   </sheetData>
   <mergeCells count="164">
-    <mergeCell ref="A321:A323"/>
-    <mergeCell ref="B321:C321"/>
-    <mergeCell ref="D321:D323"/>
-    <mergeCell ref="B322:C322"/>
-    <mergeCell ref="B323:C323"/>
-    <mergeCell ref="A325:A327"/>
-    <mergeCell ref="B325:C325"/>
-    <mergeCell ref="D325:D327"/>
-    <mergeCell ref="B326:C326"/>
-    <mergeCell ref="B327:C327"/>
-    <mergeCell ref="A255:D255"/>
-    <mergeCell ref="E255:F255"/>
-    <mergeCell ref="A257:A259"/>
-    <mergeCell ref="C257:C259"/>
-    <mergeCell ref="D257:D259"/>
-    <mergeCell ref="F257:F259"/>
-    <mergeCell ref="A283:C283"/>
-    <mergeCell ref="A287:A305"/>
-    <mergeCell ref="A317:A319"/>
-    <mergeCell ref="B317:C317"/>
-    <mergeCell ref="D317:D319"/>
-    <mergeCell ref="B318:C318"/>
-    <mergeCell ref="B319:C319"/>
-    <mergeCell ref="EG245:EK245"/>
-    <mergeCell ref="EL245:EP245"/>
-    <mergeCell ref="EQ245:EU245"/>
-    <mergeCell ref="EV245:EZ245"/>
-    <mergeCell ref="FA245:FE245"/>
-    <mergeCell ref="FF245:FJ245"/>
-    <mergeCell ref="FK245:FO245"/>
-    <mergeCell ref="FP245:FT245"/>
-    <mergeCell ref="FU245:FY245"/>
-    <mergeCell ref="CN245:CR245"/>
-    <mergeCell ref="CS245:CW245"/>
-    <mergeCell ref="CX245:DB245"/>
-    <mergeCell ref="DC245:DG245"/>
-    <mergeCell ref="DH245:DJ245"/>
-    <mergeCell ref="DM245:DQ245"/>
-    <mergeCell ref="DR245:DV245"/>
-    <mergeCell ref="DW245:EA245"/>
-    <mergeCell ref="EB245:EF245"/>
-    <mergeCell ref="AU245:AY245"/>
-    <mergeCell ref="AZ245:BD245"/>
-    <mergeCell ref="BE245:BI245"/>
-    <mergeCell ref="BJ245:BN245"/>
-    <mergeCell ref="BO245:BS245"/>
-    <mergeCell ref="BT245:BX245"/>
-    <mergeCell ref="BY245:CC245"/>
-    <mergeCell ref="CD245:CH245"/>
-    <mergeCell ref="CI245:CM245"/>
-    <mergeCell ref="B245:F245"/>
-    <mergeCell ref="G245:K245"/>
-    <mergeCell ref="L245:P245"/>
-    <mergeCell ref="Q245:U245"/>
-    <mergeCell ref="V245:Z245"/>
-    <mergeCell ref="AA245:AE245"/>
-    <mergeCell ref="AF245:AJ245"/>
-    <mergeCell ref="AK245:AO245"/>
-    <mergeCell ref="AP245:AT245"/>
+    <mergeCell ref="A4:A8"/>
+    <mergeCell ref="B4:B8"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="A11:A15"/>
+    <mergeCell ref="B11:B15"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="A19:A22"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:D22"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="J32:O32"/>
+    <mergeCell ref="J33:O33"/>
+    <mergeCell ref="J34:O34"/>
+    <mergeCell ref="J35:O35"/>
+    <mergeCell ref="J36:O36"/>
+    <mergeCell ref="J37:O37"/>
+    <mergeCell ref="J38:O38"/>
+    <mergeCell ref="A68:A71"/>
+    <mergeCell ref="D68:D71"/>
+    <mergeCell ref="A72:A75"/>
+    <mergeCell ref="D72:D75"/>
+    <mergeCell ref="A76:A79"/>
+    <mergeCell ref="D76:D79"/>
+    <mergeCell ref="A80:A82"/>
+    <mergeCell ref="D80:D82"/>
+    <mergeCell ref="A84:A87"/>
+    <mergeCell ref="D84:D87"/>
+    <mergeCell ref="A88:A91"/>
+    <mergeCell ref="D88:D91"/>
+    <mergeCell ref="A92:A95"/>
+    <mergeCell ref="D92:D95"/>
+    <mergeCell ref="A96:A98"/>
+    <mergeCell ref="D96:D98"/>
+    <mergeCell ref="A100:A103"/>
+    <mergeCell ref="D100:D103"/>
+    <mergeCell ref="A105:A108"/>
+    <mergeCell ref="D105:D108"/>
+    <mergeCell ref="A115:E115"/>
+    <mergeCell ref="C116:E116"/>
+    <mergeCell ref="C119:D119"/>
+    <mergeCell ref="A122:A123"/>
+    <mergeCell ref="D122:D125"/>
+    <mergeCell ref="E122:E123"/>
+    <mergeCell ref="F122:G123"/>
+    <mergeCell ref="A124:A125"/>
+    <mergeCell ref="E124:E125"/>
+    <mergeCell ref="F124:G125"/>
+    <mergeCell ref="A126:A127"/>
+    <mergeCell ref="D126:D129"/>
+    <mergeCell ref="E126:E127"/>
+    <mergeCell ref="F126:G127"/>
+    <mergeCell ref="A128:A129"/>
+    <mergeCell ref="E128:E129"/>
+    <mergeCell ref="F128:G129"/>
+    <mergeCell ref="A130:A131"/>
+    <mergeCell ref="A194:E194"/>
+    <mergeCell ref="A195:A197"/>
+    <mergeCell ref="C195:C197"/>
+    <mergeCell ref="A198:C198"/>
+    <mergeCell ref="B207:F207"/>
+    <mergeCell ref="G207:K207"/>
+    <mergeCell ref="L207:P207"/>
+    <mergeCell ref="Q207:U207"/>
+    <mergeCell ref="CS207:CW207"/>
+    <mergeCell ref="CX207:DB207"/>
+    <mergeCell ref="DC207:DG207"/>
+    <mergeCell ref="V207:Z207"/>
+    <mergeCell ref="AA207:AE207"/>
+    <mergeCell ref="AF207:AJ207"/>
+    <mergeCell ref="AK207:AO207"/>
+    <mergeCell ref="AP207:AT207"/>
+    <mergeCell ref="AU207:AY207"/>
+    <mergeCell ref="AZ207:BD207"/>
+    <mergeCell ref="BE207:BI207"/>
+    <mergeCell ref="BJ207:BN207"/>
     <mergeCell ref="FA207:FE207"/>
     <mergeCell ref="FF207:FJ207"/>
     <mergeCell ref="FK207:FO207"/>
@@ -23552,90 +23690,68 @@
     <mergeCell ref="CD207:CH207"/>
     <mergeCell ref="CI207:CM207"/>
     <mergeCell ref="CN207:CR207"/>
-    <mergeCell ref="CS207:CW207"/>
-    <mergeCell ref="CX207:DB207"/>
-    <mergeCell ref="DC207:DG207"/>
-    <mergeCell ref="V207:Z207"/>
-    <mergeCell ref="AA207:AE207"/>
-    <mergeCell ref="AF207:AJ207"/>
-    <mergeCell ref="AK207:AO207"/>
-    <mergeCell ref="AP207:AT207"/>
-    <mergeCell ref="AU207:AY207"/>
-    <mergeCell ref="AZ207:BD207"/>
-    <mergeCell ref="BE207:BI207"/>
-    <mergeCell ref="BJ207:BN207"/>
-    <mergeCell ref="A130:A131"/>
-    <mergeCell ref="A194:E194"/>
-    <mergeCell ref="A195:A197"/>
-    <mergeCell ref="C195:C197"/>
-    <mergeCell ref="A198:C198"/>
-    <mergeCell ref="B207:F207"/>
-    <mergeCell ref="G207:K207"/>
-    <mergeCell ref="L207:P207"/>
-    <mergeCell ref="Q207:U207"/>
-    <mergeCell ref="F122:G123"/>
-    <mergeCell ref="A124:A125"/>
-    <mergeCell ref="E124:E125"/>
-    <mergeCell ref="F124:G125"/>
-    <mergeCell ref="A126:A127"/>
-    <mergeCell ref="D126:D129"/>
-    <mergeCell ref="E126:E127"/>
-    <mergeCell ref="F126:G127"/>
-    <mergeCell ref="A128:A129"/>
-    <mergeCell ref="E128:E129"/>
-    <mergeCell ref="F128:G129"/>
-    <mergeCell ref="A100:A103"/>
-    <mergeCell ref="D100:D103"/>
-    <mergeCell ref="A105:A108"/>
-    <mergeCell ref="D105:D108"/>
-    <mergeCell ref="A115:E115"/>
-    <mergeCell ref="C116:E116"/>
-    <mergeCell ref="C119:D119"/>
-    <mergeCell ref="A122:A123"/>
-    <mergeCell ref="D122:D125"/>
-    <mergeCell ref="E122:E123"/>
-    <mergeCell ref="A80:A82"/>
-    <mergeCell ref="D80:D82"/>
-    <mergeCell ref="A84:A87"/>
-    <mergeCell ref="D84:D87"/>
-    <mergeCell ref="A88:A91"/>
-    <mergeCell ref="D88:D91"/>
-    <mergeCell ref="A92:A95"/>
-    <mergeCell ref="D92:D95"/>
-    <mergeCell ref="A96:A98"/>
-    <mergeCell ref="D96:D98"/>
-    <mergeCell ref="J35:O35"/>
-    <mergeCell ref="J36:O36"/>
-    <mergeCell ref="J37:O37"/>
-    <mergeCell ref="J38:O38"/>
-    <mergeCell ref="A68:A71"/>
-    <mergeCell ref="D68:D71"/>
-    <mergeCell ref="A72:A75"/>
-    <mergeCell ref="D72:D75"/>
-    <mergeCell ref="A76:A79"/>
-    <mergeCell ref="D76:D79"/>
-    <mergeCell ref="A19:A22"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:D22"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="J32:O32"/>
-    <mergeCell ref="J33:O33"/>
-    <mergeCell ref="J34:O34"/>
-    <mergeCell ref="A4:A8"/>
-    <mergeCell ref="B4:B8"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="A11:A15"/>
-    <mergeCell ref="B11:B15"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="B245:F245"/>
+    <mergeCell ref="G245:K245"/>
+    <mergeCell ref="L245:P245"/>
+    <mergeCell ref="Q245:U245"/>
+    <mergeCell ref="V245:Z245"/>
+    <mergeCell ref="AA245:AE245"/>
+    <mergeCell ref="AF245:AJ245"/>
+    <mergeCell ref="AK245:AO245"/>
+    <mergeCell ref="AP245:AT245"/>
+    <mergeCell ref="AU245:AY245"/>
+    <mergeCell ref="AZ245:BD245"/>
+    <mergeCell ref="BE245:BI245"/>
+    <mergeCell ref="BJ245:BN245"/>
+    <mergeCell ref="BO245:BS245"/>
+    <mergeCell ref="BT245:BX245"/>
+    <mergeCell ref="BY245:CC245"/>
+    <mergeCell ref="CD245:CH245"/>
+    <mergeCell ref="CI245:CM245"/>
+    <mergeCell ref="CN245:CR245"/>
+    <mergeCell ref="CS245:CW245"/>
+    <mergeCell ref="CX245:DB245"/>
+    <mergeCell ref="DC245:DG245"/>
+    <mergeCell ref="DH245:DJ245"/>
+    <mergeCell ref="DM245:DQ245"/>
+    <mergeCell ref="DR245:DV245"/>
+    <mergeCell ref="DW245:EA245"/>
+    <mergeCell ref="EB245:EF245"/>
+    <mergeCell ref="EG245:EK245"/>
+    <mergeCell ref="EL245:EP245"/>
+    <mergeCell ref="EQ245:EU245"/>
+    <mergeCell ref="EV245:EZ245"/>
+    <mergeCell ref="FA245:FE245"/>
+    <mergeCell ref="FF245:FJ245"/>
+    <mergeCell ref="FK245:FO245"/>
+    <mergeCell ref="FP245:FT245"/>
+    <mergeCell ref="FU245:FY245"/>
+    <mergeCell ref="A255:D255"/>
+    <mergeCell ref="E255:F255"/>
+    <mergeCell ref="A257:A259"/>
+    <mergeCell ref="C257:C259"/>
+    <mergeCell ref="D257:D259"/>
+    <mergeCell ref="F257:F259"/>
+    <mergeCell ref="A283:C283"/>
+    <mergeCell ref="A287:A305"/>
+    <mergeCell ref="A317:A319"/>
+    <mergeCell ref="B317:C317"/>
+    <mergeCell ref="D317:D319"/>
+    <mergeCell ref="B318:C318"/>
+    <mergeCell ref="B319:C319"/>
+    <mergeCell ref="A321:A323"/>
+    <mergeCell ref="B321:C321"/>
+    <mergeCell ref="D321:D323"/>
+    <mergeCell ref="B322:C322"/>
+    <mergeCell ref="B323:C323"/>
+    <mergeCell ref="A325:A327"/>
+    <mergeCell ref="B325:C325"/>
+    <mergeCell ref="D325:D327"/>
+    <mergeCell ref="B326:C326"/>
+    <mergeCell ref="B327:C327"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Error" error="Energy intensity per sector is selected" sqref="B227:K238" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Error" error="Energy intensity per sector is selected" sqref="B227:K238">
       <formula1>#REF!=0</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -23647,17 +23763,17 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
   <dimension ref="A1:DP346"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A221" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="A264" sqref="A264:B264"/>
+    <sheetView tabSelected="1" topLeftCell="B76" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E104" sqref="E104"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="48.7109375" customWidth="1"/>
     <col min="2" max="2" width="37.42578125" customWidth="1"/>
@@ -23672,7 +23788,7 @@
     <col min="12" max="12" width="35.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:41" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:41" ht="31.5">
       <c r="A1" s="7" t="s">
         <v>473</v>
       </c>
@@ -23680,7 +23796,7 @@
       <c r="D1" s="20"/>
       <c r="E1" s="180"/>
     </row>
-    <row r="2" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:41">
       <c r="A2" s="10" t="s">
         <v>9</v>
       </c>
@@ -23725,7 +23841,7 @@
       <c r="AN2" s="11"/>
       <c r="AO2" s="11"/>
     </row>
-    <row r="3" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:41">
       <c r="A3" s="181" t="s">
         <v>10</v>
       </c>
@@ -23745,11 +23861,11 @@
         <v>0.40700950000000002</v>
       </c>
     </row>
-    <row r="4" spans="1:41" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="231" t="s">
+    <row r="4" spans="1:41" s="20" customFormat="1">
+      <c r="A4" s="266" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="232">
+      <c r="B4" s="267">
         <v>0</v>
       </c>
       <c r="C4" s="21" t="s">
@@ -23759,10 +23875,10 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A5" s="231"/>
-      <c r="B5" s="232"/>
-      <c r="C5" s="233" t="s">
+    <row r="5" spans="1:41">
+      <c r="A5" s="266"/>
+      <c r="B5" s="267"/>
+      <c r="C5" s="268" t="s">
         <v>18</v>
       </c>
       <c r="D5" s="24" t="s">
@@ -23880,10 +23996,10 @@
         <v>2051</v>
       </c>
     </row>
-    <row r="6" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A6" s="231"/>
-      <c r="B6" s="232"/>
-      <c r="C6" s="233"/>
+    <row r="6" spans="1:41">
+      <c r="A6" s="266"/>
+      <c r="B6" s="267"/>
+      <c r="C6" s="268"/>
       <c r="D6" s="24" t="s">
         <v>20</v>
       </c>
@@ -23999,16 +24115,16 @@
         <v>1.9E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A7" s="231"/>
-      <c r="B7" s="232"/>
+    <row r="7" spans="1:41">
+      <c r="A7" s="266"/>
+      <c r="B7" s="267"/>
       <c r="C7" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="D7" s="234" t="s">
+      <c r="D7" s="269" t="s">
         <v>23</v>
       </c>
-      <c r="E7" s="235">
+      <c r="E7" s="270">
         <v>2020</v>
       </c>
       <c r="F7" s="13" t="s">
@@ -24052,14 +24168,14 @@
       <c r="AN7" s="18"/>
       <c r="AO7" s="18"/>
     </row>
-    <row r="8" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A8" s="231"/>
-      <c r="B8" s="232"/>
+    <row r="8" spans="1:41">
+      <c r="A8" s="266"/>
+      <c r="B8" s="267"/>
       <c r="C8" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="D8" s="234"/>
-      <c r="E8" s="235"/>
+      <c r="D8" s="269"/>
+      <c r="E8" s="270"/>
       <c r="F8" s="13" t="s">
         <v>28</v>
       </c>
@@ -24105,7 +24221,7 @@
       <c r="AN8" s="28"/>
       <c r="AO8" s="28"/>
     </row>
-    <row r="9" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:41">
       <c r="A9" s="28"/>
       <c r="B9" s="28"/>
       <c r="C9" s="28"/>
@@ -24148,7 +24264,7 @@
       <c r="AN9" s="28"/>
       <c r="AO9" s="28"/>
     </row>
-    <row r="10" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:41">
       <c r="A10" s="29" t="s">
         <v>31</v>
       </c>
@@ -24193,11 +24309,11 @@
       <c r="AN10" s="11"/>
       <c r="AO10" s="11"/>
     </row>
-    <row r="11" spans="1:41" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="236" t="s">
+    <row r="11" spans="1:41" s="20" customFormat="1">
+      <c r="A11" s="271" t="s">
         <v>32</v>
       </c>
-      <c r="B11" s="237">
+      <c r="B11" s="272">
         <v>0</v>
       </c>
       <c r="C11" s="30" t="s">
@@ -24244,10 +24360,10 @@
       <c r="AN11" s="9"/>
       <c r="AO11" s="9"/>
     </row>
-    <row r="12" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A12" s="236"/>
-      <c r="B12" s="237"/>
-      <c r="C12" s="233" t="s">
+    <row r="12" spans="1:41">
+      <c r="A12" s="271"/>
+      <c r="B12" s="272"/>
+      <c r="C12" s="268" t="s">
         <v>18</v>
       </c>
       <c r="D12" s="24" t="s">
@@ -24365,10 +24481,10 @@
         <v>2051</v>
       </c>
     </row>
-    <row r="13" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A13" s="236"/>
-      <c r="B13" s="237"/>
-      <c r="C13" s="233"/>
+    <row r="13" spans="1:41">
+      <c r="A13" s="271"/>
+      <c r="B13" s="272"/>
+      <c r="C13" s="268"/>
       <c r="D13" s="24" t="s">
         <v>20</v>
       </c>
@@ -24484,16 +24600,16 @@
         <v>3.7000000000000002E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A14" s="236"/>
-      <c r="B14" s="237"/>
+    <row r="14" spans="1:41">
+      <c r="A14" s="271"/>
+      <c r="B14" s="272"/>
       <c r="C14" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="D14" s="238" t="s">
+      <c r="D14" s="273" t="s">
         <v>23</v>
       </c>
-      <c r="E14" s="275">
+      <c r="E14" s="289">
         <v>2020</v>
       </c>
       <c r="F14" s="13" t="s">
@@ -24503,14 +24619,14 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A15" s="236"/>
-      <c r="B15" s="237"/>
+    <row r="15" spans="1:41">
+      <c r="A15" s="271"/>
+      <c r="B15" s="272"/>
       <c r="C15" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="D15" s="238"/>
-      <c r="E15" s="275"/>
+      <c r="D15" s="273"/>
+      <c r="E15" s="289"/>
       <c r="F15" s="13" t="s">
         <v>39</v>
       </c>
@@ -24524,12 +24640,12 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="17" spans="1:41" s="28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:41" s="28" customFormat="1">
       <c r="A17" s="36"/>
       <c r="C17" s="37"/>
       <c r="D17" s="36"/>
     </row>
-    <row r="18" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:41">
       <c r="A18" s="182" t="s">
         <v>41</v>
       </c>
@@ -24574,15 +24690,15 @@
       <c r="AN18" s="40"/>
       <c r="AO18" s="40"/>
     </row>
-    <row r="19" spans="1:41" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="239" t="s">
+    <row r="19" spans="1:41" ht="14.45" customHeight="1">
+      <c r="A19" s="264" t="s">
         <v>42</v>
       </c>
-      <c r="B19" s="240" t="s">
+      <c r="B19" s="265" t="s">
         <v>43</v>
       </c>
-      <c r="C19" s="240"/>
-      <c r="D19" s="245">
+      <c r="C19" s="265"/>
+      <c r="D19" s="247">
         <v>1</v>
       </c>
       <c r="E19" s="43"/>
@@ -24622,13 +24738,13 @@
       <c r="AN19" s="14"/>
       <c r="AO19" s="14"/>
     </row>
-    <row r="20" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A20" s="239"/>
-      <c r="B20" s="240" t="s">
+    <row r="20" spans="1:41">
+      <c r="A20" s="264"/>
+      <c r="B20" s="265" t="s">
         <v>45</v>
       </c>
-      <c r="C20" s="240"/>
-      <c r="D20" s="245"/>
+      <c r="C20" s="265"/>
+      <c r="D20" s="247"/>
       <c r="E20" s="43"/>
       <c r="F20" s="43"/>
       <c r="G20" s="44"/>
@@ -24666,13 +24782,13 @@
       <c r="AN20" s="14"/>
       <c r="AO20" s="14"/>
     </row>
-    <row r="21" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A21" s="239"/>
-      <c r="B21" s="240" t="s">
+    <row r="21" spans="1:41">
+      <c r="A21" s="264"/>
+      <c r="B21" s="265" t="s">
         <v>46</v>
       </c>
-      <c r="C21" s="240"/>
-      <c r="D21" s="245"/>
+      <c r="C21" s="265"/>
+      <c r="D21" s="247"/>
       <c r="E21" s="43"/>
       <c r="F21" s="43"/>
       <c r="G21" s="44"/>
@@ -24710,13 +24826,13 @@
       <c r="AN21" s="14"/>
       <c r="AO21" s="14"/>
     </row>
-    <row r="22" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A22" s="239"/>
-      <c r="B22" s="240" t="s">
+    <row r="22" spans="1:41">
+      <c r="A22" s="264"/>
+      <c r="B22" s="265" t="s">
         <v>47</v>
       </c>
-      <c r="C22" s="240"/>
-      <c r="D22" s="245"/>
+      <c r="C22" s="265"/>
+      <c r="D22" s="247"/>
       <c r="E22" s="48" t="s">
         <v>48</v>
       </c>
@@ -24760,13 +24876,7 @@
       <c r="AN22" s="14"/>
       <c r="AO22" s="14"/>
     </row>
-    <row r="23" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A23" s="38" t="s">
-        <v>52</v>
-      </c>
-      <c r="B23" s="39"/>
-      <c r="C23" s="39"/>
-      <c r="D23" s="39"/>
+    <row r="23" spans="1:41">
       <c r="E23" s="38" t="s">
         <v>53</v>
       </c>
@@ -24807,17 +24917,7 @@
       <c r="AN23" s="39"/>
       <c r="AO23" s="39"/>
     </row>
-    <row r="24" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="B24" s="54" t="s">
-        <v>55</v>
-      </c>
-      <c r="C24" s="15">
-        <v>0.05</v>
-      </c>
-      <c r="D24" s="56"/>
+    <row r="24" spans="1:41" ht="15" customHeight="1">
       <c r="E24" s="13" t="s">
         <v>57</v>
       </c>
@@ -24867,17 +24967,7 @@
       <c r="AN24" s="14"/>
       <c r="AO24" s="14"/>
     </row>
-    <row r="25" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A25" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="B25" s="54" t="s">
-        <v>61</v>
-      </c>
-      <c r="C25" s="15">
-        <v>1.9800000000000002E-2</v>
-      </c>
-      <c r="D25" s="56"/>
+    <row r="25" spans="1:41">
       <c r="E25" s="13" t="s">
         <v>63</v>
       </c>
@@ -24918,17 +25008,7 @@
       <c r="AN25" s="14"/>
       <c r="AO25" s="14"/>
     </row>
-    <row r="26" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A26" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="B26" s="54" t="s">
-        <v>55</v>
-      </c>
-      <c r="C26" s="15">
-        <v>1.38E-2</v>
-      </c>
-      <c r="D26" s="56"/>
+    <row r="26" spans="1:41">
       <c r="E26" s="13" t="s">
         <v>66</v>
       </c>
@@ -24970,17 +25050,7 @@
       <c r="AN26" s="14"/>
       <c r="AO26" s="14"/>
     </row>
-    <row r="27" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A27" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="B27" s="54" t="s">
-        <v>55</v>
-      </c>
-      <c r="C27" s="15">
-        <v>1.1000000000000001E-3</v>
-      </c>
-      <c r="D27" s="56"/>
+    <row r="27" spans="1:41">
       <c r="E27" s="38" t="s">
         <v>69</v>
       </c>
@@ -25018,17 +25088,7 @@
       <c r="AN27" s="14"/>
       <c r="AO27" s="14"/>
     </row>
-    <row r="28" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A28" s="13" t="s">
-        <v>70</v>
-      </c>
-      <c r="B28" s="54" t="s">
-        <v>55</v>
-      </c>
-      <c r="C28" s="15">
-        <v>0.1</v>
-      </c>
-      <c r="D28" s="56"/>
+    <row r="28" spans="1:41">
       <c r="E28" s="13" t="s">
         <v>72</v>
       </c>
@@ -25070,17 +25130,7 @@
       <c r="AN28" s="14"/>
       <c r="AO28" s="14"/>
     </row>
-    <row r="29" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A29" s="13" t="s">
-        <v>73</v>
-      </c>
-      <c r="B29" s="54" t="s">
-        <v>55</v>
-      </c>
-      <c r="C29" s="15">
-        <v>0.1</v>
-      </c>
-      <c r="D29" s="56"/>
+    <row r="29" spans="1:41">
       <c r="E29" s="13" t="s">
         <v>75</v>
       </c>
@@ -25122,11 +25172,7 @@
       <c r="AN29" s="14"/>
       <c r="AO29" s="14"/>
     </row>
-    <row r="30" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A30" s="57"/>
-      <c r="B30" s="183"/>
-      <c r="C30" s="183"/>
-      <c r="D30" s="68"/>
+    <row r="30" spans="1:41">
       <c r="E30" s="13" t="s">
         <v>76</v>
       </c>
@@ -25168,7 +25214,7 @@
       <c r="AN30" s="14"/>
       <c r="AO30" s="14"/>
     </row>
-    <row r="31" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:41">
       <c r="A31" s="38" t="s">
         <v>77</v>
       </c>
@@ -25213,7 +25259,7 @@
       <c r="AN31" s="39"/>
       <c r="AO31" s="39"/>
     </row>
-    <row r="32" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:41">
       <c r="A32" s="13" t="s">
         <v>79</v>
       </c>
@@ -25265,7 +25311,7 @@
       <c r="AN32" s="14"/>
       <c r="AO32" s="14"/>
     </row>
-    <row r="33" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:41">
       <c r="A33" s="13" t="s">
         <v>85</v>
       </c>
@@ -25317,7 +25363,7 @@
       <c r="AN33" s="14"/>
       <c r="AO33" s="14"/>
     </row>
-    <row r="34" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:41">
       <c r="A34" s="13" t="s">
         <v>89</v>
       </c>
@@ -25363,7 +25409,7 @@
       <c r="AN34" s="14"/>
       <c r="AO34" s="14"/>
     </row>
-    <row r="35" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:41">
       <c r="A35" s="13" t="s">
         <v>91</v>
       </c>
@@ -25415,7 +25461,7 @@
       <c r="AN35" s="14"/>
       <c r="AO35" s="14"/>
     </row>
-    <row r="36" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:41">
       <c r="A36" s="13" t="s">
         <v>93</v>
       </c>
@@ -25461,7 +25507,7 @@
       <c r="AN36" s="14"/>
       <c r="AO36" s="14"/>
     </row>
-    <row r="37" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:41">
       <c r="A37" s="13" t="s">
         <v>95</v>
       </c>
@@ -25510,7 +25556,7 @@
       <c r="AN37" s="14"/>
       <c r="AO37" s="14"/>
     </row>
-    <row r="38" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:41">
       <c r="A38" s="13" t="s">
         <v>99</v>
       </c>
@@ -25562,7 +25608,7 @@
       <c r="AN38" s="14"/>
       <c r="AO38" s="14"/>
     </row>
-    <row r="39" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:41">
       <c r="A39" s="72" t="s">
         <v>103</v>
       </c>
@@ -25607,7 +25653,7 @@
       <c r="AN39" s="39"/>
       <c r="AO39" s="39"/>
     </row>
-    <row r="40" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:41">
       <c r="A40" s="63"/>
       <c r="B40" s="63"/>
       <c r="C40" s="183"/>
@@ -25650,7 +25696,7 @@
       <c r="AN40" s="14"/>
       <c r="AO40" s="14"/>
     </row>
-    <row r="41" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:41">
       <c r="A41" s="13" t="s">
         <v>104</v>
       </c>
@@ -25699,7 +25745,7 @@
       <c r="AN41" s="14"/>
       <c r="AO41" s="14"/>
     </row>
-    <row r="42" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:41">
       <c r="A42" s="13" t="s">
         <v>107</v>
       </c>
@@ -25748,7 +25794,7 @@
       <c r="AN42" s="14"/>
       <c r="AO42" s="14"/>
     </row>
-    <row r="43" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:41">
       <c r="A43" s="13" t="s">
         <v>110</v>
       </c>
@@ -25794,7 +25840,7 @@
       <c r="AN43" s="14"/>
       <c r="AO43" s="14"/>
     </row>
-    <row r="44" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:41">
       <c r="A44" s="72" t="s">
         <v>112</v>
       </c>
@@ -25839,7 +25885,7 @@
       <c r="AN44" s="14"/>
       <c r="AO44" s="14"/>
     </row>
-    <row r="45" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:41">
       <c r="A45" s="76" t="s">
         <v>113</v>
       </c>
@@ -25894,7 +25940,7 @@
       <c r="AN45" s="14"/>
       <c r="AO45" s="14"/>
     </row>
-    <row r="46" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:41">
       <c r="A46" s="13" t="s">
         <v>117</v>
       </c>
@@ -25949,7 +25995,7 @@
       <c r="AN46" s="14"/>
       <c r="AO46" s="14"/>
     </row>
-    <row r="47" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:41">
       <c r="A47" s="13" t="s">
         <v>120</v>
       </c>
@@ -25995,7 +26041,7 @@
       <c r="AN47" s="14"/>
       <c r="AO47" s="14"/>
     </row>
-    <row r="48" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:41">
       <c r="A48" s="13" t="s">
         <v>121</v>
       </c>
@@ -26041,7 +26087,7 @@
       <c r="AN48" s="14"/>
       <c r="AO48" s="14"/>
     </row>
-    <row r="49" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:41">
       <c r="A49" s="13" t="s">
         <v>123</v>
       </c>
@@ -26087,7 +26133,7 @@
       <c r="AN49" s="14"/>
       <c r="AO49" s="14"/>
     </row>
-    <row r="50" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:41">
       <c r="A50" s="13" t="s">
         <v>125</v>
       </c>
@@ -26136,7 +26182,7 @@
       <c r="AN50" s="14"/>
       <c r="AO50" s="14"/>
     </row>
-    <row r="51" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:41">
       <c r="A51" s="38" t="s">
         <v>126</v>
       </c>
@@ -26183,7 +26229,7 @@
       <c r="AN51" s="39"/>
       <c r="AO51" s="39"/>
     </row>
-    <row r="52" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:41">
       <c r="A52" s="13" t="s">
         <v>128</v>
       </c>
@@ -26238,7 +26284,7 @@
       <c r="AN52" s="14"/>
       <c r="AO52" s="14"/>
     </row>
-    <row r="53" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:41">
       <c r="A53" s="13" t="s">
         <v>133</v>
       </c>
@@ -26293,7 +26339,7 @@
       <c r="AN53" s="14"/>
       <c r="AO53" s="14"/>
     </row>
-    <row r="54" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:41">
       <c r="A54" s="38" t="s">
         <v>135</v>
       </c>
@@ -26338,7 +26384,7 @@
       <c r="AN54" s="39"/>
       <c r="AO54" s="39"/>
     </row>
-    <row r="55" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:41">
       <c r="A55" s="13"/>
       <c r="B55" s="54"/>
       <c r="C55" s="15"/>
@@ -26381,7 +26427,7 @@
       <c r="AN55" s="14"/>
       <c r="AO55" s="14"/>
     </row>
-    <row r="56" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:41">
       <c r="A56" s="13" t="s">
         <v>138</v>
       </c>
@@ -26426,7 +26472,7 @@
       <c r="AN56" s="14"/>
       <c r="AO56" s="14"/>
     </row>
-    <row r="57" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:41">
       <c r="A57" s="38" t="s">
         <v>140</v>
       </c>
@@ -26471,7 +26517,7 @@
       <c r="AN57" s="39"/>
       <c r="AO57" s="39"/>
     </row>
-    <row r="58" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:41">
       <c r="A58" s="13" t="s">
         <v>141</v>
       </c>
@@ -26520,7 +26566,7 @@
       <c r="AN58" s="73"/>
       <c r="AO58" s="73"/>
     </row>
-    <row r="59" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:41">
       <c r="A59" s="13" t="s">
         <v>143</v>
       </c>
@@ -26569,7 +26615,7 @@
       <c r="AN59" s="73"/>
       <c r="AO59" s="73"/>
     </row>
-    <row r="60" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:41">
       <c r="A60" s="13" t="s">
         <v>144</v>
       </c>
@@ -26618,7 +26664,7 @@
       <c r="AN60" s="73"/>
       <c r="AO60" s="73"/>
     </row>
-    <row r="61" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:41">
       <c r="A61" s="13" t="s">
         <v>145</v>
       </c>
@@ -26667,7 +26713,7 @@
       <c r="AN61" s="14"/>
       <c r="AO61" s="14"/>
     </row>
-    <row r="62" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:41">
       <c r="A62" s="13" t="s">
         <v>146</v>
       </c>
@@ -26716,7 +26762,7 @@
       <c r="AN62" s="14"/>
       <c r="AO62" s="14"/>
     </row>
-    <row r="63" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:41">
       <c r="A63" s="13"/>
       <c r="B63" s="25"/>
       <c r="C63" s="145"/>
@@ -26759,7 +26805,7 @@
       <c r="AN63" s="14"/>
       <c r="AO63" s="14"/>
     </row>
-    <row r="64" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:41">
       <c r="A64" s="82" t="s">
         <v>147</v>
       </c>
@@ -26804,7 +26850,7 @@
       <c r="AN64" s="39"/>
       <c r="AO64" s="39"/>
     </row>
-    <row r="65" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:41">
       <c r="A65" s="13" t="s">
         <v>148</v>
       </c>
@@ -26851,7 +26897,7 @@
       <c r="AN65" s="14"/>
       <c r="AO65" s="14"/>
     </row>
-    <row r="66" spans="1:41" s="20" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:41" s="20" customFormat="1">
       <c r="A66" s="90" t="s">
         <v>150</v>
       </c>
@@ -26900,7 +26946,7 @@
       <c r="AN66" s="39"/>
       <c r="AO66" s="39"/>
     </row>
-    <row r="67" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:41">
       <c r="A67" s="91" t="s">
         <v>151</v>
       </c>
@@ -26953,11 +26999,11 @@
       <c r="AN67" s="65"/>
       <c r="AO67" s="65"/>
     </row>
-    <row r="68" spans="1:41" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="274"/>
+    <row r="68" spans="1:41" ht="14.45" customHeight="1">
+      <c r="A68" s="288"/>
       <c r="B68" s="221"/>
       <c r="C68" s="221"/>
-      <c r="D68" s="274"/>
+      <c r="D68" s="288"/>
       <c r="H68" s="14"/>
       <c r="I68" s="14"/>
       <c r="J68" s="14"/>
@@ -26993,11 +27039,11 @@
       <c r="AN68" s="14"/>
       <c r="AO68" s="14"/>
     </row>
-    <row r="69" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A69" s="274"/>
+    <row r="69" spans="1:41">
+      <c r="A69" s="288"/>
       <c r="B69" s="221"/>
       <c r="C69" s="221"/>
-      <c r="D69" s="274"/>
+      <c r="D69" s="288"/>
       <c r="H69" s="14"/>
       <c r="I69" s="14"/>
       <c r="J69" s="14"/>
@@ -27033,11 +27079,11 @@
       <c r="AN69" s="14"/>
       <c r="AO69" s="14"/>
     </row>
-    <row r="70" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A70" s="274"/>
+    <row r="70" spans="1:41">
+      <c r="A70" s="288"/>
       <c r="B70" s="221"/>
       <c r="C70" s="221"/>
-      <c r="D70" s="274"/>
+      <c r="D70" s="288"/>
       <c r="H70" s="14"/>
       <c r="I70" s="14"/>
       <c r="J70" s="14"/>
@@ -27073,11 +27119,11 @@
       <c r="AN70" s="14"/>
       <c r="AO70" s="14"/>
     </row>
-    <row r="71" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A71" s="274"/>
+    <row r="71" spans="1:41">
+      <c r="A71" s="288"/>
       <c r="B71" s="221"/>
       <c r="C71" s="221"/>
-      <c r="D71" s="274"/>
+      <c r="D71" s="288"/>
       <c r="H71" s="14"/>
       <c r="I71" s="14"/>
       <c r="J71" s="14"/>
@@ -27113,11 +27159,11 @@
       <c r="AN71" s="14"/>
       <c r="AO71" s="14"/>
     </row>
-    <row r="72" spans="1:41" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="274"/>
+    <row r="72" spans="1:41" ht="14.45" customHeight="1">
+      <c r="A72" s="288"/>
       <c r="B72" s="221"/>
       <c r="C72" s="221"/>
-      <c r="D72" s="274"/>
+      <c r="D72" s="288"/>
       <c r="H72" s="14"/>
       <c r="I72" s="14"/>
       <c r="J72" s="14"/>
@@ -27153,11 +27199,11 @@
       <c r="AN72" s="14"/>
       <c r="AO72" s="14"/>
     </row>
-    <row r="73" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A73" s="274"/>
+    <row r="73" spans="1:41">
+      <c r="A73" s="288"/>
       <c r="B73" s="221"/>
       <c r="C73" s="221"/>
-      <c r="D73" s="274"/>
+      <c r="D73" s="288"/>
       <c r="H73" s="14"/>
       <c r="I73" s="14"/>
       <c r="J73" s="14"/>
@@ -27193,11 +27239,11 @@
       <c r="AN73" s="14"/>
       <c r="AO73" s="14"/>
     </row>
-    <row r="74" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A74" s="274"/>
+    <row r="74" spans="1:41">
+      <c r="A74" s="288"/>
       <c r="B74" s="221"/>
       <c r="C74" s="221"/>
-      <c r="D74" s="274"/>
+      <c r="D74" s="288"/>
       <c r="E74" s="14"/>
       <c r="F74" s="14"/>
       <c r="G74" s="14"/>
@@ -27236,11 +27282,11 @@
       <c r="AN74" s="14"/>
       <c r="AO74" s="14"/>
     </row>
-    <row r="75" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A75" s="274"/>
+    <row r="75" spans="1:41">
+      <c r="A75" s="288"/>
       <c r="B75" s="221"/>
       <c r="C75" s="221"/>
-      <c r="D75" s="274"/>
+      <c r="D75" s="288"/>
       <c r="E75" s="14"/>
       <c r="F75" s="14"/>
       <c r="G75" s="14"/>
@@ -27279,11 +27325,11 @@
       <c r="AN75" s="14"/>
       <c r="AO75" s="14"/>
     </row>
-    <row r="76" spans="1:41" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="274"/>
+    <row r="76" spans="1:41" ht="14.45" customHeight="1">
+      <c r="A76" s="288"/>
       <c r="B76" s="221"/>
       <c r="C76" s="221"/>
-      <c r="D76" s="274"/>
+      <c r="D76" s="288"/>
       <c r="E76" s="14"/>
       <c r="F76" s="14"/>
       <c r="G76" s="14"/>
@@ -27322,11 +27368,11 @@
       <c r="AN76" s="14"/>
       <c r="AO76" s="14"/>
     </row>
-    <row r="77" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A77" s="274"/>
+    <row r="77" spans="1:41">
+      <c r="A77" s="288"/>
       <c r="B77" s="221"/>
       <c r="C77" s="221"/>
-      <c r="D77" s="274"/>
+      <c r="D77" s="288"/>
       <c r="E77" s="14"/>
       <c r="F77" s="14"/>
       <c r="G77" s="14"/>
@@ -27365,11 +27411,11 @@
       <c r="AN77" s="14"/>
       <c r="AO77" s="14"/>
     </row>
-    <row r="78" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A78" s="274"/>
+    <row r="78" spans="1:41">
+      <c r="A78" s="288"/>
       <c r="B78" s="221"/>
       <c r="C78" s="221"/>
-      <c r="D78" s="274"/>
+      <c r="D78" s="288"/>
       <c r="E78" s="14"/>
       <c r="F78" s="14"/>
       <c r="G78" s="14"/>
@@ -27408,11 +27454,11 @@
       <c r="AN78" s="14"/>
       <c r="AO78" s="14"/>
     </row>
-    <row r="79" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A79" s="274"/>
+    <row r="79" spans="1:41">
+      <c r="A79" s="288"/>
       <c r="B79" s="221"/>
       <c r="C79" s="221"/>
-      <c r="D79" s="274"/>
+      <c r="D79" s="288"/>
       <c r="E79" s="14"/>
       <c r="F79" s="14"/>
       <c r="G79" s="14"/>
@@ -27451,8 +27497,8 @@
       <c r="AN79" s="14"/>
       <c r="AO79" s="14"/>
     </row>
-    <row r="80" spans="1:41" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="243" t="s">
+    <row r="80" spans="1:41" ht="14.45" customHeight="1">
+      <c r="A80" s="256" t="s">
         <v>170</v>
       </c>
       <c r="B80" s="98" t="s">
@@ -27461,7 +27507,7 @@
       <c r="C80" s="189">
         <v>4.4999999999999998E-2</v>
       </c>
-      <c r="D80" s="274"/>
+      <c r="D80" s="288"/>
       <c r="E80" s="14"/>
       <c r="F80" s="14"/>
       <c r="G80" s="14"/>
@@ -27500,11 +27546,11 @@
       <c r="AN80" s="14"/>
       <c r="AO80" s="14"/>
     </row>
-    <row r="81" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A81" s="243"/>
+    <row r="81" spans="1:41">
+      <c r="A81" s="256"/>
       <c r="B81" s="100"/>
       <c r="C81" s="101"/>
-      <c r="D81" s="274"/>
+      <c r="D81" s="288"/>
       <c r="E81" s="14"/>
       <c r="F81" s="14"/>
       <c r="G81" s="14"/>
@@ -27543,11 +27589,11 @@
       <c r="AN81" s="14"/>
       <c r="AO81" s="14"/>
     </row>
-    <row r="82" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A82" s="243"/>
+    <row r="82" spans="1:41">
+      <c r="A82" s="256"/>
       <c r="B82" s="102"/>
       <c r="C82" s="103"/>
-      <c r="D82" s="274"/>
+      <c r="D82" s="288"/>
       <c r="E82" s="14"/>
       <c r="F82" s="14"/>
       <c r="G82" s="14"/>
@@ -27586,7 +27632,7 @@
       <c r="AN82" s="14"/>
       <c r="AO82" s="14"/>
     </row>
-    <row r="83" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:41">
       <c r="A83" s="104" t="s">
         <v>175</v>
       </c>
@@ -27640,13 +27686,13 @@
       <c r="AN83" s="39"/>
       <c r="AO83" s="39"/>
     </row>
-    <row r="84" spans="1:41" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="243" t="s">
+    <row r="84" spans="1:41" ht="14.45" customHeight="1">
+      <c r="A84" s="256" t="s">
         <v>180</v>
       </c>
       <c r="B84" s="221"/>
       <c r="C84" s="221"/>
-      <c r="D84" s="274"/>
+      <c r="D84" s="288"/>
       <c r="H84" s="14"/>
       <c r="I84" s="14"/>
       <c r="J84" s="14"/>
@@ -27682,11 +27728,11 @@
       <c r="AN84" s="14"/>
       <c r="AO84" s="14"/>
     </row>
-    <row r="85" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A85" s="243"/>
+    <row r="85" spans="1:41">
+      <c r="A85" s="256"/>
       <c r="B85" s="221"/>
       <c r="C85" s="221"/>
-      <c r="D85" s="274"/>
+      <c r="D85" s="288"/>
       <c r="H85" s="14"/>
       <c r="I85" s="14"/>
       <c r="J85" s="14"/>
@@ -27722,11 +27768,11 @@
       <c r="AN85" s="14"/>
       <c r="AO85" s="14"/>
     </row>
-    <row r="86" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A86" s="243"/>
+    <row r="86" spans="1:41">
+      <c r="A86" s="256"/>
       <c r="B86" s="221"/>
       <c r="C86" s="221"/>
-      <c r="D86" s="274"/>
+      <c r="D86" s="288"/>
       <c r="H86" s="14"/>
       <c r="I86" s="14"/>
       <c r="J86" s="14"/>
@@ -27762,11 +27808,11 @@
       <c r="AN86" s="14"/>
       <c r="AO86" s="14"/>
     </row>
-    <row r="87" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A87" s="243"/>
+    <row r="87" spans="1:41">
+      <c r="A87" s="256"/>
       <c r="B87" s="221"/>
       <c r="C87" s="221"/>
-      <c r="D87" s="274"/>
+      <c r="D87" s="288"/>
       <c r="H87" s="14"/>
       <c r="I87" s="14"/>
       <c r="J87" s="14"/>
@@ -27802,13 +27848,13 @@
       <c r="AN87" s="14"/>
       <c r="AO87" s="14"/>
     </row>
-    <row r="88" spans="1:41" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="243" t="s">
+    <row r="88" spans="1:41" ht="14.45" customHeight="1">
+      <c r="A88" s="256" t="s">
         <v>185</v>
       </c>
       <c r="B88" s="221"/>
       <c r="C88" s="221"/>
-      <c r="D88" s="274"/>
+      <c r="D88" s="288"/>
       <c r="H88" s="14"/>
       <c r="I88" s="14"/>
       <c r="J88" s="14"/>
@@ -27844,11 +27890,11 @@
       <c r="AN88" s="14"/>
       <c r="AO88" s="14"/>
     </row>
-    <row r="89" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A89" s="243"/>
+    <row r="89" spans="1:41">
+      <c r="A89" s="256"/>
       <c r="B89" s="221"/>
       <c r="C89" s="221"/>
-      <c r="D89" s="274"/>
+      <c r="D89" s="288"/>
       <c r="H89" s="14"/>
       <c r="I89" s="14"/>
       <c r="J89" s="14"/>
@@ -27884,11 +27930,11 @@
       <c r="AN89" s="14"/>
       <c r="AO89" s="14"/>
     </row>
-    <row r="90" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A90" s="243"/>
+    <row r="90" spans="1:41">
+      <c r="A90" s="256"/>
       <c r="B90" s="221"/>
       <c r="C90" s="221"/>
-      <c r="D90" s="274"/>
+      <c r="D90" s="288"/>
       <c r="F90" s="14"/>
       <c r="G90" s="14"/>
       <c r="H90" s="14"/>
@@ -27926,11 +27972,11 @@
       <c r="AN90" s="14"/>
       <c r="AO90" s="14"/>
     </row>
-    <row r="91" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A91" s="243"/>
+    <row r="91" spans="1:41">
+      <c r="A91" s="256"/>
       <c r="B91" s="221"/>
       <c r="C91" s="221"/>
-      <c r="D91" s="274"/>
+      <c r="D91" s="288"/>
       <c r="E91" s="14"/>
       <c r="F91" s="14"/>
       <c r="G91" s="14"/>
@@ -27969,13 +28015,13 @@
       <c r="AN91" s="14"/>
       <c r="AO91" s="14"/>
     </row>
-    <row r="92" spans="1:41" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="243" t="s">
+    <row r="92" spans="1:41" ht="14.45" customHeight="1">
+      <c r="A92" s="256" t="s">
         <v>187</v>
       </c>
       <c r="B92" s="221"/>
       <c r="C92" s="221"/>
-      <c r="D92" s="274"/>
+      <c r="D92" s="288"/>
       <c r="E92" s="14"/>
       <c r="F92" s="14"/>
       <c r="G92" s="14"/>
@@ -28014,11 +28060,11 @@
       <c r="AN92" s="14"/>
       <c r="AO92" s="14"/>
     </row>
-    <row r="93" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A93" s="243"/>
+    <row r="93" spans="1:41">
+      <c r="A93" s="256"/>
       <c r="B93" s="221"/>
       <c r="C93" s="221"/>
-      <c r="D93" s="274"/>
+      <c r="D93" s="288"/>
       <c r="E93" s="14"/>
       <c r="F93" s="14"/>
       <c r="G93" s="14"/>
@@ -28057,11 +28103,11 @@
       <c r="AN93" s="14"/>
       <c r="AO93" s="14"/>
     </row>
-    <row r="94" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A94" s="243"/>
+    <row r="94" spans="1:41">
+      <c r="A94" s="256"/>
       <c r="B94" s="221"/>
       <c r="C94" s="221"/>
-      <c r="D94" s="274"/>
+      <c r="D94" s="288"/>
       <c r="E94" s="14"/>
       <c r="F94" s="14"/>
       <c r="G94" s="14"/>
@@ -28100,11 +28146,11 @@
       <c r="AN94" s="14"/>
       <c r="AO94" s="14"/>
     </row>
-    <row r="95" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A95" s="243"/>
+    <row r="95" spans="1:41">
+      <c r="A95" s="256"/>
       <c r="B95" s="221"/>
       <c r="C95" s="221"/>
-      <c r="D95" s="274"/>
+      <c r="D95" s="288"/>
       <c r="E95" s="14"/>
       <c r="F95" s="14"/>
       <c r="G95" s="14"/>
@@ -28143,8 +28189,8 @@
       <c r="AN95" s="14"/>
       <c r="AO95" s="14"/>
     </row>
-    <row r="96" spans="1:41" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="243" t="s">
+    <row r="96" spans="1:41" ht="14.45" customHeight="1">
+      <c r="A96" s="256" t="s">
         <v>191</v>
       </c>
       <c r="B96" s="98" t="s">
@@ -28153,7 +28199,7 @@
       <c r="C96" s="99">
         <v>0.08</v>
       </c>
-      <c r="D96" s="274"/>
+      <c r="D96" s="288"/>
       <c r="E96" s="14"/>
       <c r="F96" s="14"/>
       <c r="G96" s="14"/>
@@ -28192,11 +28238,11 @@
       <c r="AN96" s="14"/>
       <c r="AO96" s="14"/>
     </row>
-    <row r="97" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A97" s="243"/>
+    <row r="97" spans="1:41">
+      <c r="A97" s="256"/>
       <c r="B97" s="100"/>
       <c r="C97" s="101"/>
-      <c r="D97" s="274"/>
+      <c r="D97" s="288"/>
       <c r="E97" s="14"/>
       <c r="F97" s="14"/>
       <c r="G97" s="14"/>
@@ -28235,11 +28281,11 @@
       <c r="AN97" s="14"/>
       <c r="AO97" s="14"/>
     </row>
-    <row r="98" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A98" s="243"/>
+    <row r="98" spans="1:41">
+      <c r="A98" s="256"/>
       <c r="B98" s="105"/>
       <c r="C98" s="101"/>
-      <c r="D98" s="274"/>
+      <c r="D98" s="288"/>
       <c r="E98" s="14"/>
       <c r="F98" s="14"/>
       <c r="G98" s="14"/>
@@ -28278,7 +28324,7 @@
       <c r="AN98" s="14"/>
       <c r="AO98" s="14"/>
     </row>
-    <row r="99" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:41">
       <c r="A99" s="104" t="s">
         <v>194</v>
       </c>
@@ -28328,13 +28374,13 @@
       <c r="AN99" s="39"/>
       <c r="AO99" s="39"/>
     </row>
-    <row r="100" spans="1:41" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="243" t="s">
+    <row r="100" spans="1:41" ht="14.45" customHeight="1">
+      <c r="A100" s="256" t="s">
         <v>197</v>
       </c>
       <c r="B100" s="221"/>
       <c r="C100" s="221"/>
-      <c r="D100" s="274"/>
+      <c r="D100" s="288"/>
       <c r="H100" s="14"/>
       <c r="I100" s="14"/>
       <c r="J100" s="14"/>
@@ -28370,11 +28416,11 @@
       <c r="AN100" s="14"/>
       <c r="AO100" s="14"/>
     </row>
-    <row r="101" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A101" s="243"/>
+    <row r="101" spans="1:41">
+      <c r="A101" s="256"/>
       <c r="B101" s="221"/>
       <c r="C101" s="221"/>
-      <c r="D101" s="274"/>
+      <c r="D101" s="288"/>
       <c r="H101" s="14"/>
       <c r="I101" s="14"/>
       <c r="J101" s="14"/>
@@ -28410,11 +28456,11 @@
       <c r="AN101" s="14"/>
       <c r="AO101" s="14"/>
     </row>
-    <row r="102" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A102" s="243"/>
+    <row r="102" spans="1:41">
+      <c r="A102" s="256"/>
       <c r="B102" s="221"/>
       <c r="C102" s="221"/>
-      <c r="D102" s="274"/>
+      <c r="D102" s="288"/>
       <c r="H102" s="14"/>
       <c r="I102" s="14"/>
       <c r="J102" s="14"/>
@@ -28450,11 +28496,11 @@
       <c r="AN102" s="14"/>
       <c r="AO102" s="14"/>
     </row>
-    <row r="103" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A103" s="243"/>
+    <row r="103" spans="1:41">
+      <c r="A103" s="256"/>
       <c r="B103" s="221"/>
       <c r="C103" s="221"/>
-      <c r="D103" s="274"/>
+      <c r="D103" s="288"/>
       <c r="H103" s="14"/>
       <c r="I103" s="14"/>
       <c r="J103" s="14"/>
@@ -28490,7 +28536,7 @@
       <c r="AN103" s="14"/>
       <c r="AO103" s="14"/>
     </row>
-    <row r="104" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:41">
       <c r="A104" s="104" t="s">
         <v>204</v>
       </c>
@@ -28539,13 +28585,13 @@
       <c r="AN104" s="39"/>
       <c r="AO104" s="39"/>
     </row>
-    <row r="105" spans="1:41" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="243" t="s">
+    <row r="105" spans="1:41" ht="14.45" customHeight="1">
+      <c r="A105" s="256" t="s">
         <v>207</v>
       </c>
       <c r="B105" s="221"/>
       <c r="C105" s="221"/>
-      <c r="D105" s="274"/>
+      <c r="D105" s="288"/>
       <c r="H105" s="14"/>
       <c r="I105" s="14"/>
       <c r="J105" s="14"/>
@@ -28581,11 +28627,11 @@
       <c r="AN105" s="14"/>
       <c r="AO105" s="14"/>
     </row>
-    <row r="106" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A106" s="243"/>
+    <row r="106" spans="1:41">
+      <c r="A106" s="256"/>
       <c r="B106" s="221"/>
       <c r="C106" s="221"/>
-      <c r="D106" s="274"/>
+      <c r="D106" s="288"/>
       <c r="H106" s="14"/>
       <c r="I106" s="14"/>
       <c r="J106" s="14"/>
@@ -28621,11 +28667,11 @@
       <c r="AN106" s="14"/>
       <c r="AO106" s="14"/>
     </row>
-    <row r="107" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A107" s="243"/>
+    <row r="107" spans="1:41">
+      <c r="A107" s="256"/>
       <c r="B107" s="221"/>
       <c r="C107" s="221"/>
-      <c r="D107" s="274"/>
+      <c r="D107" s="288"/>
       <c r="H107" s="14"/>
       <c r="I107" s="14"/>
       <c r="J107" s="14"/>
@@ -28661,11 +28707,11 @@
       <c r="AN107" s="14"/>
       <c r="AO107" s="14"/>
     </row>
-    <row r="108" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A108" s="243"/>
+    <row r="108" spans="1:41">
+      <c r="A108" s="256"/>
       <c r="B108" s="221"/>
       <c r="C108" s="221"/>
-      <c r="D108" s="274"/>
+      <c r="D108" s="288"/>
       <c r="H108" s="108"/>
       <c r="I108" s="108"/>
       <c r="J108" s="108"/>
@@ -28701,7 +28747,7 @@
       <c r="AN108" s="108"/>
       <c r="AO108" s="108"/>
     </row>
-    <row r="109" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:41">
       <c r="A109" s="104" t="s">
         <v>211</v>
       </c>
@@ -28748,7 +28794,7 @@
       <c r="AN109" s="39"/>
       <c r="AO109" s="39"/>
     </row>
-    <row r="110" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:41">
       <c r="A110" s="13" t="s">
         <v>212</v>
       </c>
@@ -28772,7 +28818,7 @@
       <c r="S110" s="110"/>
       <c r="T110" s="110"/>
     </row>
-    <row r="111" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:41">
       <c r="A111" s="104" t="s">
         <v>213</v>
       </c>
@@ -28819,7 +28865,7 @@
       <c r="AN111" s="39"/>
       <c r="AO111" s="39"/>
     </row>
-    <row r="112" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:41">
       <c r="A112" s="13" t="s">
         <v>214</v>
       </c>
@@ -28843,7 +28889,7 @@
       <c r="S112" s="110"/>
       <c r="T112" s="110"/>
     </row>
-    <row r="113" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:20">
       <c r="K113" s="110"/>
       <c r="L113" s="110"/>
       <c r="M113" s="110"/>
@@ -28855,7 +28901,7 @@
       <c r="S113" s="110"/>
       <c r="T113" s="110"/>
     </row>
-    <row r="114" spans="1:20" s="39" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:20" s="39" customFormat="1">
       <c r="A114" s="92" t="s">
         <v>215</v>
       </c>
@@ -28863,7 +28909,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="115" spans="1:20" s="39" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:20" s="39" customFormat="1">
       <c r="A115" s="191"/>
       <c r="B115" s="126"/>
       <c r="C115" s="126"/>
@@ -28871,56 +28917,56 @@
       <c r="E115" s="192"/>
       <c r="F115" s="112"/>
     </row>
-    <row r="116" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:20">
       <c r="A116" s="76"/>
       <c r="B116" s="113"/>
       <c r="C116" s="127"/>
       <c r="D116" s="43"/>
-      <c r="E116" s="276" t="s">
+      <c r="E116" s="286" t="s">
         <v>483</v>
       </c>
       <c r="F116" s="96" t="s">
         <v>484</v>
       </c>
-      <c r="G116" s="245">
+      <c r="G116" s="247">
         <v>4</v>
       </c>
-      <c r="H116" s="276" t="s">
+      <c r="H116" s="286" t="s">
         <v>485</v>
       </c>
       <c r="I116" s="107" t="s">
         <v>486</v>
       </c>
-      <c r="J116" s="277">
+      <c r="J116" s="287">
         <v>2</v>
       </c>
     </row>
-    <row r="117" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:20">
       <c r="C117" s="110"/>
       <c r="D117" s="110"/>
-      <c r="E117" s="276"/>
+      <c r="E117" s="286"/>
       <c r="F117" s="96" t="s">
         <v>487</v>
       </c>
-      <c r="G117" s="245"/>
-      <c r="H117" s="276"/>
+      <c r="G117" s="247"/>
+      <c r="H117" s="286"/>
       <c r="I117" s="107" t="s">
         <v>488</v>
       </c>
-      <c r="J117" s="277"/>
-    </row>
-    <row r="118" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="J117" s="287"/>
+    </row>
+    <row r="118" spans="1:20">
       <c r="A118" s="92" t="s">
         <v>216</v>
       </c>
       <c r="B118" s="39"/>
       <c r="C118" s="39"/>
       <c r="D118" s="39"/>
-      <c r="E118" s="276"/>
+      <c r="E118" s="286"/>
       <c r="F118" s="96" t="s">
         <v>489</v>
       </c>
-      <c r="G118" s="245"/>
+      <c r="G118" s="247"/>
       <c r="H118" s="43"/>
       <c r="I118" s="43"/>
       <c r="J118" s="43"/>
@@ -28935,7 +28981,7 @@
       <c r="S118" s="43"/>
       <c r="T118" s="43"/>
     </row>
-    <row r="119" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:20">
       <c r="A119" s="76" t="s">
         <v>217</v>
       </c>
@@ -28946,11 +28992,11 @@
         <v>1</v>
       </c>
       <c r="D119" s="43"/>
-      <c r="E119" s="276"/>
+      <c r="E119" s="286"/>
       <c r="F119" s="96" t="s">
         <v>490</v>
       </c>
-      <c r="G119" s="245"/>
+      <c r="G119" s="247"/>
       <c r="H119" s="110"/>
       <c r="I119" s="43"/>
       <c r="J119" s="43"/>
@@ -28965,7 +29011,7 @@
       <c r="S119" s="43"/>
       <c r="T119" s="43"/>
     </row>
-    <row r="120" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:20">
       <c r="C120" s="110"/>
       <c r="D120" s="110"/>
       <c r="E120" s="110"/>
@@ -28985,7 +29031,7 @@
       <c r="S120" s="110"/>
       <c r="T120" s="110"/>
     </row>
-    <row r="121" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:20">
       <c r="A121" s="92" t="s">
         <v>219</v>
       </c>
@@ -29009,8 +29055,8 @@
       <c r="S121" s="43"/>
       <c r="T121" s="43"/>
     </row>
-    <row r="122" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A122" s="249" t="s">
+    <row r="122" spans="1:20">
+      <c r="A122" s="248" t="s">
         <v>220</v>
       </c>
       <c r="B122" s="120" t="s">
@@ -29019,13 +29065,13 @@
       <c r="C122" s="193">
         <v>2015</v>
       </c>
-      <c r="D122" s="250" t="s">
+      <c r="D122" s="260" t="s">
         <v>223</v>
       </c>
-      <c r="E122" s="251" t="s">
+      <c r="E122" s="261" t="s">
         <v>221</v>
       </c>
-      <c r="F122" s="277">
+      <c r="F122" s="287">
         <v>2015</v>
       </c>
       <c r="G122" s="110"/>
@@ -29043,17 +29089,17 @@
       <c r="S122" s="119"/>
       <c r="T122" s="119"/>
     </row>
-    <row r="123" spans="1:20" ht="30" x14ac:dyDescent="0.25">
-      <c r="A123" s="249"/>
+    <row r="123" spans="1:20" ht="30">
+      <c r="A123" s="248"/>
       <c r="B123" s="122" t="s">
         <v>224</v>
       </c>
       <c r="C123" s="194">
         <v>0</v>
       </c>
-      <c r="D123" s="250"/>
-      <c r="E123" s="251"/>
-      <c r="F123" s="277"/>
+      <c r="D123" s="260"/>
+      <c r="E123" s="261"/>
+      <c r="F123" s="287"/>
       <c r="G123" s="110"/>
       <c r="H123" s="110"/>
       <c r="I123" s="119"/>
@@ -29069,8 +29115,8 @@
       <c r="S123" s="119"/>
       <c r="T123" s="119"/>
     </row>
-    <row r="124" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A124" s="249" t="s">
+    <row r="124" spans="1:20">
+      <c r="A124" s="248" t="s">
         <v>226</v>
       </c>
       <c r="B124" s="120" t="s">
@@ -29079,28 +29125,28 @@
       <c r="C124" s="193">
         <v>2015</v>
       </c>
-      <c r="D124" s="250"/>
-      <c r="E124" s="252" t="s">
+      <c r="D124" s="260"/>
+      <c r="E124" s="253" t="s">
         <v>224</v>
       </c>
-      <c r="F124" s="278">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="125" spans="1:20" ht="30" x14ac:dyDescent="0.25">
-      <c r="A125" s="249"/>
+      <c r="F124" s="285">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:20" ht="30">
+      <c r="A125" s="248"/>
       <c r="B125" s="122" t="s">
         <v>224</v>
       </c>
       <c r="C125" s="194">
         <v>0</v>
       </c>
-      <c r="D125" s="250"/>
-      <c r="E125" s="252"/>
-      <c r="F125" s="278"/>
-    </row>
-    <row r="126" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A126" s="249" t="s">
+      <c r="D125" s="260"/>
+      <c r="E125" s="253"/>
+      <c r="F125" s="285"/>
+    </row>
+    <row r="126" spans="1:20">
+      <c r="A126" s="248" t="s">
         <v>227</v>
       </c>
       <c r="B126" s="120" t="s">
@@ -29109,30 +29155,30 @@
       <c r="C126" s="193">
         <v>2015</v>
       </c>
-      <c r="D126" s="249" t="s">
+      <c r="D126" s="248" t="s">
         <v>228</v>
       </c>
-      <c r="E126" s="252" t="s">
+      <c r="E126" s="253" t="s">
         <v>221</v>
       </c>
-      <c r="F126" s="245">
+      <c r="F126" s="247">
         <v>2015</v>
       </c>
     </row>
-    <row r="127" spans="1:20" ht="30" x14ac:dyDescent="0.25">
-      <c r="A127" s="249"/>
+    <row r="127" spans="1:20" ht="30">
+      <c r="A127" s="248"/>
       <c r="B127" s="122" t="s">
         <v>224</v>
       </c>
       <c r="C127" s="194">
         <v>0</v>
       </c>
-      <c r="D127" s="249"/>
-      <c r="E127" s="252"/>
-      <c r="F127" s="245"/>
-    </row>
-    <row r="128" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A128" s="249" t="s">
+      <c r="D127" s="248"/>
+      <c r="E127" s="253"/>
+      <c r="F127" s="247"/>
+    </row>
+    <row r="128" spans="1:20">
+      <c r="A128" s="248" t="s">
         <v>229</v>
       </c>
       <c r="B128" s="120" t="s">
@@ -29141,11 +29187,11 @@
       <c r="C128" s="193">
         <v>2015</v>
       </c>
-      <c r="D128" s="249"/>
-      <c r="E128" s="252" t="s">
+      <c r="D128" s="248"/>
+      <c r="E128" s="253" t="s">
         <v>224</v>
       </c>
-      <c r="F128" s="278">
+      <c r="F128" s="285">
         <v>0</v>
       </c>
       <c r="G128" s="124"/>
@@ -29163,20 +29209,20 @@
       <c r="S128" s="117"/>
       <c r="T128" s="117"/>
     </row>
-    <row r="129" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A129" s="249"/>
+    <row r="129" spans="1:6" ht="30">
+      <c r="A129" s="248"/>
       <c r="B129" s="122" t="s">
         <v>224</v>
       </c>
       <c r="C129" s="194">
         <v>0</v>
       </c>
-      <c r="D129" s="249"/>
-      <c r="E129" s="252"/>
-      <c r="F129" s="278"/>
-    </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A130" s="249" t="s">
+      <c r="D129" s="248"/>
+      <c r="E129" s="253"/>
+      <c r="F129" s="285"/>
+    </row>
+    <row r="130" spans="1:6">
+      <c r="A130" s="248" t="s">
         <v>194</v>
       </c>
       <c r="B130" s="120" t="s">
@@ -29186,8 +29232,8 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="131" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A131" s="249"/>
+    <row r="131" spans="1:6" ht="30">
+      <c r="A131" s="248"/>
       <c r="B131" s="122" t="s">
         <v>224</v>
       </c>
@@ -29195,79 +29241,79 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:6">
       <c r="A132" s="125" t="s">
         <v>230</v>
       </c>
       <c r="B132" s="28"/>
       <c r="C132" s="28"/>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:6">
       <c r="A133" s="28"/>
       <c r="B133" s="28"/>
       <c r="C133" s="28"/>
     </row>
-    <row r="134" spans="1:6" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="135" spans="1:6" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="136" spans="1:6" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="137" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:6" hidden="1"/>
+    <row r="135" spans="1:6" hidden="1"/>
+    <row r="136" spans="1:6" hidden="1"/>
+    <row r="137" spans="1:6" hidden="1">
       <c r="A137" s="28"/>
       <c r="B137" s="28"/>
       <c r="C137" s="28"/>
     </row>
-    <row r="138" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:6" hidden="1">
       <c r="A138" s="28"/>
       <c r="B138" s="28"/>
       <c r="C138" s="28"/>
     </row>
-    <row r="139" spans="1:6" ht="14.65" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="140" spans="1:6" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="141" spans="1:6" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="142" spans="1:6" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="143" spans="1:6" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="144" spans="1:6" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="145" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="146" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="147" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="148" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="149" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="150" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="151" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="152" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="153" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="154" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="155" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="156" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="157" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="158" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="159" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="160" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="161" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:6" ht="14.65" hidden="1" customHeight="1"/>
+    <row r="140" spans="1:6" hidden="1"/>
+    <row r="141" spans="1:6" hidden="1"/>
+    <row r="142" spans="1:6" hidden="1"/>
+    <row r="143" spans="1:6" hidden="1"/>
+    <row r="144" spans="1:6" hidden="1"/>
+    <row r="145" hidden="1"/>
+    <row r="146" hidden="1"/>
+    <row r="147" hidden="1"/>
+    <row r="148" hidden="1"/>
+    <row r="149" hidden="1"/>
+    <row r="150" hidden="1"/>
+    <row r="151" hidden="1"/>
+    <row r="152" hidden="1"/>
+    <row r="153" hidden="1"/>
+    <row r="154" hidden="1"/>
+    <row r="155" hidden="1"/>
+    <row r="156" hidden="1"/>
+    <row r="157" hidden="1"/>
+    <row r="158" hidden="1"/>
+    <row r="159" hidden="1"/>
+    <row r="160" hidden="1"/>
+    <row r="161" spans="1:20" hidden="1">
       <c r="A161" s="28"/>
       <c r="B161" s="28"/>
       <c r="C161" s="28"/>
     </row>
-    <row r="162" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:20" hidden="1">
       <c r="A162" s="28"/>
       <c r="B162" s="28"/>
       <c r="C162" s="28"/>
     </row>
-    <row r="163" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:20" hidden="1">
       <c r="A163" s="28"/>
       <c r="B163" s="28"/>
       <c r="C163" s="28"/>
     </row>
-    <row r="164" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:20" hidden="1">
       <c r="A164" s="28"/>
       <c r="B164" s="28"/>
       <c r="C164" s="28"/>
     </row>
-    <row r="165" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:20">
       <c r="A165" s="28"/>
       <c r="B165" s="28"/>
       <c r="C165" s="28"/>
     </row>
-    <row r="166" spans="1:20" s="39" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:20" s="39" customFormat="1">
       <c r="A166" s="92" t="s">
         <v>231</v>
       </c>
@@ -29288,7 +29334,7 @@
       <c r="S166" s="126"/>
       <c r="T166" s="126"/>
     </row>
-    <row r="167" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:20">
       <c r="A167" s="76" t="s">
         <v>232</v>
       </c>
@@ -29328,7 +29374,7 @@
       <c r="S167" s="43"/>
       <c r="T167" s="43"/>
     </row>
-    <row r="168" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:20">
       <c r="A168" s="76" t="s">
         <v>239</v>
       </c>
@@ -29357,14 +29403,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:20" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:20" ht="16.5" customHeight="1">
       <c r="A169" s="65" t="s">
         <v>245</v>
       </c>
       <c r="B169" s="65"/>
       <c r="C169" s="65"/>
     </row>
-    <row r="170" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:20">
       <c r="A170" s="76" t="s">
         <v>491</v>
       </c>
@@ -29375,7 +29421,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="171" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:20">
       <c r="A171" s="76" t="s">
         <v>492</v>
       </c>
@@ -29386,7 +29432,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="172" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:20">
       <c r="A172" s="76" t="s">
         <v>250</v>
       </c>
@@ -29397,7 +29443,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="173" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:20">
       <c r="A173" s="76" t="s">
         <v>252</v>
       </c>
@@ -29408,7 +29454,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="174" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:20">
       <c r="A174" s="76" t="s">
         <v>254</v>
       </c>
@@ -29419,7 +29465,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="175" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:20">
       <c r="A175" s="76" t="s">
         <v>256</v>
       </c>
@@ -29430,7 +29476,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="176" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:20">
       <c r="A176" s="132" t="s">
         <v>493</v>
       </c>
@@ -29441,7 +29487,7 @@
       </c>
       <c r="E176" s="133"/>
     </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:5">
       <c r="A177" s="76" t="s">
         <v>495</v>
       </c>
@@ -29458,7 +29504,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:5">
       <c r="A178" s="76" t="s">
         <v>498</v>
       </c>
@@ -29475,7 +29521,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:5">
       <c r="A179" s="76" t="s">
         <v>500</v>
       </c>
@@ -29489,7 +29535,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:5">
       <c r="A180" s="76" t="s">
         <v>501</v>
       </c>
@@ -29503,7 +29549,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:5">
       <c r="A181" s="76" t="s">
         <v>502</v>
       </c>
@@ -29520,7 +29566,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:5">
       <c r="A182" s="132" t="s">
         <v>504</v>
       </c>
@@ -29531,7 +29577,7 @@
       </c>
       <c r="E182" s="133"/>
     </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:5">
       <c r="A183" s="76" t="s">
         <v>505</v>
       </c>
@@ -29548,7 +29594,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:5">
       <c r="A184" s="76" t="s">
         <v>507</v>
       </c>
@@ -29565,7 +29611,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:5">
       <c r="A185" s="76" t="s">
         <v>509</v>
       </c>
@@ -29582,9 +29628,9 @@
         <v>510</v>
       </c>
     </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:5">
       <c r="A186" s="76" t="s">
-        <v>511</v>
+        <v>556</v>
       </c>
       <c r="B186" s="25" t="s">
         <v>11</v>
@@ -29596,12 +29642,12 @@
         <v>287</v>
       </c>
       <c r="E186" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5">
+      <c r="A187" s="76" t="s">
         <v>512</v>
-      </c>
-    </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A187" s="76" t="s">
-        <v>513</v>
       </c>
       <c r="B187" s="25" t="s">
         <v>11</v>
@@ -29613,12 +29659,12 @@
         <v>290</v>
       </c>
       <c r="E187" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5">
+      <c r="A188" s="76" t="s">
         <v>514</v>
-      </c>
-    </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A188" s="76" t="s">
-        <v>515</v>
       </c>
       <c r="B188" s="25" t="s">
         <v>11</v>
@@ -29627,9 +29673,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:5">
       <c r="A189" s="76" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="B189" s="25" t="s">
         <v>11</v>
@@ -29638,12 +29684,12 @@
         <v>0</v>
       </c>
       <c r="D189" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5">
+      <c r="A190" s="76" t="s">
         <v>517</v>
-      </c>
-    </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A190" s="76" t="s">
-        <v>518</v>
       </c>
       <c r="B190" s="25" t="s">
         <v>11</v>
@@ -29652,9 +29698,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:5">
       <c r="A191" s="76" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="B191" s="25" t="s">
         <v>11</v>
@@ -29663,12 +29709,12 @@
         <v>57</v>
       </c>
     </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:5">
       <c r="A192" s="28"/>
       <c r="B192" s="28"/>
       <c r="C192" s="28"/>
     </row>
-    <row r="193" spans="1:120" s="28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:120" s="28" customFormat="1">
       <c r="A193" s="136" t="s">
         <v>300</v>
       </c>
@@ -29677,14 +29723,14 @@
       <c r="D193" s="65"/>
       <c r="E193" s="65"/>
     </row>
-    <row r="194" spans="1:120" ht="85.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A194" s="255" t="s">
+    <row r="194" spans="1:120" ht="85.9" customHeight="1">
+      <c r="A194" s="249" t="s">
         <v>301</v>
       </c>
-      <c r="B194" s="255"/>
-      <c r="C194" s="255"/>
-      <c r="D194" s="255"/>
-      <c r="E194" s="255"/>
+      <c r="B194" s="249"/>
+      <c r="C194" s="249"/>
+      <c r="D194" s="249"/>
+      <c r="E194" s="249"/>
       <c r="F194" s="20"/>
       <c r="G194" s="20"/>
       <c r="H194" s="20"/>
@@ -29695,14 +29741,14 @@
       <c r="M194" s="20"/>
       <c r="N194" s="20"/>
     </row>
-    <row r="195" spans="1:120" s="20" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A195" s="256" t="s">
+    <row r="195" spans="1:120" s="20" customFormat="1" ht="13.9" customHeight="1">
+      <c r="A195" s="250" t="s">
         <v>302</v>
       </c>
       <c r="B195" s="42" t="s">
         <v>303</v>
       </c>
-      <c r="C195" s="257">
+      <c r="C195" s="251">
         <v>2</v>
       </c>
       <c r="D195" s="137"/>
@@ -29739,12 +29785,12 @@
       <c r="AM195" s="228"/>
       <c r="AN195" s="228"/>
     </row>
-    <row r="196" spans="1:120" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A196" s="256"/>
+    <row r="196" spans="1:120" s="20" customFormat="1">
+      <c r="A196" s="250"/>
       <c r="B196" s="139" t="s">
         <v>304</v>
       </c>
-      <c r="C196" s="257"/>
+      <c r="C196" s="251"/>
       <c r="D196" s="140"/>
       <c r="E196" s="140"/>
       <c r="F196" s="140"/>
@@ -29780,12 +29826,12 @@
       <c r="AM196" s="228"/>
       <c r="AN196" s="228"/>
     </row>
-    <row r="197" spans="1:120" s="20" customFormat="1" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A197" s="256"/>
+    <row r="197" spans="1:120" s="20" customFormat="1" ht="28.9" customHeight="1">
+      <c r="A197" s="250"/>
       <c r="B197" s="141" t="s">
         <v>305</v>
       </c>
-      <c r="C197" s="257"/>
+      <c r="C197" s="251"/>
       <c r="D197" s="137"/>
       <c r="E197" s="137"/>
       <c r="F197" s="137"/>
@@ -29821,12 +29867,12 @@
       <c r="AM197" s="228"/>
       <c r="AN197" s="228"/>
     </row>
-    <row r="198" spans="1:120" s="205" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A198" s="279" t="s">
+    <row r="198" spans="1:120" s="205" customFormat="1" ht="13.9" customHeight="1">
+      <c r="A198" s="280" t="s">
         <v>306</v>
       </c>
-      <c r="B198" s="279"/>
-      <c r="C198" s="279"/>
+      <c r="B198" s="280"/>
+      <c r="C198" s="280"/>
       <c r="D198" s="204"/>
       <c r="E198" s="204"/>
       <c r="F198" s="204"/>
@@ -29945,7 +29991,7 @@
       <c r="DO198" s="204"/>
       <c r="DP198" s="204"/>
     </row>
-    <row r="199" spans="1:120" s="28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:120" s="28" customFormat="1">
       <c r="A199" s="143" t="s">
         <v>307</v>
       </c>
@@ -29979,7 +30025,7 @@
       <c r="AM199" s="228"/>
       <c r="AN199" s="228"/>
     </row>
-    <row r="200" spans="1:120" s="20" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:120" s="20" customFormat="1" ht="30">
       <c r="A200" s="144" t="s">
         <v>309</v>
       </c>
@@ -30024,55 +30070,55 @@
       <c r="AM200" s="228"/>
       <c r="AN200" s="228"/>
     </row>
-    <row r="201" spans="1:120" x14ac:dyDescent="0.25">
-      <c r="A201" s="280" t="s">
-        <v>524</v>
-      </c>
-      <c r="B201" s="280"/>
+    <row r="201" spans="1:120">
+      <c r="A201" s="281" t="s">
+        <v>523</v>
+      </c>
+      <c r="B201" s="281"/>
       <c r="C201" s="217" t="s">
+        <v>541</v>
+      </c>
+      <c r="D201" s="218" t="s">
         <v>542</v>
       </c>
-      <c r="D201" s="218" t="s">
+      <c r="E201" s="218" t="s">
         <v>543</v>
       </c>
-      <c r="E201" s="218" t="s">
+      <c r="F201" s="218" t="s">
         <v>544</v>
       </c>
-      <c r="F201" s="218" t="s">
+      <c r="G201" s="218" t="s">
         <v>545</v>
       </c>
-      <c r="G201" s="218" t="s">
+      <c r="H201" s="218" t="s">
         <v>546</v>
       </c>
-      <c r="H201" s="218" t="s">
+      <c r="I201" s="218" t="s">
         <v>547</v>
       </c>
-      <c r="I201" s="218" t="s">
+      <c r="J201" s="218" t="s">
         <v>548</v>
-      </c>
-      <c r="J201" s="218" t="s">
-        <v>549</v>
       </c>
       <c r="K201" s="218" t="s">
         <v>337</v>
       </c>
       <c r="L201" s="218" t="s">
+        <v>549</v>
+      </c>
+      <c r="M201" s="218" t="s">
         <v>550</v>
       </c>
-      <c r="M201" s="218" t="s">
+      <c r="N201" s="218" t="s">
         <v>551</v>
       </c>
-      <c r="N201" s="218" t="s">
+      <c r="O201" s="218" t="s">
         <v>552</v>
       </c>
-      <c r="O201" s="218" t="s">
+      <c r="P201" s="218" t="s">
         <v>553</v>
       </c>
-      <c r="P201" s="218" t="s">
+      <c r="Q201" s="218" t="s">
         <v>554</v>
-      </c>
-      <c r="Q201" s="218" t="s">
-        <v>555</v>
       </c>
       <c r="R201" s="228"/>
       <c r="S201" s="228"/>
@@ -30098,12 +30144,12 @@
       <c r="AM201" s="228"/>
       <c r="AN201" s="228"/>
     </row>
-    <row r="202" spans="1:120" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:120">
       <c r="A202" s="208" t="s">
+        <v>524</v>
+      </c>
+      <c r="B202" s="282" t="s">
         <v>525</v>
-      </c>
-      <c r="B202" s="281" t="s">
-        <v>526</v>
       </c>
       <c r="C202" s="209">
         <v>0</v>
@@ -30174,11 +30220,11 @@
       <c r="AM202" s="228"/>
       <c r="AN202" s="228"/>
     </row>
-    <row r="203" spans="1:120" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:120">
       <c r="A203" s="208" t="s">
-        <v>527</v>
-      </c>
-      <c r="B203" s="281"/>
+        <v>526</v>
+      </c>
+      <c r="B203" s="282"/>
       <c r="C203" s="210">
         <v>0</v>
       </c>
@@ -30248,11 +30294,11 @@
       <c r="AM203" s="228"/>
       <c r="AN203" s="228"/>
     </row>
-    <row r="204" spans="1:120" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:120">
       <c r="A204" s="208" t="s">
-        <v>528</v>
-      </c>
-      <c r="B204" s="281"/>
+        <v>527</v>
+      </c>
+      <c r="B204" s="282"/>
       <c r="C204" s="210">
         <v>0</v>
       </c>
@@ -30322,11 +30368,11 @@
       <c r="AM204" s="228"/>
       <c r="AN204" s="228"/>
     </row>
-    <row r="205" spans="1:120" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:120">
       <c r="A205" s="208" t="s">
-        <v>529</v>
-      </c>
-      <c r="B205" s="281"/>
+        <v>528</v>
+      </c>
+      <c r="B205" s="282"/>
       <c r="C205" s="210">
         <v>0</v>
       </c>
@@ -30396,11 +30442,11 @@
       <c r="AM205" s="228"/>
       <c r="AN205" s="228"/>
     </row>
-    <row r="206" spans="1:120" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:120">
       <c r="A206" s="208" t="s">
-        <v>530</v>
-      </c>
-      <c r="B206" s="281"/>
+        <v>529</v>
+      </c>
+      <c r="B206" s="282"/>
       <c r="C206" s="210">
         <v>0</v>
       </c>
@@ -30470,12 +30516,12 @@
       <c r="AM206" s="228"/>
       <c r="AN206" s="228"/>
     </row>
-    <row r="207" spans="1:120" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:120">
       <c r="A207" s="208" t="s">
-        <v>525</v>
-      </c>
-      <c r="B207" s="281" t="s">
-        <v>531</v>
+        <v>524</v>
+      </c>
+      <c r="B207" s="282" t="s">
+        <v>530</v>
       </c>
       <c r="C207" s="210">
         <v>0</v>
@@ -30546,11 +30592,11 @@
       <c r="AM207" s="228"/>
       <c r="AN207" s="228"/>
     </row>
-    <row r="208" spans="1:120" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:120">
       <c r="A208" s="208" t="s">
-        <v>527</v>
-      </c>
-      <c r="B208" s="281"/>
+        <v>526</v>
+      </c>
+      <c r="B208" s="282"/>
       <c r="C208" s="212">
         <v>0</v>
       </c>
@@ -30620,11 +30666,11 @@
       <c r="AM208" s="228"/>
       <c r="AN208" s="228"/>
     </row>
-    <row r="209" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:40">
       <c r="A209" s="208" t="s">
-        <v>528</v>
-      </c>
-      <c r="B209" s="281"/>
+        <v>527</v>
+      </c>
+      <c r="B209" s="282"/>
       <c r="C209" s="210">
         <v>0</v>
       </c>
@@ -30694,11 +30740,11 @@
       <c r="AM209" s="228"/>
       <c r="AN209" s="228"/>
     </row>
-    <row r="210" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:40">
       <c r="A210" s="208" t="s">
-        <v>529</v>
-      </c>
-      <c r="B210" s="281"/>
+        <v>528</v>
+      </c>
+      <c r="B210" s="282"/>
       <c r="C210" s="210">
         <v>0</v>
       </c>
@@ -30768,11 +30814,11 @@
       <c r="AM210" s="228"/>
       <c r="AN210" s="228"/>
     </row>
-    <row r="211" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:40">
       <c r="A211" s="208" t="s">
-        <v>530</v>
-      </c>
-      <c r="B211" s="281"/>
+        <v>529</v>
+      </c>
+      <c r="B211" s="282"/>
       <c r="C211" s="210">
         <v>0</v>
       </c>
@@ -30842,12 +30888,12 @@
       <c r="AM211" s="228"/>
       <c r="AN211" s="228"/>
     </row>
-    <row r="212" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:40">
       <c r="A212" s="208" t="s">
+        <v>531</v>
+      </c>
+      <c r="B212" s="282" t="s">
         <v>532</v>
-      </c>
-      <c r="B212" s="281" t="s">
-        <v>533</v>
       </c>
       <c r="C212" s="210">
         <v>0</v>
@@ -30918,11 +30964,11 @@
       <c r="AM212" s="228"/>
       <c r="AN212" s="228"/>
     </row>
-    <row r="213" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:40">
       <c r="A213" s="208" t="s">
-        <v>527</v>
-      </c>
-      <c r="B213" s="281"/>
+        <v>526</v>
+      </c>
+      <c r="B213" s="282"/>
       <c r="C213" s="210">
         <v>0</v>
       </c>
@@ -30992,11 +31038,11 @@
       <c r="AM213" s="228"/>
       <c r="AN213" s="228"/>
     </row>
-    <row r="214" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:40">
       <c r="A214" s="208" t="s">
-        <v>528</v>
-      </c>
-      <c r="B214" s="281"/>
+        <v>527</v>
+      </c>
+      <c r="B214" s="282"/>
       <c r="C214" s="212">
         <v>0</v>
       </c>
@@ -31066,11 +31112,11 @@
       <c r="AM214" s="228"/>
       <c r="AN214" s="228"/>
     </row>
-    <row r="215" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:40">
       <c r="A215" s="208" t="s">
-        <v>529</v>
-      </c>
-      <c r="B215" s="281"/>
+        <v>528</v>
+      </c>
+      <c r="B215" s="282"/>
       <c r="C215" s="210">
         <v>0</v>
       </c>
@@ -31140,11 +31186,11 @@
       <c r="AM215" s="228"/>
       <c r="AN215" s="228"/>
     </row>
-    <row r="216" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:40">
       <c r="A216" s="208" t="s">
-        <v>530</v>
-      </c>
-      <c r="B216" s="281"/>
+        <v>529</v>
+      </c>
+      <c r="B216" s="282"/>
       <c r="C216" s="210">
         <v>0</v>
       </c>
@@ -31214,12 +31260,12 @@
       <c r="AM216" s="228"/>
       <c r="AN216" s="228"/>
     </row>
-    <row r="217" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:40">
       <c r="A217" s="208" t="s">
-        <v>525</v>
-      </c>
-      <c r="B217" s="281" t="s">
-        <v>534</v>
+        <v>524</v>
+      </c>
+      <c r="B217" s="282" t="s">
+        <v>533</v>
       </c>
       <c r="C217" s="210">
         <v>0</v>
@@ -31290,11 +31336,11 @@
       <c r="AM217" s="228"/>
       <c r="AN217" s="228"/>
     </row>
-    <row r="218" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:40">
       <c r="A218" s="208" t="s">
-        <v>527</v>
-      </c>
-      <c r="B218" s="281"/>
+        <v>526</v>
+      </c>
+      <c r="B218" s="282"/>
       <c r="C218" s="210">
         <v>0</v>
       </c>
@@ -31364,11 +31410,11 @@
       <c r="AM218" s="228"/>
       <c r="AN218" s="228"/>
     </row>
-    <row r="219" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:40">
       <c r="A219" s="208" t="s">
-        <v>528</v>
-      </c>
-      <c r="B219" s="281"/>
+        <v>527</v>
+      </c>
+      <c r="B219" s="282"/>
       <c r="C219" s="210">
         <v>0</v>
       </c>
@@ -31438,11 +31484,11 @@
       <c r="AM219" s="228"/>
       <c r="AN219" s="228"/>
     </row>
-    <row r="220" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:40">
       <c r="A220" s="208" t="s">
-        <v>529</v>
-      </c>
-      <c r="B220" s="281"/>
+        <v>528</v>
+      </c>
+      <c r="B220" s="282"/>
       <c r="C220" s="212">
         <v>0</v>
       </c>
@@ -31512,11 +31558,11 @@
       <c r="AM220" s="228"/>
       <c r="AN220" s="228"/>
     </row>
-    <row r="221" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:40">
       <c r="A221" s="208" t="s">
-        <v>530</v>
-      </c>
-      <c r="B221" s="281"/>
+        <v>529</v>
+      </c>
+      <c r="B221" s="282"/>
       <c r="C221" s="210">
         <v>0</v>
       </c>
@@ -31586,12 +31632,12 @@
       <c r="AM221" s="228"/>
       <c r="AN221" s="228"/>
     </row>
-    <row r="222" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:40">
       <c r="A222" s="208" t="s">
-        <v>525</v>
-      </c>
-      <c r="B222" s="281" t="s">
-        <v>535</v>
+        <v>524</v>
+      </c>
+      <c r="B222" s="282" t="s">
+        <v>534</v>
       </c>
       <c r="C222" s="210">
         <v>0</v>
@@ -31662,11 +31708,11 @@
       <c r="AM222" s="228"/>
       <c r="AN222" s="228"/>
     </row>
-    <row r="223" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:40">
       <c r="A223" s="208" t="s">
-        <v>527</v>
-      </c>
-      <c r="B223" s="281"/>
+        <v>526</v>
+      </c>
+      <c r="B223" s="282"/>
       <c r="C223" s="210">
         <v>0</v>
       </c>
@@ -31736,11 +31782,11 @@
       <c r="AM223" s="228"/>
       <c r="AN223" s="228"/>
     </row>
-    <row r="224" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:40">
       <c r="A224" s="208" t="s">
-        <v>528</v>
-      </c>
-      <c r="B224" s="281"/>
+        <v>527</v>
+      </c>
+      <c r="B224" s="282"/>
       <c r="C224" s="210">
         <v>0</v>
       </c>
@@ -31810,11 +31856,11 @@
       <c r="AM224" s="228"/>
       <c r="AN224" s="228"/>
     </row>
-    <row r="225" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:40">
       <c r="A225" s="208" t="s">
-        <v>529</v>
-      </c>
-      <c r="B225" s="281"/>
+        <v>528</v>
+      </c>
+      <c r="B225" s="282"/>
       <c r="C225" s="210">
         <v>0</v>
       </c>
@@ -31884,11 +31930,11 @@
       <c r="AM225" s="228"/>
       <c r="AN225" s="228"/>
     </row>
-    <row r="226" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:40">
       <c r="A226" s="208" t="s">
-        <v>530</v>
-      </c>
-      <c r="B226" s="281"/>
+        <v>529</v>
+      </c>
+      <c r="B226" s="282"/>
       <c r="C226" s="212">
         <v>0</v>
       </c>
@@ -31958,55 +32004,55 @@
       <c r="AM226" s="228"/>
       <c r="AN226" s="228"/>
     </row>
-    <row r="227" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A227" s="282" t="s">
-        <v>540</v>
-      </c>
-      <c r="B227" s="282"/>
+    <row r="227" spans="1:40">
+      <c r="A227" s="283" t="s">
+        <v>539</v>
+      </c>
+      <c r="B227" s="283"/>
       <c r="C227" s="217" t="s">
+        <v>541</v>
+      </c>
+      <c r="D227" s="218" t="s">
         <v>542</v>
       </c>
-      <c r="D227" s="218" t="s">
+      <c r="E227" s="218" t="s">
         <v>543</v>
       </c>
-      <c r="E227" s="218" t="s">
+      <c r="F227" s="218" t="s">
         <v>544</v>
       </c>
-      <c r="F227" s="218" t="s">
+      <c r="G227" s="218" t="s">
         <v>545</v>
       </c>
-      <c r="G227" s="218" t="s">
+      <c r="H227" s="218" t="s">
         <v>546</v>
       </c>
-      <c r="H227" s="218" t="s">
+      <c r="I227" s="218" t="s">
         <v>547</v>
       </c>
-      <c r="I227" s="218" t="s">
+      <c r="J227" s="218" t="s">
         <v>548</v>
-      </c>
-      <c r="J227" s="218" t="s">
-        <v>549</v>
       </c>
       <c r="K227" s="218" t="s">
         <v>337</v>
       </c>
       <c r="L227" s="218" t="s">
+        <v>549</v>
+      </c>
+      <c r="M227" s="218" t="s">
         <v>550</v>
       </c>
-      <c r="M227" s="218" t="s">
+      <c r="N227" s="218" t="s">
         <v>551</v>
       </c>
-      <c r="N227" s="218" t="s">
+      <c r="O227" s="218" t="s">
         <v>552</v>
       </c>
-      <c r="O227" s="218" t="s">
+      <c r="P227" s="218" t="s">
         <v>553</v>
       </c>
-      <c r="P227" s="218" t="s">
+      <c r="Q227" s="218" t="s">
         <v>554</v>
-      </c>
-      <c r="Q227" s="218" t="s">
-        <v>555</v>
       </c>
       <c r="R227" s="228"/>
       <c r="S227" s="228"/>
@@ -32032,7 +32078,7 @@
       <c r="AM227" s="228"/>
       <c r="AN227" s="228"/>
     </row>
-    <row r="228" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:40">
       <c r="A228" s="213"/>
       <c r="B228" s="208" t="s">
         <v>357</v>
@@ -32106,7 +32152,7 @@
       <c r="AM228" s="228"/>
       <c r="AN228" s="228"/>
     </row>
-    <row r="229" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:40">
       <c r="A229" s="207"/>
       <c r="B229" s="208" t="s">
         <v>358</v>
@@ -32180,7 +32226,7 @@
       <c r="AM229" s="228"/>
       <c r="AN229" s="228"/>
     </row>
-    <row r="230" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:40">
       <c r="A230" s="207"/>
       <c r="B230" s="208" t="s">
         <v>359</v>
@@ -32254,7 +32300,7 @@
       <c r="AM230" s="228"/>
       <c r="AN230" s="228"/>
     </row>
-    <row r="231" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:40">
       <c r="A231" s="207"/>
       <c r="B231" s="208" t="s">
         <v>360</v>
@@ -32328,7 +32374,7 @@
       <c r="AM231" s="228"/>
       <c r="AN231" s="228"/>
     </row>
-    <row r="232" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:40">
       <c r="A232" s="207"/>
       <c r="B232" s="208" t="s">
         <v>361</v>
@@ -32402,11 +32448,11 @@
       <c r="AM232" s="228"/>
       <c r="AN232" s="228"/>
     </row>
-    <row r="233" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A233" s="273" t="s">
-        <v>536</v>
-      </c>
-      <c r="B233" s="273"/>
+    <row r="233" spans="1:40">
+      <c r="A233" s="284" t="s">
+        <v>535</v>
+      </c>
+      <c r="B233" s="284"/>
       <c r="C233" s="219"/>
       <c r="D233" s="219"/>
       <c r="E233" s="219"/>
@@ -32446,7 +32492,7 @@
       <c r="AM233" s="228"/>
       <c r="AN233" s="228"/>
     </row>
-    <row r="234" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:40">
       <c r="A234" s="213"/>
       <c r="B234" s="208" t="s">
         <v>357</v>
@@ -32520,7 +32566,7 @@
       <c r="AM234" s="228"/>
       <c r="AN234" s="228"/>
     </row>
-    <row r="235" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:40">
       <c r="A235" s="207"/>
       <c r="B235" s="208" t="s">
         <v>358</v>
@@ -32594,7 +32640,7 @@
       <c r="AM235" s="228"/>
       <c r="AN235" s="228"/>
     </row>
-    <row r="236" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:40">
       <c r="A236" s="207"/>
       <c r="B236" s="208" t="s">
         <v>359</v>
@@ -32668,7 +32714,7 @@
       <c r="AM236" s="228"/>
       <c r="AN236" s="228"/>
     </row>
-    <row r="237" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:40">
       <c r="A237" s="207"/>
       <c r="B237" s="208" t="s">
         <v>360</v>
@@ -32742,7 +32788,7 @@
       <c r="AM237" s="228"/>
       <c r="AN237" s="228"/>
     </row>
-    <row r="238" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:40">
       <c r="A238" s="207"/>
       <c r="B238" s="208" t="s">
         <v>361</v>
@@ -32816,11 +32862,11 @@
       <c r="AM238" s="228"/>
       <c r="AN238" s="228"/>
     </row>
-    <row r="239" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A239" s="273" t="s">
-        <v>537</v>
-      </c>
-      <c r="B239" s="273"/>
+    <row r="239" spans="1:40">
+      <c r="A239" s="284" t="s">
+        <v>536</v>
+      </c>
+      <c r="B239" s="284"/>
       <c r="C239" s="219"/>
       <c r="D239" s="219"/>
       <c r="E239" s="219"/>
@@ -32860,7 +32906,7 @@
       <c r="AM239" s="228"/>
       <c r="AN239" s="228"/>
     </row>
-    <row r="240" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:40">
       <c r="A240" s="213"/>
       <c r="B240" s="208" t="s">
         <v>357</v>
@@ -32934,7 +32980,7 @@
       <c r="AM240" s="228"/>
       <c r="AN240" s="228"/>
     </row>
-    <row r="241" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:40">
       <c r="A241" s="207"/>
       <c r="B241" s="208" t="s">
         <v>358</v>
@@ -33008,7 +33054,7 @@
       <c r="AM241" s="228"/>
       <c r="AN241" s="228"/>
     </row>
-    <row r="242" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:40">
       <c r="A242" s="207"/>
       <c r="B242" s="208" t="s">
         <v>359</v>
@@ -33082,7 +33128,7 @@
       <c r="AM242" s="228"/>
       <c r="AN242" s="228"/>
     </row>
-    <row r="243" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:40">
       <c r="A243" s="207"/>
       <c r="B243" s="208" t="s">
         <v>360</v>
@@ -33156,7 +33202,7 @@
       <c r="AM243" s="228"/>
       <c r="AN243" s="228"/>
     </row>
-    <row r="244" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:40">
       <c r="A244" s="207"/>
       <c r="B244" s="208" t="s">
         <v>361</v>
@@ -33230,11 +33276,11 @@
       <c r="AM244" s="228"/>
       <c r="AN244" s="228"/>
     </row>
-    <row r="245" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A245" s="273" t="s">
-        <v>538</v>
-      </c>
-      <c r="B245" s="273"/>
+    <row r="245" spans="1:40">
+      <c r="A245" s="284" t="s">
+        <v>537</v>
+      </c>
+      <c r="B245" s="284"/>
       <c r="C245" s="219"/>
       <c r="D245" s="219"/>
       <c r="E245" s="219"/>
@@ -33274,7 +33320,7 @@
       <c r="AM245" s="228"/>
       <c r="AN245" s="228"/>
     </row>
-    <row r="246" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:40">
       <c r="A246" s="213"/>
       <c r="B246" s="208" t="s">
         <v>357</v>
@@ -33348,7 +33394,7 @@
       <c r="AM246" s="228"/>
       <c r="AN246" s="228"/>
     </row>
-    <row r="247" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:40">
       <c r="A247" s="207"/>
       <c r="B247" s="208" t="s">
         <v>358</v>
@@ -33422,7 +33468,7 @@
       <c r="AM247" s="228"/>
       <c r="AN247" s="228"/>
     </row>
-    <row r="248" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:40">
       <c r="A248" s="207"/>
       <c r="B248" s="208" t="s">
         <v>359</v>
@@ -33496,7 +33542,7 @@
       <c r="AM248" s="228"/>
       <c r="AN248" s="228"/>
     </row>
-    <row r="249" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:40">
       <c r="A249" s="207"/>
       <c r="B249" s="208" t="s">
         <v>360</v>
@@ -33570,7 +33616,7 @@
       <c r="AM249" s="228"/>
       <c r="AN249" s="228"/>
     </row>
-    <row r="250" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:40">
       <c r="A250" s="207"/>
       <c r="B250" s="208" t="s">
         <v>361</v>
@@ -33644,9 +33690,9 @@
       <c r="AM250" s="228"/>
       <c r="AN250" s="228"/>
     </row>
-    <row r="251" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:40">
       <c r="A251" s="214" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="B251" s="214"/>
       <c r="C251" s="219"/>
@@ -33688,7 +33734,7 @@
       <c r="AM251" s="228"/>
       <c r="AN251" s="228"/>
     </row>
-    <row r="252" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:40">
       <c r="A252" s="213"/>
       <c r="B252" s="208" t="s">
         <v>357</v>
@@ -33762,7 +33808,7 @@
       <c r="AM252" s="228"/>
       <c r="AN252" s="228"/>
     </row>
-    <row r="253" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:40">
       <c r="A253" s="207"/>
       <c r="B253" s="208" t="s">
         <v>358</v>
@@ -33836,7 +33882,7 @@
       <c r="AM253" s="228"/>
       <c r="AN253" s="228"/>
     </row>
-    <row r="254" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:40">
       <c r="A254" s="207"/>
       <c r="B254" s="208" t="s">
         <v>359</v>
@@ -33910,7 +33956,7 @@
       <c r="AM254" s="228"/>
       <c r="AN254" s="228"/>
     </row>
-    <row r="255" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:40">
       <c r="A255" s="207"/>
       <c r="B255" s="208" t="s">
         <v>360</v>
@@ -33984,7 +34030,7 @@
       <c r="AM255" s="228"/>
       <c r="AN255" s="228"/>
     </row>
-    <row r="256" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:40">
       <c r="A256" s="207"/>
       <c r="B256" s="208" t="s">
         <v>361</v>
@@ -34058,7 +34104,7 @@
       <c r="AM256" s="228"/>
       <c r="AN256" s="228"/>
     </row>
-    <row r="257" spans="1:40" s="28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:40" s="28" customFormat="1">
       <c r="A257" s="70"/>
       <c r="R257" s="228"/>
       <c r="S257" s="228"/>
@@ -34084,7 +34130,7 @@
       <c r="AM257" s="228"/>
       <c r="AN257" s="228"/>
     </row>
-    <row r="258" spans="1:40" s="28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:40" s="28" customFormat="1">
       <c r="A258" s="70"/>
       <c r="R258" s="228"/>
       <c r="S258" s="228"/>
@@ -34110,7 +34156,7 @@
       <c r="AM258" s="228"/>
       <c r="AN258" s="228"/>
     </row>
-    <row r="259" spans="1:40" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:40" ht="15.75" customHeight="1">
       <c r="A259" s="152" t="s">
         <v>369</v>
       </c>
@@ -34138,14 +34184,14 @@
       <c r="AM259" s="228"/>
       <c r="AN259" s="228"/>
     </row>
-    <row r="260" spans="1:40" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A260" s="261" t="s">
+    <row r="260" spans="1:40" ht="14.45" customHeight="1">
+      <c r="A260" s="246" t="s">
         <v>370</v>
       </c>
       <c r="B260" s="42" t="s">
         <v>371</v>
       </c>
-      <c r="C260" s="245">
+      <c r="C260" s="247">
         <v>1</v>
       </c>
       <c r="R260" s="228"/>
@@ -34172,12 +34218,12 @@
       <c r="AM260" s="228"/>
       <c r="AN260" s="228"/>
     </row>
-    <row r="261" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A261" s="261"/>
+    <row r="261" spans="1:40">
+      <c r="A261" s="246"/>
       <c r="B261" s="42" t="s">
         <v>372</v>
       </c>
-      <c r="C261" s="245"/>
+      <c r="C261" s="247"/>
       <c r="R261" s="228"/>
       <c r="S261" s="228"/>
       <c r="T261" s="228"/>
@@ -34202,7 +34248,7 @@
       <c r="AM261" s="228"/>
       <c r="AN261" s="228"/>
     </row>
-    <row r="262" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:40">
       <c r="A262" s="160" t="s">
         <v>373</v>
       </c>
@@ -34239,7 +34285,7 @@
       <c r="AM262" s="228"/>
       <c r="AN262" s="228"/>
     </row>
-    <row r="263" spans="1:40" s="20" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:40" s="20" customFormat="1" ht="14.25" customHeight="1">
       <c r="A263" s="206" t="s">
         <v>377</v>
       </c>
@@ -34268,55 +34314,55 @@
       <c r="AM263" s="228"/>
       <c r="AN263" s="228"/>
     </row>
-    <row r="264" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A264" s="272" t="s">
-        <v>556</v>
-      </c>
-      <c r="B264" s="272"/>
+    <row r="264" spans="1:40">
+      <c r="A264" s="290" t="s">
+        <v>555</v>
+      </c>
+      <c r="B264" s="290"/>
       <c r="C264" s="217" t="s">
+        <v>541</v>
+      </c>
+      <c r="D264" s="218" t="s">
         <v>542</v>
       </c>
-      <c r="D264" s="218" t="s">
+      <c r="E264" s="218" t="s">
         <v>543</v>
       </c>
-      <c r="E264" s="218" t="s">
+      <c r="F264" s="218" t="s">
         <v>544</v>
       </c>
-      <c r="F264" s="218" t="s">
+      <c r="G264" s="218" t="s">
         <v>545</v>
       </c>
-      <c r="G264" s="218" t="s">
+      <c r="H264" s="218" t="s">
         <v>546</v>
       </c>
-      <c r="H264" s="218" t="s">
+      <c r="I264" s="218" t="s">
         <v>547</v>
       </c>
-      <c r="I264" s="218" t="s">
+      <c r="J264" s="218" t="s">
         <v>548</v>
-      </c>
-      <c r="J264" s="218" t="s">
-        <v>549</v>
       </c>
       <c r="K264" s="218" t="s">
         <v>337</v>
       </c>
       <c r="L264" s="218" t="s">
+        <v>549</v>
+      </c>
+      <c r="M264" s="218" t="s">
         <v>550</v>
       </c>
-      <c r="M264" s="218" t="s">
+      <c r="N264" s="218" t="s">
         <v>551</v>
       </c>
-      <c r="N264" s="218" t="s">
+      <c r="O264" s="218" t="s">
         <v>552</v>
       </c>
-      <c r="O264" s="218" t="s">
+      <c r="P264" s="218" t="s">
         <v>553</v>
       </c>
-      <c r="P264" s="218" t="s">
+      <c r="Q264" s="218" t="s">
         <v>554</v>
-      </c>
-      <c r="Q264" s="218" t="s">
-        <v>555</v>
       </c>
       <c r="R264" s="228"/>
       <c r="S264" s="228"/>
@@ -34342,54 +34388,54 @@
       <c r="AM264" s="228"/>
       <c r="AN264" s="228"/>
     </row>
-    <row r="265" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:40">
       <c r="A265" s="207"/>
       <c r="B265" s="215" t="s">
-        <v>526</v>
-      </c>
-      <c r="C265" s="290">
+        <v>525</v>
+      </c>
+      <c r="C265" s="230">
         <v>4.5509997523647599E-7</v>
       </c>
-      <c r="D265" s="289">
+      <c r="D265" s="229">
         <v>4.2972357561996799E-7</v>
       </c>
-      <c r="E265" s="289">
+      <c r="E265" s="229">
         <v>1.7892215397070199E-6</v>
       </c>
-      <c r="F265" s="289">
+      <c r="F265" s="229">
         <v>4.5777621464008198E-7</v>
       </c>
-      <c r="G265" s="289">
+      <c r="G265" s="229">
         <v>1.0381196091789799E-6</v>
       </c>
-      <c r="H265" s="289">
+      <c r="H265" s="229">
         <v>7.8621156667738306E-7</v>
       </c>
-      <c r="I265" s="289">
+      <c r="I265" s="229">
         <v>2.1900531074708201E-7</v>
       </c>
-      <c r="J265" s="289">
+      <c r="J265" s="229">
         <v>3.75833046540045E-7</v>
       </c>
-      <c r="K265" s="289">
+      <c r="K265" s="229">
         <v>5.5616025680768199E-8</v>
       </c>
-      <c r="L265" s="289">
+      <c r="L265" s="229">
         <v>3.6355302033285901E-7</v>
       </c>
-      <c r="M265" s="289">
+      <c r="M265" s="229">
         <v>4.0758689395384202E-7</v>
       </c>
-      <c r="N265" s="289">
+      <c r="N265" s="229">
         <v>2.52755047100119E-7</v>
       </c>
-      <c r="O265" s="289">
+      <c r="O265" s="229">
         <v>6.4093849280586506E-8</v>
       </c>
-      <c r="P265" s="289">
+      <c r="P265" s="229">
         <v>1.0702590380919501E-7</v>
       </c>
-      <c r="Q265" s="289">
+      <c r="Q265" s="229">
         <v>2.8909892315947701E-7</v>
       </c>
       <c r="R265" s="228"/>
@@ -34416,54 +34462,54 @@
       <c r="AM265" s="228"/>
       <c r="AN265" s="228"/>
     </row>
-    <row r="266" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:40">
       <c r="A266" s="207"/>
       <c r="B266" s="216" t="s">
-        <v>531</v>
-      </c>
-      <c r="C266" s="290">
+        <v>530</v>
+      </c>
+      <c r="C266" s="230">
         <v>1.6822788301347999E-7</v>
       </c>
-      <c r="D266" s="289">
+      <c r="D266" s="229">
         <v>4.4797987357015097E-8</v>
       </c>
-      <c r="E266" s="289">
+      <c r="E266" s="229">
         <v>2.5089718760370401E-7</v>
       </c>
-      <c r="F266" s="289">
+      <c r="F266" s="229">
         <v>6.2795939232841898E-8</v>
       </c>
-      <c r="G266" s="289">
+      <c r="G266" s="229">
         <v>1.71752054952689E-7</v>
       </c>
-      <c r="H266" s="289">
+      <c r="H266" s="229">
         <v>1.56450913404738E-7</v>
       </c>
-      <c r="I266" s="289">
+      <c r="I266" s="229">
         <v>3.6727628142056799E-8</v>
       </c>
-      <c r="J266" s="289">
+      <c r="J266" s="229">
         <v>3.8729496227012402E-8</v>
       </c>
-      <c r="K266" s="289">
+      <c r="K266" s="229">
         <v>9.8138877624558007E-9</v>
       </c>
-      <c r="L266" s="289">
+      <c r="L266" s="229">
         <v>4.9944308214875099E-8</v>
       </c>
-      <c r="M266" s="289">
+      <c r="M266" s="229">
         <v>5.7648173312212103E-8</v>
       </c>
-      <c r="N266" s="289">
+      <c r="N266" s="229">
         <v>1.93590921273296E-8</v>
       </c>
-      <c r="O266" s="289">
+      <c r="O266" s="229">
         <v>1.2708486001033699E-8</v>
       </c>
-      <c r="P266" s="289">
+      <c r="P266" s="229">
         <v>2.6980683766905401E-8</v>
       </c>
-      <c r="Q266" s="289">
+      <c r="Q266" s="229">
         <v>9.2200302331188892E-8</v>
       </c>
       <c r="R266" s="228"/>
@@ -34490,54 +34536,54 @@
       <c r="AM266" s="228"/>
       <c r="AN266" s="228"/>
     </row>
-    <row r="267" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:40">
       <c r="A267" s="207"/>
       <c r="B267" s="216" t="s">
-        <v>533</v>
-      </c>
-      <c r="C267" s="290">
+        <v>532</v>
+      </c>
+      <c r="C267" s="230">
         <v>1.16237770612338E-6</v>
       </c>
-      <c r="D267" s="289">
+      <c r="D267" s="229">
         <v>1.9572489979884199E-6</v>
       </c>
-      <c r="E267" s="289">
+      <c r="E267" s="229">
         <v>1.1419929648077E-6</v>
       </c>
-      <c r="F267" s="289">
+      <c r="F267" s="229">
         <v>1.75142982192822E-7</v>
       </c>
-      <c r="G267" s="289">
+      <c r="G267" s="229">
         <v>2.32405228963219E-7</v>
       </c>
-      <c r="H267" s="289">
+      <c r="H267" s="229">
         <v>9.5381767382569505E-7</v>
       </c>
-      <c r="I267" s="289">
+      <c r="I267" s="229">
         <v>8.94978519880712E-8</v>
       </c>
-      <c r="J267" s="289">
+      <c r="J267" s="229">
         <v>3.6384300852570302E-7</v>
       </c>
-      <c r="K267" s="289">
+      <c r="K267" s="229">
         <v>3.3995122396270801E-7</v>
       </c>
-      <c r="L267" s="289">
+      <c r="L267" s="229">
         <v>5.11436790720287E-7</v>
       </c>
-      <c r="M267" s="289">
+      <c r="M267" s="229">
         <v>3.6332609209967198E-7</v>
       </c>
-      <c r="N267" s="289">
+      <c r="N267" s="229">
         <v>4.5511078602703903E-6</v>
       </c>
-      <c r="O267" s="289">
+      <c r="O267" s="229">
         <v>9.3628284727089198E-8</v>
       </c>
-      <c r="P267" s="289">
+      <c r="P267" s="229">
         <v>1.42943122559655E-7</v>
       </c>
-      <c r="Q267" s="289">
+      <c r="Q267" s="229">
         <v>3.1891444168069998E-7</v>
       </c>
       <c r="R267" s="228"/>
@@ -34564,54 +34610,54 @@
       <c r="AM267" s="228"/>
       <c r="AN267" s="228"/>
     </row>
-    <row r="268" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:40">
       <c r="A268" s="207"/>
       <c r="B268" s="216" t="s">
-        <v>534</v>
-      </c>
-      <c r="C268" s="290">
+        <v>533</v>
+      </c>
+      <c r="C268" s="230">
         <v>5.5806091293309105E-7</v>
       </c>
-      <c r="D268" s="289">
+      <c r="D268" s="229">
         <v>3.4378065864850502E-7</v>
       </c>
-      <c r="E268" s="289">
+      <c r="E268" s="229">
         <v>8.2494519827984989E-6</v>
       </c>
-      <c r="F268" s="289">
+      <c r="F268" s="229">
         <v>5.9290434266942808E-7</v>
       </c>
-      <c r="G268" s="289">
+      <c r="G268" s="229">
         <v>6.6454585423037904E-7</v>
       </c>
-      <c r="H268" s="289">
+      <c r="H268" s="229">
         <v>9.7099192989230193E-7</v>
       </c>
-      <c r="I268" s="289">
+      <c r="I268" s="229">
         <v>1.20443008609945E-7</v>
       </c>
-      <c r="J268" s="289">
+      <c r="J268" s="229">
         <v>2.0129429774865801E-7</v>
       </c>
-      <c r="K268" s="289">
+      <c r="K268" s="229">
         <v>7.3436051453064195E-8</v>
       </c>
-      <c r="L268" s="289">
+      <c r="L268" s="229">
         <v>2.24578489191395E-7</v>
       </c>
-      <c r="M268" s="289">
+      <c r="M268" s="229">
         <v>2.2194676829030299E-7</v>
       </c>
-      <c r="N268" s="289">
+      <c r="N268" s="229">
         <v>1.4035589273920999E-7</v>
       </c>
-      <c r="O268" s="289">
+      <c r="O268" s="229">
         <v>4.6713861692581303E-8</v>
       </c>
-      <c r="P268" s="289">
+      <c r="P268" s="229">
         <v>5.4087033520707602E-8</v>
       </c>
-      <c r="Q268" s="289">
+      <c r="Q268" s="229">
         <v>2.1561949066419199E-7</v>
       </c>
       <c r="R268" s="228"/>
@@ -34638,54 +34684,54 @@
       <c r="AM268" s="228"/>
       <c r="AN268" s="228"/>
     </row>
-    <row r="269" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:40">
       <c r="A269" s="207"/>
       <c r="B269" s="216" t="s">
-        <v>535</v>
-      </c>
-      <c r="C269" s="290">
+        <v>534</v>
+      </c>
+      <c r="C269" s="230">
         <v>3.74240288355478E-7</v>
       </c>
-      <c r="D269" s="289">
+      <c r="D269" s="229">
         <v>3.24707889154845E-7</v>
       </c>
-      <c r="E269" s="289">
+      <c r="E269" s="229">
         <v>1.18435938093732E-5</v>
       </c>
-      <c r="F269" s="289">
+      <c r="F269" s="229">
         <v>1.06812074853496E-7</v>
       </c>
-      <c r="G269" s="289">
+      <c r="G269" s="229">
         <v>1.53775703938121E-6</v>
       </c>
-      <c r="H269" s="289">
+      <c r="H269" s="229">
         <v>5.5081803435469004E-7</v>
       </c>
-      <c r="I269" s="289">
+      <c r="I269" s="229">
         <v>2.35100877011011E-9</v>
       </c>
-      <c r="J269" s="289">
+      <c r="J269" s="229">
         <v>2.8233327467752898E-7</v>
       </c>
-      <c r="K269" s="289">
+      <c r="K269" s="229">
         <v>3.1107608521925299E-9</v>
       </c>
-      <c r="L269" s="289">
+      <c r="L269" s="229">
         <v>1.18643824057217E-8</v>
       </c>
-      <c r="M269" s="289">
+      <c r="M269" s="229">
         <v>4.60710184408382E-8</v>
       </c>
-      <c r="N269" s="289">
+      <c r="N269" s="229">
         <v>4.3045348481283898E-9</v>
       </c>
-      <c r="O269" s="289">
+      <c r="O269" s="229">
         <v>5.0143212850774104E-9</v>
       </c>
-      <c r="P269" s="289">
+      <c r="P269" s="229">
         <v>3.3517139879209899E-9</v>
       </c>
-      <c r="Q269" s="289">
+      <c r="Q269" s="229">
         <v>5.7014136239292598E-8</v>
       </c>
       <c r="R269" s="228"/>
@@ -34712,7 +34758,7 @@
       <c r="AM269" s="228"/>
       <c r="AN269" s="228"/>
     </row>
-    <row r="270" spans="1:40" s="20" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:40" s="20" customFormat="1" ht="14.25" customHeight="1">
       <c r="R270" s="228"/>
       <c r="S270" s="228"/>
       <c r="T270" s="228"/>
@@ -34737,7 +34783,7 @@
       <c r="AM270" s="228"/>
       <c r="AN270" s="228"/>
     </row>
-    <row r="271" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:40">
       <c r="A271" s="161" t="s">
         <v>380</v>
       </c>
@@ -34766,7 +34812,7 @@
       <c r="AM271" s="228"/>
       <c r="AN271" s="228"/>
     </row>
-    <row r="272" spans="1:40" ht="30" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:40" ht="30">
       <c r="A272" s="160" t="s">
         <v>381</v>
       </c>
@@ -34800,7 +34846,7 @@
       <c r="AM272" s="228"/>
       <c r="AN272" s="228"/>
     </row>
-    <row r="273" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:6" ht="30">
       <c r="A273" s="160" t="s">
         <v>382</v>
       </c>
@@ -34811,25 +34857,25 @@
         <v>-0.3</v>
       </c>
     </row>
-    <row r="274" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:6">
       <c r="A274" s="70"/>
       <c r="B274" s="28"/>
     </row>
-    <row r="275" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:6">
       <c r="A275" s="70"/>
       <c r="B275" s="28"/>
     </row>
-    <row r="276" spans="1:6" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A276" s="262" t="s">
+    <row r="276" spans="1:6" ht="14.45" customHeight="1">
+      <c r="A276" s="237" t="s">
         <v>383</v>
       </c>
-      <c r="B276" s="262"/>
-      <c r="C276" s="262"/>
-      <c r="D276" s="262"/>
-      <c r="E276" s="263"/>
-      <c r="F276" s="263"/>
-    </row>
-    <row r="277" spans="1:6" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B276" s="237"/>
+      <c r="C276" s="237"/>
+      <c r="D276" s="237"/>
+      <c r="E276" s="238"/>
+      <c r="F276" s="238"/>
+    </row>
+    <row r="277" spans="1:6" ht="28.9" customHeight="1">
       <c r="A277" s="165" t="s">
         <v>384</v>
       </c>
@@ -34841,51 +34887,51 @@
       <c r="E277" s="43"/>
       <c r="F277" s="166"/>
     </row>
-    <row r="278" spans="1:6" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A278" s="264" t="s">
+    <row r="278" spans="1:6" ht="14.45" customHeight="1">
+      <c r="A278" s="239" t="s">
         <v>386</v>
       </c>
       <c r="B278" s="168" t="s">
         <v>387</v>
       </c>
-      <c r="C278" s="241">
+      <c r="C278" s="240">
         <v>2</v>
       </c>
-      <c r="D278" s="265" t="s">
+      <c r="D278" s="241" t="s">
         <v>389</v>
       </c>
       <c r="E278" s="42" t="s">
         <v>387</v>
       </c>
-      <c r="F278" s="241">
+      <c r="F278" s="240">
         <v>2</v>
       </c>
     </row>
-    <row r="279" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A279" s="264"/>
+    <row r="279" spans="1:6">
+      <c r="A279" s="239"/>
       <c r="B279" s="42" t="s">
         <v>391</v>
       </c>
-      <c r="C279" s="241"/>
-      <c r="D279" s="241"/>
+      <c r="C279" s="240"/>
+      <c r="D279" s="240"/>
       <c r="E279" s="42" t="s">
         <v>391</v>
       </c>
-      <c r="F279" s="241"/>
-    </row>
-    <row r="280" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A280" s="264"/>
+      <c r="F279" s="240"/>
+    </row>
+    <row r="280" spans="1:6">
+      <c r="A280" s="239"/>
       <c r="B280" s="42" t="s">
         <v>392</v>
       </c>
-      <c r="C280" s="241"/>
-      <c r="D280" s="241"/>
+      <c r="C280" s="240"/>
+      <c r="D280" s="240"/>
       <c r="E280" s="42" t="s">
         <v>392</v>
       </c>
-      <c r="F280" s="241"/>
-    </row>
-    <row r="281" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F280" s="240"/>
+    </row>
+    <row r="281" spans="1:6">
       <c r="A281" s="160" t="s">
         <v>393</v>
       </c>
@@ -34905,20 +34951,20 @@
         <v>5</v>
       </c>
     </row>
-    <row r="282" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:6">
       <c r="A282" s="70"/>
       <c r="B282" s="28"/>
     </row>
-    <row r="283" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:6">
       <c r="A283" s="70"/>
       <c r="B283" s="28"/>
     </row>
-    <row r="284" spans="1:6" s="133" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:6" s="133" customFormat="1">
       <c r="A284" s="170" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="285" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:6">
       <c r="A285" s="171" t="s">
         <v>413</v>
       </c>
@@ -34926,17 +34972,17 @@
       <c r="C285" s="133"/>
       <c r="D285" s="133"/>
     </row>
-    <row r="286" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A286" s="266" t="s">
+    <row r="286" spans="1:6">
+      <c r="A286" s="242" t="s">
         <v>414</v>
       </c>
-      <c r="B286" s="266"/>
-      <c r="C286" s="266"/>
+      <c r="B286" s="242"/>
+      <c r="C286" s="242"/>
       <c r="D286" s="172">
         <v>2</v>
       </c>
     </row>
-    <row r="287" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:6">
       <c r="A287" s="173" t="s">
         <v>415</v>
       </c>
@@ -34944,7 +34990,7 @@
       <c r="C287" s="175"/>
       <c r="D287" s="133"/>
     </row>
-    <row r="288" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:6">
       <c r="A288" s="134" t="s">
         <v>416</v>
       </c>
@@ -34952,7 +34998,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="289" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:5">
       <c r="A289" s="176" t="s">
         <v>418</v>
       </c>
@@ -34966,8 +35012,8 @@
         <v>421</v>
       </c>
     </row>
-    <row r="290" spans="1:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A290" s="267" t="s">
+    <row r="290" spans="1:5" ht="13.9" customHeight="1">
+      <c r="A290" s="243" t="s">
         <v>422</v>
       </c>
       <c r="B290" s="25" t="s">
@@ -34984,8 +35030,8 @@
         <v>0.56000000000000005</v>
       </c>
     </row>
-    <row r="291" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A291" s="267"/>
+    <row r="291" spans="1:5">
+      <c r="A291" s="243"/>
       <c r="B291" s="25" t="s">
         <v>426</v>
       </c>
@@ -35000,8 +35046,8 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="292" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A292" s="267"/>
+    <row r="292" spans="1:5">
+      <c r="A292" s="243"/>
       <c r="B292" s="25" t="s">
         <v>427</v>
       </c>
@@ -35016,8 +35062,8 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="293" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A293" s="267"/>
+    <row r="293" spans="1:5">
+      <c r="A293" s="243"/>
       <c r="B293" s="25" t="s">
         <v>428</v>
       </c>
@@ -35032,8 +35078,8 @@
         <v>0.48</v>
       </c>
     </row>
-    <row r="294" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A294" s="267"/>
+    <row r="294" spans="1:5">
+      <c r="A294" s="243"/>
       <c r="B294" s="25" t="s">
         <v>429</v>
       </c>
@@ -35048,8 +35094,8 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="295" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A295" s="267"/>
+    <row r="295" spans="1:5">
+      <c r="A295" s="243"/>
       <c r="B295" s="25" t="s">
         <v>430</v>
       </c>
@@ -35064,8 +35110,8 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="296" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A296" s="267"/>
+    <row r="296" spans="1:5">
+      <c r="A296" s="243"/>
       <c r="B296" s="25" t="s">
         <v>431</v>
       </c>
@@ -35080,8 +35126,8 @@
         <v>0.71</v>
       </c>
     </row>
-    <row r="297" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A297" s="267"/>
+    <row r="297" spans="1:5">
+      <c r="A297" s="243"/>
       <c r="B297" s="25" t="s">
         <v>432</v>
       </c>
@@ -35096,8 +35142,8 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="298" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A298" s="267"/>
+    <row r="298" spans="1:5">
+      <c r="A298" s="243"/>
       <c r="B298" s="25" t="s">
         <v>433</v>
       </c>
@@ -35112,8 +35158,8 @@
         <v>0.39</v>
       </c>
     </row>
-    <row r="299" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A299" s="267"/>
+    <row r="299" spans="1:5">
+      <c r="A299" s="243"/>
       <c r="B299" s="25" t="s">
         <v>434</v>
       </c>
@@ -35128,8 +35174,8 @@
         <v>0.53</v>
       </c>
     </row>
-    <row r="300" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A300" s="267"/>
+    <row r="300" spans="1:5">
+      <c r="A300" s="243"/>
       <c r="B300" s="25" t="s">
         <v>435</v>
       </c>
@@ -35144,8 +35190,8 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="301" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A301" s="267"/>
+    <row r="301" spans="1:5">
+      <c r="A301" s="243"/>
       <c r="B301" s="25" t="s">
         <v>436</v>
       </c>
@@ -35160,8 +35206,8 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="302" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A302" s="267"/>
+    <row r="302" spans="1:5">
+      <c r="A302" s="243"/>
       <c r="B302" s="25" t="s">
         <v>437</v>
       </c>
@@ -35176,8 +35222,8 @@
         <v>0.73499999999999999</v>
       </c>
     </row>
-    <row r="303" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A303" s="267"/>
+    <row r="303" spans="1:5">
+      <c r="A303" s="243"/>
       <c r="B303" s="25" t="s">
         <v>438</v>
       </c>
@@ -35192,8 +35238,8 @@
         <v>0.63500000000000001</v>
       </c>
     </row>
-    <row r="304" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A304" s="267"/>
+    <row r="304" spans="1:5">
+      <c r="A304" s="243"/>
       <c r="B304" s="25" t="s">
         <v>439</v>
       </c>
@@ -35208,8 +35254,8 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="305" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A305" s="267"/>
+    <row r="305" spans="1:41">
+      <c r="A305" s="243"/>
       <c r="B305" s="25" t="s">
         <v>440</v>
       </c>
@@ -35224,8 +35270,8 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="306" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A306" s="267"/>
+    <row r="306" spans="1:41">
+      <c r="A306" s="243"/>
       <c r="B306" s="25" t="s">
         <v>441</v>
       </c>
@@ -35240,8 +35286,8 @@
         <v>0.91</v>
       </c>
     </row>
-    <row r="307" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A307" s="267"/>
+    <row r="307" spans="1:41">
+      <c r="A307" s="243"/>
       <c r="B307" s="25" t="s">
         <v>442</v>
       </c>
@@ -35256,8 +35302,8 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="308" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A308" s="267"/>
+    <row r="308" spans="1:41">
+      <c r="A308" s="243"/>
       <c r="B308" s="25" t="s">
         <v>443</v>
       </c>
@@ -35272,7 +35318,7 @@
         <v>0.39500000000000002</v>
       </c>
     </row>
-    <row r="309" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:41">
       <c r="A309" s="173" t="s">
         <v>444</v>
       </c>
@@ -35280,7 +35326,7 @@
       <c r="C309" s="175"/>
       <c r="D309" s="133"/>
     </row>
-    <row r="310" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:41">
       <c r="A310" s="13" t="s">
         <v>450</v>
       </c>
@@ -35335,7 +35381,7 @@
       <c r="AN310" s="14"/>
       <c r="AO310" s="14"/>
     </row>
-    <row r="311" spans="1:41" s="28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:41" s="28" customFormat="1">
       <c r="A311" s="13" t="s">
         <v>445</v>
       </c>
@@ -35355,16 +35401,16 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="314" spans="1:41" s="222" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:41" s="222" customFormat="1">
       <c r="A314" s="224" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="B314" s="225"/>
       <c r="C314" s="225"/>
     </row>
-    <row r="315" spans="1:41" s="221" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:41" s="221" customFormat="1">
       <c r="A315" s="134" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="B315" s="25" t="s">
         <v>11</v>
@@ -35373,9 +35419,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="316" spans="1:41" s="221" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="317" spans="1:41" s="221" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="318" spans="1:41" s="222" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:41" s="221" customFormat="1"/>
+    <row r="317" spans="1:41" s="221" customFormat="1"/>
+    <row r="318" spans="1:41" s="222" customFormat="1">
       <c r="A318" s="224" t="s">
         <v>454</v>
       </c>
@@ -35385,7 +35431,7 @@
       <c r="E318" s="225"/>
       <c r="F318" s="225"/>
     </row>
-    <row r="319" spans="1:41" s="223" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:41" s="223" customFormat="1">
       <c r="A319" s="226" t="s">
         <v>455</v>
       </c>
@@ -35395,33 +35441,33 @@
       <c r="E319" s="227"/>
       <c r="F319" s="227"/>
     </row>
-    <row r="320" spans="1:41" s="221" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:41" s="221" customFormat="1" ht="14.45" customHeight="1">
       <c r="A320" s="220" t="s">
         <v>456</v>
       </c>
-      <c r="B320" s="285" t="s">
+      <c r="B320" s="276" t="s">
         <v>457</v>
       </c>
-      <c r="C320" s="286"/>
-      <c r="D320" s="283">
+      <c r="C320" s="277"/>
+      <c r="D320" s="274">
         <v>3</v>
       </c>
     </row>
-    <row r="321" spans="1:6" s="221" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:6" s="221" customFormat="1">
       <c r="A321" s="220"/>
-      <c r="B321" s="287" t="s">
+      <c r="B321" s="278" t="s">
         <v>458</v>
       </c>
-      <c r="C321" s="288"/>
-      <c r="D321" s="284"/>
-    </row>
-    <row r="322" spans="1:6" s="221" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C321" s="279"/>
+      <c r="D321" s="275"/>
+    </row>
+    <row r="322" spans="1:6" s="221" customFormat="1">
       <c r="A322" s="220"/>
-      <c r="B322" s="285" t="s">
+      <c r="B322" s="276" t="s">
         <v>459</v>
       </c>
-      <c r="C322" s="286"/>
-      <c r="D322" s="244"/>
+      <c r="C322" s="277"/>
+      <c r="D322" s="263"/>
       <c r="E322" s="13" t="s">
         <v>460</v>
       </c>
@@ -35429,7 +35475,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="323" spans="1:6" s="223" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:6" s="223" customFormat="1">
       <c r="A323" s="226" t="s">
         <v>462</v>
       </c>
@@ -35439,34 +35485,34 @@
       <c r="E323" s="227"/>
       <c r="F323" s="227"/>
     </row>
-    <row r="324" spans="1:6" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A324" s="268" t="s">
+    <row r="324" spans="1:6" ht="14.45" customHeight="1">
+      <c r="A324" s="233" t="s">
         <v>463</v>
       </c>
-      <c r="B324" s="269" t="s">
+      <c r="B324" s="234" t="s">
         <v>464</v>
       </c>
-      <c r="C324" s="269"/>
-      <c r="D324" s="270">
+      <c r="C324" s="234"/>
+      <c r="D324" s="235">
         <v>3</v>
       </c>
     </row>
-    <row r="325" spans="1:6" s="221" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A325" s="268"/>
-      <c r="B325" s="271" t="s">
+    <row r="325" spans="1:6" s="221" customFormat="1" ht="14.45" customHeight="1">
+      <c r="A325" s="233"/>
+      <c r="B325" s="236" t="s">
         <v>465</v>
       </c>
-      <c r="C325" s="271"/>
-      <c r="D325" s="270"/>
+      <c r="C325" s="236"/>
+      <c r="D325" s="235"/>
       <c r="E325"/>
     </row>
-    <row r="326" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A326" s="268"/>
-      <c r="B326" s="269" t="s">
+    <row r="326" spans="1:6">
+      <c r="A326" s="233"/>
+      <c r="B326" s="234" t="s">
         <v>466</v>
       </c>
-      <c r="C326" s="269"/>
-      <c r="D326" s="270"/>
+      <c r="C326" s="234"/>
+      <c r="D326" s="235"/>
       <c r="E326" s="13" t="s">
         <v>467</v>
       </c>
@@ -35474,7 +35520,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="327" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:6">
       <c r="A327" s="171" t="s">
         <v>468</v>
       </c>
@@ -35484,35 +35530,35 @@
       <c r="E327" s="179"/>
       <c r="F327" s="179"/>
     </row>
-    <row r="328" spans="1:6" s="223" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A328" s="268" t="s">
+    <row r="328" spans="1:6" s="223" customFormat="1">
+      <c r="A328" s="233" t="s">
         <v>469</v>
       </c>
-      <c r="B328" s="269" t="s">
-        <v>541</v>
-      </c>
-      <c r="C328" s="269"/>
-      <c r="D328" s="270">
+      <c r="B328" s="234" t="s">
+        <v>540</v>
+      </c>
+      <c r="C328" s="234"/>
+      <c r="D328" s="235">
         <v>3</v>
       </c>
       <c r="E328" s="222"/>
       <c r="F328" s="222"/>
     </row>
-    <row r="329" spans="1:6" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A329" s="268"/>
-      <c r="B329" s="271" t="s">
+    <row r="329" spans="1:6" ht="14.45" customHeight="1">
+      <c r="A329" s="233"/>
+      <c r="B329" s="236" t="s">
         <v>470</v>
       </c>
-      <c r="C329" s="271"/>
-      <c r="D329" s="270"/>
-    </row>
-    <row r="330" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A330" s="268"/>
-      <c r="B330" s="269" t="s">
+      <c r="C329" s="236"/>
+      <c r="D329" s="235"/>
+    </row>
+    <row r="330" spans="1:6">
+      <c r="A330" s="233"/>
+      <c r="B330" s="234" t="s">
         <v>471</v>
       </c>
-      <c r="C330" s="269"/>
-      <c r="D330" s="270"/>
+      <c r="C330" s="234"/>
+      <c r="D330" s="235"/>
       <c r="E330" s="13" t="s">
         <v>472</v>
       </c>
@@ -35520,14 +35566,14 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="333" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:6">
       <c r="A333" s="200" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="B333" s="132"/>
       <c r="C333" s="132"/>
     </row>
-    <row r="334" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:6">
       <c r="A334" s="76" t="s">
         <v>399</v>
       </c>
@@ -35538,7 +35584,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="335" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:6">
       <c r="A335" s="76" t="s">
         <v>401</v>
       </c>
@@ -35549,7 +35595,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="336" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:6">
       <c r="A336" s="76" t="s">
         <v>403</v>
       </c>
@@ -35566,18 +35612,18 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="337" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:38">
       <c r="A337" s="76" t="s">
         <v>407</v>
       </c>
       <c r="B337" s="25" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="C337" s="25">
         <v>185</v>
       </c>
     </row>
-    <row r="338" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:38">
       <c r="A338" s="13" t="s">
         <v>410</v>
       </c>
@@ -35588,7 +35634,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="339" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:38">
       <c r="A339" s="13" t="s">
         <v>411</v>
       </c>
@@ -35599,7 +35645,7 @@
         <v>2040</v>
       </c>
     </row>
-    <row r="342" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:38">
       <c r="F342" s="207"/>
       <c r="G342" s="207"/>
       <c r="H342" s="207"/>
@@ -35634,7 +35680,7 @@
       <c r="AK342" s="207"/>
       <c r="AL342" s="207"/>
     </row>
-    <row r="343" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:38">
       <c r="F343" s="207"/>
       <c r="G343" s="207"/>
       <c r="H343" s="207"/>
@@ -35669,7 +35715,7 @@
       <c r="AK343" s="207"/>
       <c r="AL343" s="207"/>
     </row>
-    <row r="344" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:38">
       <c r="F344" s="207"/>
       <c r="G344" s="207"/>
       <c r="H344" s="207"/>
@@ -35704,7 +35750,7 @@
       <c r="AK344" s="207"/>
       <c r="AL344" s="207"/>
     </row>
-    <row r="345" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:38">
       <c r="F345" s="207"/>
       <c r="G345" s="207"/>
       <c r="H345" s="207"/>
@@ -35739,7 +35785,7 @@
       <c r="AK345" s="207"/>
       <c r="AL345" s="207"/>
     </row>
-    <row r="346" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:38">
       <c r="F346" s="207"/>
       <c r="G346" s="207"/>
       <c r="H346" s="207"/>
@@ -35776,26 +35822,64 @@
     </row>
   </sheetData>
   <mergeCells count="94">
-    <mergeCell ref="D320:D322"/>
-    <mergeCell ref="B322:C322"/>
-    <mergeCell ref="B320:C320"/>
-    <mergeCell ref="B321:C321"/>
-    <mergeCell ref="A328:A330"/>
-    <mergeCell ref="B328:C328"/>
-    <mergeCell ref="D328:D330"/>
-    <mergeCell ref="B329:C329"/>
-    <mergeCell ref="B330:C330"/>
-    <mergeCell ref="A324:A326"/>
-    <mergeCell ref="B324:C324"/>
-    <mergeCell ref="D324:D326"/>
-    <mergeCell ref="B325:C325"/>
-    <mergeCell ref="B326:C326"/>
-    <mergeCell ref="A290:A308"/>
-    <mergeCell ref="A278:A280"/>
-    <mergeCell ref="C278:C280"/>
-    <mergeCell ref="D278:D280"/>
-    <mergeCell ref="F278:F280"/>
-    <mergeCell ref="A286:C286"/>
+    <mergeCell ref="A264:B264"/>
+    <mergeCell ref="A239:B239"/>
+    <mergeCell ref="A4:A8"/>
+    <mergeCell ref="B4:B8"/>
+    <mergeCell ref="A19:A22"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="A72:A75"/>
+    <mergeCell ref="A84:A87"/>
+    <mergeCell ref="A96:A98"/>
+    <mergeCell ref="A126:A127"/>
+    <mergeCell ref="A260:A261"/>
+    <mergeCell ref="C260:C261"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="A11:A15"/>
+    <mergeCell ref="B11:B15"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="D19:D22"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="A68:A71"/>
+    <mergeCell ref="D68:D71"/>
+    <mergeCell ref="D72:D75"/>
+    <mergeCell ref="A76:A79"/>
+    <mergeCell ref="D76:D79"/>
+    <mergeCell ref="A80:A82"/>
+    <mergeCell ref="D80:D82"/>
+    <mergeCell ref="D84:D87"/>
+    <mergeCell ref="A88:A91"/>
+    <mergeCell ref="D88:D91"/>
+    <mergeCell ref="A92:A95"/>
+    <mergeCell ref="D92:D95"/>
+    <mergeCell ref="D96:D98"/>
+    <mergeCell ref="A100:A103"/>
+    <mergeCell ref="D100:D103"/>
+    <mergeCell ref="A105:A108"/>
+    <mergeCell ref="D105:D108"/>
+    <mergeCell ref="E116:E119"/>
+    <mergeCell ref="G116:G119"/>
+    <mergeCell ref="H116:H117"/>
+    <mergeCell ref="J116:J117"/>
+    <mergeCell ref="A122:A123"/>
+    <mergeCell ref="D122:D125"/>
+    <mergeCell ref="E122:E123"/>
+    <mergeCell ref="F122:F123"/>
+    <mergeCell ref="A124:A125"/>
+    <mergeCell ref="E124:E125"/>
+    <mergeCell ref="F124:F125"/>
+    <mergeCell ref="D126:D129"/>
+    <mergeCell ref="E126:E127"/>
+    <mergeCell ref="F126:F127"/>
+    <mergeCell ref="A128:A129"/>
+    <mergeCell ref="E128:E129"/>
+    <mergeCell ref="F128:F129"/>
     <mergeCell ref="A276:D276"/>
     <mergeCell ref="E276:F276"/>
     <mergeCell ref="A130:A131"/>
@@ -35812,64 +35896,26 @@
     <mergeCell ref="A227:B227"/>
     <mergeCell ref="A233:B233"/>
     <mergeCell ref="A245:B245"/>
-    <mergeCell ref="D126:D129"/>
-    <mergeCell ref="E126:E127"/>
-    <mergeCell ref="F126:F127"/>
-    <mergeCell ref="A128:A129"/>
-    <mergeCell ref="E128:E129"/>
-    <mergeCell ref="F128:F129"/>
-    <mergeCell ref="E116:E119"/>
-    <mergeCell ref="G116:G119"/>
-    <mergeCell ref="H116:H117"/>
-    <mergeCell ref="J116:J117"/>
-    <mergeCell ref="A122:A123"/>
-    <mergeCell ref="D122:D125"/>
-    <mergeCell ref="E122:E123"/>
-    <mergeCell ref="F122:F123"/>
-    <mergeCell ref="A124:A125"/>
-    <mergeCell ref="E124:E125"/>
-    <mergeCell ref="F124:F125"/>
-    <mergeCell ref="D96:D98"/>
-    <mergeCell ref="A100:A103"/>
-    <mergeCell ref="D100:D103"/>
-    <mergeCell ref="A105:A108"/>
-    <mergeCell ref="D105:D108"/>
-    <mergeCell ref="D84:D87"/>
-    <mergeCell ref="A88:A91"/>
-    <mergeCell ref="D88:D91"/>
-    <mergeCell ref="A92:A95"/>
-    <mergeCell ref="D92:D95"/>
-    <mergeCell ref="D72:D75"/>
-    <mergeCell ref="A76:A79"/>
-    <mergeCell ref="D76:D79"/>
-    <mergeCell ref="A80:A82"/>
-    <mergeCell ref="D80:D82"/>
-    <mergeCell ref="D19:D22"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="A68:A71"/>
-    <mergeCell ref="D68:D71"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="A11:A15"/>
-    <mergeCell ref="B11:B15"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="A264:B264"/>
-    <mergeCell ref="A239:B239"/>
-    <mergeCell ref="A4:A8"/>
-    <mergeCell ref="B4:B8"/>
-    <mergeCell ref="A19:A22"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="A72:A75"/>
-    <mergeCell ref="A84:A87"/>
-    <mergeCell ref="A96:A98"/>
-    <mergeCell ref="A126:A127"/>
-    <mergeCell ref="A260:A261"/>
-    <mergeCell ref="C260:C261"/>
-    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="A290:A308"/>
+    <mergeCell ref="A278:A280"/>
+    <mergeCell ref="C278:C280"/>
+    <mergeCell ref="D278:D280"/>
+    <mergeCell ref="F278:F280"/>
+    <mergeCell ref="A286:C286"/>
+    <mergeCell ref="D320:D322"/>
+    <mergeCell ref="B322:C322"/>
+    <mergeCell ref="B320:C320"/>
+    <mergeCell ref="B321:C321"/>
+    <mergeCell ref="A328:A330"/>
+    <mergeCell ref="B328:C328"/>
+    <mergeCell ref="D328:D330"/>
+    <mergeCell ref="B329:C329"/>
+    <mergeCell ref="B330:C330"/>
+    <mergeCell ref="A324:A326"/>
+    <mergeCell ref="B324:C324"/>
+    <mergeCell ref="D324:D326"/>
+    <mergeCell ref="B325:C325"/>
+    <mergeCell ref="B326:C326"/>
   </mergeCells>
   <conditionalFormatting sqref="C265:Q265">
     <cfRule type="cellIs" dxfId="4" priority="5" operator="lessThan">
@@ -35896,8 +35942,8 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="1">
-    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Error" error="Energy intensity per sector is selected" sqref="B257:K257" xr:uid="{00000000-0002-0000-0200-000000000000}">
+  <dataValidations disablePrompts="1" count="1">
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Error" error="Energy intensity per sector is selected" sqref="B257:K257">
       <formula1>#REF!=0</formula1>
       <formula2>0</formula2>
     </dataValidation>
